--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5680" uniqueCount="3081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5687" uniqueCount="3087">
   <si>
     <t>USER</t>
   </si>
@@ -9496,21 +9496,12 @@
     <t>IF/ELSE</t>
   </si>
   <si>
-    <t>public Person(String s) {</t>
-  </si>
-  <si>
     <t>name=s;</t>
   </si>
   <si>
     <t>Person p1=new Person("jane");</t>
   </si>
   <si>
-    <t>Person p2=new Person("mike");</t>
-  </si>
-  <si>
-    <t>Person p3=new Person("andy");</t>
-  </si>
-  <si>
     <t>variale</t>
   </si>
   <si>
@@ -9548,6 +9539,33 @@
   </si>
   <si>
     <t>====</t>
+  </si>
+  <si>
+    <t>public Person(String s){</t>
+  </si>
+  <si>
+    <t>Person p2=new Person("mike",25);</t>
+  </si>
+  <si>
+    <t>public Person( String s,int a) {</t>
+  </si>
+  <si>
+    <t>age =a;</t>
+  </si>
+  <si>
+    <t>overloaded polymorphism</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>carpenter</t>
+  </si>
+  <si>
+    <t>engineer</t>
+  </si>
+  <si>
+    <t>c.occuption();</t>
   </si>
 </sst>
 </file>
@@ -19680,8 +19698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P229"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19690,8 +19708,15 @@
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A1" t="s">
+        <v>1853</v>
+      </c>
+    </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B2" t="s">
+        <v>358</v>
+      </c>
       <c r="E2" s="30"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
@@ -19703,12 +19728,12 @@
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>1853</v>
+      <c r="B3" t="s">
+        <v>710</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="27" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>1440</v>
@@ -19717,12 +19742,15 @@
       <c r="I3" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="49"/>
       <c r="M3" s="34"/>
     </row>
     <row r="4" spans="1:13">
+      <c r="B4" t="s">
+        <v>3078</v>
+      </c>
       <c r="E4" s="33"/>
       <c r="F4" s="27" t="s">
         <v>1876</v>
@@ -19732,18 +19760,18 @@
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="27" t="s">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="52" t="s">
         <v>526</v>
       </c>
       <c r="M4" s="34"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B5" t="s">
-        <v>358</v>
+      <c r="C5" t="s">
+        <v>3063</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="27" t="s">
@@ -19754,32 +19782,32 @@
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="37"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="L5" s="55">
+        <v>10</v>
+      </c>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="B6" t="s">
-        <v>3063</v>
+        <v>146</v>
       </c>
       <c r="E6" s="33"/>
-      <c r="F6" s="38" t="s">
-        <v>2458</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>2748</v>
-      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="C7" t="s">
-        <v>3064</v>
+      <c r="B7" t="s">
+        <v>3080</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="27"/>
@@ -19788,102 +19816,106 @@
       <c r="I7" s="27" t="s">
         <v>2023</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
       <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" t="s">
-        <v>146</v>
+      <c r="C8" t="s">
+        <v>3063</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="27" t="s">
+      <c r="J8" s="50"/>
+      <c r="K8" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="52" t="s">
         <v>561</v>
       </c>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A9" t="s">
-        <v>146</v>
+      <c r="C9" t="s">
+        <v>3081</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="37"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="L9" s="55">
+        <v>25</v>
+      </c>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
       <c r="E10" s="33"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
       <c r="E11" s="33"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
-      <c r="I11" s="27" t="s">
-        <v>2748</v>
-      </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="49"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="34" t="s">
-        <v>1028</v>
-      </c>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="A13" t="s">
-        <v>3066</v>
+        <v>3079</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="55"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>3067</v>
+      <c r="B14" t="s">
+        <v>3082</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="27"/>
@@ -21243,18 +21275,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:V272"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:13">
       <c r="H2" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="I2" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="J2" t="s">
         <v>763</v>
@@ -21262,17 +21294,17 @@
     </row>
     <row r="4" spans="2:13">
       <c r="H4" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="5" spans="2:13">
       <c r="H5" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="H6" s="56" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
@@ -21284,12 +21316,12 @@
       <c r="D9" s="301"/>
       <c r="F9" s="30"/>
       <c r="G9" s="79" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="H9" s="32"/>
       <c r="K9" s="299"/>
       <c r="L9" s="302" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="M9" s="301"/>
     </row>
@@ -21331,13 +21363,13 @@
       <c r="C13" s="27"/>
       <c r="D13" s="34"/>
       <c r="E13" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="27"/>
       <c r="H13" s="34"/>
       <c r="J13" s="292" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="27"/>
@@ -21345,25 +21377,25 @@
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="33" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="34" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="34" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14" s="34" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -21380,17 +21412,17 @@
     <row r="16" spans="2:13">
       <c r="B16" s="33"/>
       <c r="C16" s="27" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="D16" s="34"/>
       <c r="F16" s="33"/>
       <c r="G16" s="27" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="H16" s="34"/>
       <c r="K16" s="33"/>
       <c r="L16" s="27" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="M16" s="34"/>
     </row>
@@ -21454,7 +21486,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="49" spans="2:22">
+    <row r="49" spans="1:22">
       <c r="E49" s="30"/>
       <c r="F49" s="31"/>
       <c r="G49" s="32"/>
@@ -21462,7 +21494,7 @@
       <c r="L49" s="31"/>
       <c r="M49" s="32"/>
     </row>
-    <row r="50" spans="2:22">
+    <row r="50" spans="1:22">
       <c r="E50" s="33" t="s">
         <v>728</v>
       </c>
@@ -21474,9 +21506,9 @@
       <c r="L50" s="27"/>
       <c r="M50" s="34"/>
     </row>
-    <row r="51" spans="2:22">
-      <c r="B51" t="s">
-        <v>3069</v>
+    <row r="51" spans="1:22">
+      <c r="A51" t="s">
+        <v>3066</v>
       </c>
       <c r="E51" s="33"/>
       <c r="F51" s="27" t="s">
@@ -21489,7 +21521,10 @@
       </c>
       <c r="M51" s="34"/>
     </row>
-    <row r="52" spans="2:22" ht="15.75" thickBot="1">
+    <row r="52" spans="1:22" ht="15.75" thickBot="1">
+      <c r="B52" t="s">
+        <v>3083</v>
+      </c>
       <c r="E52" s="35" t="s">
         <v>146</v>
       </c>
@@ -21501,33 +21536,39 @@
       <c r="L52" s="36"/>
       <c r="M52" s="37"/>
     </row>
-    <row r="53" spans="2:22">
-      <c r="B53" t="s">
-        <v>2549</v>
+    <row r="53" spans="1:22">
+      <c r="C53" t="s">
+        <v>3084</v>
       </c>
       <c r="P53" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="54" spans="2:22">
+    <row r="54" spans="1:22">
       <c r="P54" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="55" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B55" t="s">
-        <v>731</v>
+    <row r="55" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A55" t="s">
+        <v>2549</v>
       </c>
       <c r="H55" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="56" spans="2:22">
+    <row r="56" spans="1:22">
+      <c r="B56" t="s">
+        <v>3083</v>
+      </c>
       <c r="H56" s="30"/>
       <c r="I56" s="31"/>
       <c r="J56" s="32"/>
     </row>
-    <row r="57" spans="2:22">
+    <row r="57" spans="1:22">
+      <c r="C57" t="s">
+        <v>3085</v>
+      </c>
       <c r="H57" s="33"/>
       <c r="I57" t="s">
         <v>732</v>
@@ -21537,14 +21578,17 @@
         <v>738</v>
       </c>
     </row>
-    <row r="58" spans="2:22">
+    <row r="58" spans="1:22">
       <c r="H58" s="33"/>
       <c r="I58" t="s">
         <v>733</v>
       </c>
       <c r="J58" s="34"/>
     </row>
-    <row r="59" spans="2:22">
+    <row r="59" spans="1:22">
+      <c r="A59" t="s">
+        <v>731</v>
+      </c>
       <c r="H59" s="33"/>
       <c r="I59" s="27"/>
       <c r="J59" s="34"/>
@@ -21555,12 +21599,15 @@
         <v>742</v>
       </c>
     </row>
-    <row r="60" spans="2:22">
+    <row r="60" spans="1:22">
       <c r="H60" s="33"/>
       <c r="I60" s="27"/>
       <c r="J60" s="34"/>
     </row>
-    <row r="61" spans="2:22" ht="15.75" thickBot="1">
+    <row r="61" spans="1:22" ht="15.75" thickBot="1">
+      <c r="B61" t="s">
+        <v>3086</v>
+      </c>
       <c r="H61" s="35"/>
       <c r="I61" s="36"/>
       <c r="J61" s="37"/>
@@ -21574,7 +21621,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="63" spans="2:22">
+    <row r="63" spans="1:22">
       <c r="B63" t="s">
         <v>734</v>
       </c>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5687" uniqueCount="3087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5723" uniqueCount="3108">
   <si>
     <t>USER</t>
   </si>
@@ -9567,12 +9567,75 @@
   <si>
     <t>c.occuption();</t>
   </si>
+  <si>
+    <t>((IphoneX) i3) .faceRecog();</t>
+  </si>
+  <si>
+    <t>Type Casting</t>
+  </si>
+  <si>
+    <t>Person pp=null;</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>SUBCLASS Parent 1</t>
+  </si>
+  <si>
+    <t>SUBCLASS Parent 2</t>
+  </si>
+  <si>
+    <t>Interface Parent1</t>
+  </si>
+  <si>
+    <t>Interface Parent2</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>INHERIT</t>
+  </si>
+  <si>
+    <t>public void occupation</t>
+  </si>
+  <si>
+    <t>sysout("Astronaut");</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>default test()</t>
+  </si>
+  <si>
+    <t>sysout( "do this");</t>
+  </si>
+  <si>
+    <t>sysout( "do that");</t>
+  </si>
+  <si>
+    <t>test()</t>
+  </si>
+  <si>
+    <t>sysout(" do something");</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>override</t>
+  </si>
+  <si>
+    <t>Java 1.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9663,6 +9726,13 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -10126,7 +10196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="320">
+  <cellXfs count="323">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -10787,6 +10857,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13519,7 +13592,7 @@
   <dimension ref="A2:T200"/>
   <sheetViews>
     <sheetView topLeftCell="A178" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G194" sqref="G194"/>
+      <selection activeCell="K180" sqref="K180:L182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15672,7 +15745,7 @@
     </row>
     <row r="181" spans="1:18">
       <c r="B181" t="s">
-        <v>275</v>
+        <v>3089</v>
       </c>
       <c r="F181" s="33"/>
       <c r="G181" s="51" t="s">
@@ -15698,7 +15771,7 @@
     </row>
     <row r="182" spans="1:18" ht="15.75" thickBot="1">
       <c r="B182" t="s">
-        <v>3050</v>
+        <v>275</v>
       </c>
       <c r="F182" s="33"/>
       <c r="G182" s="51" t="s">
@@ -15720,7 +15793,7 @@
     </row>
     <row r="183" spans="1:18">
       <c r="B183" t="s">
-        <v>3022</v>
+        <v>3050</v>
       </c>
       <c r="F183" s="33"/>
       <c r="G183" s="51" t="s">
@@ -15742,10 +15815,12 @@
     </row>
     <row r="184" spans="1:18">
       <c r="B184" t="s">
-        <v>509</v>
+        <v>3022</v>
       </c>
       <c r="F184" s="33"/>
-      <c r="G184" s="51"/>
+      <c r="G184" s="51" t="s">
+        <v>3090</v>
+      </c>
       <c r="H184" s="51"/>
       <c r="I184" s="27"/>
       <c r="J184" s="27"/>
@@ -15759,8 +15834,8 @@
       <c r="R184" s="34"/>
     </row>
     <row r="185" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A185" t="s">
-        <v>146</v>
+      <c r="B185" t="s">
+        <v>509</v>
       </c>
       <c r="F185" s="33"/>
       <c r="G185" s="51"/>
@@ -15778,7 +15853,7 @@
     </row>
     <row r="186" spans="1:18">
       <c r="A186" t="s">
-        <v>3049</v>
+        <v>146</v>
       </c>
       <c r="F186" s="33"/>
       <c r="G186" s="51"/>
@@ -15797,8 +15872,8 @@
       <c r="R186" s="34"/>
     </row>
     <row r="187" spans="1:18">
-      <c r="B187" t="s">
-        <v>1844</v>
+      <c r="A187" t="s">
+        <v>3049</v>
       </c>
       <c r="F187" s="33"/>
       <c r="G187" s="51"/>
@@ -15820,7 +15895,7 @@
     </row>
     <row r="188" spans="1:18" ht="15.75" thickBot="1">
       <c r="B188" t="s">
-        <v>3041</v>
+        <v>1844</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="27"/>
@@ -15838,7 +15913,7 @@
     </row>
     <row r="189" spans="1:18">
       <c r="B189" t="s">
-        <v>2083</v>
+        <v>3041</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" t="s">
@@ -15858,7 +15933,7 @@
     </row>
     <row r="190" spans="1:18">
       <c r="B190" t="s">
-        <v>3019</v>
+        <v>2083</v>
       </c>
       <c r="F190" s="33"/>
       <c r="G190" s="27"/>
@@ -15875,8 +15950,8 @@
       <c r="R190" s="34"/>
     </row>
     <row r="191" spans="1:18">
-      <c r="A191" t="s">
-        <v>146</v>
+      <c r="B191" t="s">
+        <v>3019</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="27"/>
@@ -15894,7 +15969,7 @@
     </row>
     <row r="192" spans="1:18">
       <c r="A192" t="s">
-        <v>3042</v>
+        <v>146</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="27"/>
@@ -15911,8 +15986,8 @@
       <c r="R192" s="34"/>
     </row>
     <row r="193" spans="1:18">
-      <c r="B193" t="s">
-        <v>1852</v>
+      <c r="A193" t="s">
+        <v>3042</v>
       </c>
       <c r="F193" s="33"/>
       <c r="G193" s="27"/>
@@ -15930,7 +16005,7 @@
     </row>
     <row r="194" spans="1:18">
       <c r="B194" t="s">
-        <v>3043</v>
+        <v>1852</v>
       </c>
       <c r="F194" s="33"/>
       <c r="G194" s="27" t="s">
@@ -15949,8 +16024,8 @@
       <c r="R194" s="34"/>
     </row>
     <row r="195" spans="1:18">
-      <c r="A195" t="s">
-        <v>146</v>
+      <c r="B195" t="s">
+        <v>3043</v>
       </c>
       <c r="F195" s="33"/>
       <c r="G195" s="27" t="s">
@@ -15970,7 +16045,7 @@
     </row>
     <row r="196" spans="1:18">
       <c r="A196" t="s">
-        <v>3044</v>
+        <v>146</v>
       </c>
       <c r="F196" s="33"/>
       <c r="G196" s="38"/>
@@ -15987,8 +16062,8 @@
       <c r="R196" s="34"/>
     </row>
     <row r="197" spans="1:18">
-      <c r="B197" t="s">
-        <v>3045</v>
+      <c r="A197" t="s">
+        <v>3044</v>
       </c>
       <c r="F197" s="33"/>
       <c r="G197" s="27"/>
@@ -16005,8 +16080,8 @@
       <c r="R197" s="34"/>
     </row>
     <row r="198" spans="1:18">
-      <c r="A198" t="s">
-        <v>146</v>
+      <c r="B198" t="s">
+        <v>3045</v>
       </c>
       <c r="F198" s="33"/>
       <c r="G198" s="27"/>
@@ -16023,6 +16098,9 @@
       <c r="R198" s="34"/>
     </row>
     <row r="199" spans="1:18">
+      <c r="A199" t="s">
+        <v>146</v>
+      </c>
       <c r="F199" s="33"/>
       <c r="G199" s="27"/>
       <c r="H199" s="27"/>
@@ -21273,10 +21351,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:V272"/>
+  <dimension ref="A2:V293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F286" sqref="F286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21308,6 +21386,14 @@
       </c>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="H7" t="s">
+        <v>3087</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3088</v>
+      </c>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="9" spans="2:13">
@@ -21510,31 +21596,31 @@
       <c r="A51" t="s">
         <v>3066</v>
       </c>
-      <c r="E51" s="33"/>
-      <c r="F51" s="27" t="s">
+      <c r="E51" s="80"/>
+      <c r="F51" s="39" t="s">
         <v>730</v>
       </c>
-      <c r="G51" s="34"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="27" t="s">
+      <c r="G51" s="41"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="39" t="s">
         <v>729</v>
       </c>
-      <c r="M51" s="34"/>
+      <c r="M51" s="41"/>
     </row>
     <row r="52" spans="1:22" ht="15.75" thickBot="1">
       <c r="B52" t="s">
         <v>3083</v>
       </c>
-      <c r="E52" s="35" t="s">
+      <c r="E52" s="320" t="s">
         <v>146</v>
       </c>
-      <c r="F52" s="36"/>
-      <c r="G52" s="37"/>
-      <c r="K52" s="35" t="s">
+      <c r="F52" s="321"/>
+      <c r="G52" s="132"/>
+      <c r="K52" s="320" t="s">
         <v>146</v>
       </c>
-      <c r="L52" s="36"/>
-      <c r="M52" s="37"/>
+      <c r="L52" s="321"/>
+      <c r="M52" s="132"/>
     </row>
     <row r="53" spans="1:22">
       <c r="C53" t="s">
@@ -22850,6 +22936,229 @@
       <c r="J272" s="56" t="s">
         <v>2489</v>
       </c>
+    </row>
+    <row r="273" spans="1:19">
+      <c r="C273" t="s">
+        <v>3107</v>
+      </c>
+      <c r="J273" s="152"/>
+    </row>
+    <row r="274" spans="1:19">
+      <c r="J274" s="152"/>
+    </row>
+    <row r="275" spans="1:19">
+      <c r="J275" s="152"/>
+    </row>
+    <row r="276" spans="1:19">
+      <c r="A276" t="s">
+        <v>3091</v>
+      </c>
+      <c r="G276" t="s">
+        <v>3092</v>
+      </c>
+      <c r="J276" s="152"/>
+      <c r="K276" t="s">
+        <v>3093</v>
+      </c>
+      <c r="Q276" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="277" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A277" t="s">
+        <v>720</v>
+      </c>
+      <c r="G277" t="s">
+        <v>727</v>
+      </c>
+      <c r="J277" s="152"/>
+      <c r="K277" t="s">
+        <v>720</v>
+      </c>
+      <c r="Q277" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="278" spans="1:19">
+      <c r="A278" s="30"/>
+      <c r="B278" s="31"/>
+      <c r="C278" s="32"/>
+      <c r="G278" s="30"/>
+      <c r="H278" s="31"/>
+      <c r="I278" s="32"/>
+      <c r="J278" s="152"/>
+      <c r="K278" s="30"/>
+      <c r="L278" s="31"/>
+      <c r="M278" s="32"/>
+      <c r="Q278" s="30"/>
+      <c r="R278" s="31"/>
+      <c r="S278" s="32"/>
+    </row>
+    <row r="279" spans="1:19" ht="23.25">
+      <c r="A279" s="33" t="s">
+        <v>728</v>
+      </c>
+      <c r="B279" s="27"/>
+      <c r="C279" s="34"/>
+      <c r="E279" s="322" t="s">
+        <v>3095</v>
+      </c>
+      <c r="G279" s="33" t="s">
+        <v>728</v>
+      </c>
+      <c r="H279" s="27"/>
+      <c r="I279" s="34"/>
+      <c r="J279" s="152"/>
+      <c r="K279" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="L279" s="27"/>
+      <c r="M279" s="34"/>
+      <c r="O279" s="125" t="s">
+        <v>3099</v>
+      </c>
+      <c r="Q279" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="R279" s="27"/>
+      <c r="S279" s="34"/>
+    </row>
+    <row r="280" spans="1:19">
+      <c r="A280" s="80"/>
+      <c r="B280" s="39" t="s">
+        <v>730</v>
+      </c>
+      <c r="C280" s="41"/>
+      <c r="G280" s="80"/>
+      <c r="H280" s="39" t="s">
+        <v>729</v>
+      </c>
+      <c r="I280" s="41"/>
+      <c r="J280" s="152"/>
+      <c r="K280" s="80" t="s">
+        <v>3100</v>
+      </c>
+      <c r="L280" s="39"/>
+      <c r="M280" s="41"/>
+      <c r="Q280" s="80" t="s">
+        <v>3100</v>
+      </c>
+      <c r="R280" s="39"/>
+      <c r="S280" s="41"/>
+    </row>
+    <row r="281" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A281" s="320" t="s">
+        <v>146</v>
+      </c>
+      <c r="B281" s="321"/>
+      <c r="C281" s="132"/>
+      <c r="G281" s="320" t="s">
+        <v>146</v>
+      </c>
+      <c r="H281" s="321"/>
+      <c r="I281" s="132"/>
+      <c r="J281" s="152"/>
+      <c r="K281" s="320"/>
+      <c r="L281" s="321" t="s">
+        <v>3101</v>
+      </c>
+      <c r="M281" s="132"/>
+      <c r="Q281" s="320"/>
+      <c r="R281" s="321" t="s">
+        <v>3102</v>
+      </c>
+      <c r="S281" s="132"/>
+    </row>
+    <row r="282" spans="1:19">
+      <c r="J282" s="152"/>
+    </row>
+    <row r="283" spans="1:19">
+      <c r="E283" t="s">
+        <v>3096</v>
+      </c>
+      <c r="J283" s="152"/>
+    </row>
+    <row r="284" spans="1:19" ht="15.75" thickBot="1">
+      <c r="D284" t="s">
+        <v>731</v>
+      </c>
+      <c r="J284" s="152"/>
+      <c r="N284" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19">
+      <c r="D285" s="30"/>
+      <c r="E285" s="31"/>
+      <c r="F285" s="32"/>
+      <c r="J285" s="152"/>
+      <c r="N285" s="33" t="s">
+        <v>3097</v>
+      </c>
+      <c r="P285" s="32"/>
+    </row>
+    <row r="286" spans="1:19">
+      <c r="D286" s="33"/>
+      <c r="F286" s="34"/>
+      <c r="J286" s="152"/>
+      <c r="N286" s="33"/>
+      <c r="O286" s="27" t="s">
+        <v>3098</v>
+      </c>
+      <c r="P286" s="34"/>
+    </row>
+    <row r="287" spans="1:19">
+      <c r="D287" s="33"/>
+      <c r="F287" s="34"/>
+      <c r="J287" s="152"/>
+      <c r="N287" s="33"/>
+      <c r="P287" s="34"/>
+    </row>
+    <row r="288" spans="1:19">
+      <c r="D288" s="33"/>
+      <c r="E288" s="27"/>
+      <c r="F288" s="34"/>
+      <c r="J288" s="152"/>
+      <c r="L288" t="s">
+        <v>3105</v>
+      </c>
+      <c r="N288" s="33" t="s">
+        <v>3103</v>
+      </c>
+      <c r="O288" s="27"/>
+      <c r="P288" s="34"/>
+    </row>
+    <row r="289" spans="4:16">
+      <c r="D289" s="33"/>
+      <c r="E289" s="27"/>
+      <c r="F289" s="34"/>
+      <c r="J289" s="152"/>
+      <c r="L289" t="s">
+        <v>3106</v>
+      </c>
+      <c r="N289" s="33"/>
+      <c r="O289" s="27" t="s">
+        <v>3104</v>
+      </c>
+      <c r="P289" s="34"/>
+    </row>
+    <row r="290" spans="4:16" ht="15.75" thickBot="1">
+      <c r="D290" s="35"/>
+      <c r="E290" s="36"/>
+      <c r="F290" s="37"/>
+      <c r="J290" s="152"/>
+      <c r="N290" s="35"/>
+      <c r="O290" s="36"/>
+      <c r="P290" s="37"/>
+    </row>
+    <row r="291" spans="4:16">
+      <c r="J291" s="152"/>
+    </row>
+    <row r="292" spans="4:16">
+      <c r="J292" s="152"/>
+    </row>
+    <row r="293" spans="4:16">
+      <c r="J293" s="152"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="18" activeTab="24"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="19" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -32,16 +32,17 @@
     <sheet name="exception_handling" sheetId="22" r:id="rId23"/>
     <sheet name="threads" sheetId="23" r:id="rId24"/>
     <sheet name="collection" sheetId="24" r:id="rId25"/>
-    <sheet name="collection2" sheetId="25" r:id="rId26"/>
-    <sheet name="col-unique" sheetId="26" r:id="rId27"/>
-    <sheet name="file" sheetId="27" r:id="rId28"/>
+    <sheet name="unqiueness" sheetId="29" r:id="rId26"/>
+    <sheet name="collection2" sheetId="25" r:id="rId27"/>
+    <sheet name="col-unique" sheetId="26" r:id="rId28"/>
+    <sheet name="file" sheetId="27" r:id="rId29"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6145" uniqueCount="3251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6208" uniqueCount="3275">
   <si>
     <t>USER</t>
   </si>
@@ -10059,6 +10060,78 @@
   </si>
   <si>
     <t>#ooo</t>
+  </si>
+  <si>
+    <t>set.add("mike");</t>
+  </si>
+  <si>
+    <t>Student s1=new Student(1,"john doe");</t>
+  </si>
+  <si>
+    <t>Student s2=new Student(2,"andy doe");</t>
+  </si>
+  <si>
+    <t>Student s3=new Student(1,"jane doe");</t>
+  </si>
+  <si>
+    <t>Student s4=new Student(1,"mike doe");</t>
+  </si>
+  <si>
+    <t>Student s5=new Student(1,"john doe");</t>
+  </si>
+  <si>
+    <t>HashSet&lt;Student&gt; school=new HashSet&lt;Student&gt; ();</t>
+  </si>
+  <si>
+    <t>school.add(s5);</t>
+  </si>
+  <si>
+    <t>andy doe</t>
+  </si>
+  <si>
+    <t>jane doe</t>
+  </si>
+  <si>
+    <t>mike doe</t>
+  </si>
+  <si>
+    <t>Object o=new Student();</t>
+  </si>
+  <si>
+    <t>((Student) o)</t>
+  </si>
+  <si>
+    <t>public int hashCode() {</t>
+  </si>
+  <si>
+    <t>public boolean equals(Object o) {</t>
+  </si>
+  <si>
+    <t>Student anotherStudObject=(Student)o;</t>
+  </si>
+  <si>
+    <t>if(this.name.equals(anotherStudObject.name))</t>
+  </si>
+  <si>
+    <t>return false;</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>DUPIICATE</t>
+  </si>
+  <si>
+    <t>#abc( john)</t>
+  </si>
+  <si>
+    <t>#aaa(andy)</t>
+  </si>
+  <si>
+    <t>#bbb(jane)</t>
+  </si>
+  <si>
+    <t>#ccc(mike)</t>
   </si>
 </sst>
 </file>
@@ -10639,7 +10712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="345">
+  <cellXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11268,6 +11341,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11319,14 +11403,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11336,21 +11415,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21844,8 +21935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:V293"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F286" sqref="F286"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21877,6 +21968,9 @@
       </c>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
+      <c r="L6" t="s">
+        <v>3262</v>
+      </c>
     </row>
     <row r="7" spans="2:13">
       <c r="H7" t="s">
@@ -21884,6 +21978,9 @@
       </c>
       <c r="K7" t="s">
         <v>3071</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3263</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1"/>
@@ -25009,13 +25106,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="316" t="s">
+      <c r="H3" s="325" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="317"/>
-      <c r="J3" s="317"/>
-      <c r="K3" s="317"/>
-      <c r="L3" s="318"/>
+      <c r="I3" s="326"/>
+      <c r="J3" s="326"/>
+      <c r="K3" s="326"/>
+      <c r="L3" s="327"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
@@ -25033,20 +25130,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="319" t="s">
+      <c r="G6" s="328" t="s">
         <v>1661</v>
       </c>
-      <c r="H6" s="320"/>
+      <c r="H6" s="329"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="319" t="s">
+      <c r="J6" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="320"/>
+      <c r="K6" s="329"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="319" t="s">
+      <c r="M6" s="328" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="320"/>
+      <c r="N6" s="329"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="125" t="s">
@@ -25064,20 +25161,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="321" t="s">
+      <c r="G8" s="330" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="322"/>
+      <c r="H8" s="331"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="321" t="s">
+      <c r="J8" s="330" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="322"/>
+      <c r="K8" s="331"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="321" t="s">
+      <c r="M8" s="330" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="322"/>
+      <c r="N8" s="331"/>
       <c r="Q8" s="144"/>
     </row>
     <row r="9" spans="1:18">
@@ -25117,29 +25214,29 @@
       <c r="Q11" s="144"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="F12" s="312" t="s">
+      <c r="F12" s="321" t="s">
         <v>2761</v>
       </c>
-      <c r="G12" s="313"/>
-      <c r="H12" s="313"/>
-      <c r="I12" s="313"/>
-      <c r="J12" s="313"/>
-      <c r="K12" s="313"/>
-      <c r="L12" s="313"/>
-      <c r="M12" s="313"/>
-      <c r="N12" s="313"/>
+      <c r="G12" s="322"/>
+      <c r="H12" s="322"/>
+      <c r="I12" s="322"/>
+      <c r="J12" s="322"/>
+      <c r="K12" s="322"/>
+      <c r="L12" s="322"/>
+      <c r="M12" s="322"/>
+      <c r="N12" s="322"/>
       <c r="Q12" s="144"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F13" s="314"/>
-      <c r="G13" s="315"/>
-      <c r="H13" s="315"/>
-      <c r="I13" s="315"/>
-      <c r="J13" s="315"/>
-      <c r="K13" s="315"/>
-      <c r="L13" s="315"/>
-      <c r="M13" s="315"/>
-      <c r="N13" s="315"/>
+      <c r="F13" s="323"/>
+      <c r="G13" s="324"/>
+      <c r="H13" s="324"/>
+      <c r="I13" s="324"/>
+      <c r="J13" s="324"/>
+      <c r="K13" s="324"/>
+      <c r="L13" s="324"/>
+      <c r="M13" s="324"/>
+      <c r="N13" s="324"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
@@ -26115,7 +26212,7 @@
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="49"/>
-      <c r="L3" s="327" t="s">
+      <c r="L3" s="336" t="s">
         <v>3112</v>
       </c>
     </row>
@@ -26144,7 +26241,7 @@
       <c r="K4" s="52" t="s">
         <v>561</v>
       </c>
-      <c r="L4" s="328"/>
+      <c r="L4" s="337"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="A5" s="96"/>
@@ -26162,7 +26259,7 @@
       <c r="K5" s="55">
         <v>123</v>
       </c>
-      <c r="L5" s="328"/>
+      <c r="L5" s="337"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="96"/>
@@ -26176,7 +26273,7 @@
       <c r="I6" s="51"/>
       <c r="J6" s="51"/>
       <c r="K6" s="51"/>
-      <c r="L6" s="328"/>
+      <c r="L6" s="337"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="96"/>
@@ -26192,7 +26289,7 @@
       </c>
       <c r="J7" s="47"/>
       <c r="K7" s="49"/>
-      <c r="L7" s="328"/>
+      <c r="L7" s="337"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="96"/>
@@ -26210,7 +26307,7 @@
       <c r="K8" s="52" t="s">
         <v>526</v>
       </c>
-      <c r="L8" s="328"/>
+      <c r="L8" s="337"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="96" t="s">
@@ -26228,7 +26325,7 @@
       <c r="K9" s="55">
         <v>124</v>
       </c>
-      <c r="L9" s="328"/>
+      <c r="L9" s="337"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="F10" s="50"/>
@@ -26237,7 +26334,7 @@
       <c r="I10" s="51"/>
       <c r="J10" s="51"/>
       <c r="K10" s="51"/>
-      <c r="L10" s="328"/>
+      <c r="L10" s="337"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="96" t="s">
@@ -26250,7 +26347,7 @@
       <c r="I11" s="51"/>
       <c r="J11" s="47"/>
       <c r="K11" s="49"/>
-      <c r="L11" s="328"/>
+      <c r="L11" s="337"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="96" t="s">
@@ -26266,7 +26363,7 @@
       <c r="K12" s="52" t="s">
         <v>3104</v>
       </c>
-      <c r="L12" s="328"/>
+      <c r="L12" s="337"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="96" t="s">
@@ -26282,7 +26379,7 @@
       <c r="K13" s="55">
         <v>222</v>
       </c>
-      <c r="L13" s="328"/>
+      <c r="L13" s="337"/>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="57" t="s">
@@ -38769,7 +38866,7 @@
       <c r="E4" s="106"/>
       <c r="F4" s="106"/>
       <c r="G4" s="106"/>
-      <c r="H4" s="330" t="s">
+      <c r="H4" s="312" t="s">
         <v>3194</v>
       </c>
       <c r="I4" s="106"/>
@@ -38788,7 +38885,7 @@
       <c r="E5" s="106"/>
       <c r="F5" s="106"/>
       <c r="G5" s="106"/>
-      <c r="H5" s="330" t="s">
+      <c r="H5" s="312" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="106"/>
@@ -39234,25 +39331,25 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="106"/>
-      <c r="B29" s="321" t="s">
+      <c r="B29" s="330" t="s">
         <v>3202</v>
       </c>
-      <c r="C29" s="331"/>
-      <c r="D29" s="322"/>
+      <c r="C29" s="338"/>
+      <c r="D29" s="331"/>
       <c r="E29" s="106"/>
       <c r="F29" s="106"/>
-      <c r="G29" s="321" t="s">
+      <c r="G29" s="330" t="s">
         <v>1357</v>
       </c>
-      <c r="H29" s="331"/>
-      <c r="I29" s="322"/>
+      <c r="H29" s="338"/>
+      <c r="I29" s="331"/>
       <c r="J29" s="106"/>
       <c r="K29" s="106"/>
-      <c r="L29" s="321" t="s">
+      <c r="L29" s="330" t="s">
         <v>3203</v>
       </c>
-      <c r="M29" s="331"/>
-      <c r="N29" s="322"/>
+      <c r="M29" s="338"/>
+      <c r="N29" s="331"/>
       <c r="O29" s="106"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1">
@@ -39288,7 +39385,7 @@
       <c r="I31" s="75"/>
       <c r="J31" s="106"/>
       <c r="K31" s="106"/>
-      <c r="L31" s="333" t="s">
+      <c r="L31" s="339" t="s">
         <v>3217</v>
       </c>
       <c r="M31" s="38" t="s">
@@ -39313,7 +39410,7 @@
       <c r="I32" s="75"/>
       <c r="J32" s="106"/>
       <c r="K32" s="106"/>
-      <c r="L32" s="334"/>
+      <c r="L32" s="340"/>
       <c r="M32" s="38" t="s">
         <v>2280</v>
       </c>
@@ -39322,7 +39419,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="106"/>
-      <c r="B33" s="333" t="s">
+      <c r="B33" s="339" t="s">
         <v>3217</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -39338,7 +39435,7 @@
       <c r="I33" s="75"/>
       <c r="J33" s="106"/>
       <c r="K33" s="106"/>
-      <c r="L33" s="334"/>
+      <c r="L33" s="340"/>
       <c r="M33" s="38" t="s">
         <v>3205</v>
       </c>
@@ -39347,7 +39444,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="106"/>
-      <c r="B34" s="334"/>
+      <c r="B34" s="340"/>
       <c r="C34" s="178" t="s">
         <v>3213</v>
       </c>
@@ -39361,7 +39458,7 @@
       <c r="I34" s="75"/>
       <c r="J34" s="106"/>
       <c r="K34" s="106"/>
-      <c r="L34" s="334"/>
+      <c r="L34" s="340"/>
       <c r="M34" s="178" t="s">
         <v>3212</v>
       </c>
@@ -39370,7 +39467,7 @@
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1">
       <c r="A35" s="106"/>
-      <c r="B35" s="335"/>
+      <c r="B35" s="341"/>
       <c r="C35" s="178" t="s">
         <v>3210</v>
       </c>
@@ -39384,7 +39481,7 @@
       <c r="I35" s="75"/>
       <c r="J35" s="106"/>
       <c r="K35" s="106"/>
-      <c r="L35" s="334"/>
+      <c r="L35" s="340"/>
       <c r="M35" s="178" t="s">
         <v>3213</v>
       </c>
@@ -39401,13 +39498,13 @@
       <c r="E36" s="106"/>
       <c r="F36" s="106"/>
       <c r="G36" s="84"/>
-      <c r="H36" s="336">
+      <c r="H36" s="314">
         <v>10</v>
       </c>
       <c r="I36" s="75"/>
       <c r="J36" s="106"/>
       <c r="K36" s="106"/>
-      <c r="L36" s="335"/>
+      <c r="L36" s="341"/>
       <c r="M36" s="178" t="s">
         <v>3210</v>
       </c>
@@ -39454,7 +39551,7 @@
       <c r="J38" s="106"/>
       <c r="K38" s="106"/>
       <c r="L38" s="84"/>
-      <c r="M38" s="337" t="s">
+      <c r="M38" s="315" t="s">
         <v>3212</v>
       </c>
       <c r="N38" s="75"/>
@@ -39477,7 +39574,7 @@
       <c r="J39" s="106"/>
       <c r="K39" s="106"/>
       <c r="L39" s="84"/>
-      <c r="M39" s="332" t="s">
+      <c r="M39" s="313" t="s">
         <v>3211</v>
       </c>
       <c r="N39" s="75"/>
@@ -39501,7 +39598,7 @@
       <c r="J40" s="106"/>
       <c r="K40" s="106"/>
       <c r="L40" s="84"/>
-      <c r="M40" s="332" t="s">
+      <c r="M40" s="313" t="s">
         <v>2643</v>
       </c>
       <c r="N40" s="75"/>
@@ -39525,7 +39622,7 @@
       <c r="J41" s="106"/>
       <c r="K41" s="106"/>
       <c r="L41" s="84"/>
-      <c r="M41" s="332" t="s">
+      <c r="M41" s="313" t="s">
         <v>3215</v>
       </c>
       <c r="N41" s="75"/>
@@ -41954,7 +42051,7 @@
   <dimension ref="A1:AG319"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="N2" sqref="N2:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41992,6 +42089,7 @@
       <c r="J1" s="43" t="s">
         <v>414</v>
       </c>
+      <c r="K1" s="43"/>
       <c r="L1" t="s">
         <v>2681</v>
       </c>
@@ -42018,6 +42116,7 @@
       <c r="J2" s="43" t="s">
         <v>526</v>
       </c>
+      <c r="K2" s="43"/>
       <c r="M2" s="310" t="s">
         <v>414</v>
       </c>
@@ -42041,6 +42140,7 @@
       <c r="J3" s="43" t="s">
         <v>561</v>
       </c>
+      <c r="K3" s="43"/>
       <c r="M3" s="310" t="s">
         <v>526</v>
       </c>
@@ -42061,6 +42161,9 @@
       <c r="G4" s="43" t="s">
         <v>561</v>
       </c>
+      <c r="I4" t="s">
+        <v>3251</v>
+      </c>
       <c r="M4" s="310" t="s">
         <v>561</v>
       </c>
@@ -42069,59 +42172,59 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="B5" s="338" t="s">
+      <c r="B5" s="342" t="s">
         <v>3222</v>
       </c>
-      <c r="C5" s="338"/>
-      <c r="F5" s="338" t="s">
+      <c r="C5" s="342"/>
+      <c r="F5" s="342" t="s">
         <v>3223</v>
       </c>
-      <c r="G5" s="338"/>
-      <c r="I5" s="338" t="s">
+      <c r="G5" s="342"/>
+      <c r="I5" s="342" t="s">
         <v>3223</v>
       </c>
-      <c r="J5" s="338"/>
-      <c r="M5" s="338" t="s">
+      <c r="J5" s="342"/>
+      <c r="M5" s="342" t="s">
         <v>3223</v>
       </c>
-      <c r="N5" s="338"/>
+      <c r="N5" s="342"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="B6" s="338" t="s">
+      <c r="B6" s="342" t="s">
         <v>3224</v>
       </c>
-      <c r="C6" s="338"/>
-      <c r="F6" s="338" t="s">
+      <c r="C6" s="342"/>
+      <c r="F6" s="342" t="s">
         <v>3224</v>
       </c>
-      <c r="G6" s="338"/>
-      <c r="I6" s="338" t="s">
+      <c r="G6" s="342"/>
+      <c r="I6" s="342" t="s">
         <v>1534</v>
       </c>
-      <c r="J6" s="338"/>
-      <c r="M6" s="338" t="s">
+      <c r="J6" s="342"/>
+      <c r="M6" s="342" t="s">
         <v>3225</v>
       </c>
-      <c r="N6" s="338"/>
+      <c r="N6" s="342"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="M7" s="338" t="s">
+      <c r="M7" s="342" t="s">
         <v>3228</v>
       </c>
-      <c r="N7" s="338"/>
+      <c r="N7" s="342"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="F9" s="339" t="s">
+      <c r="F9" s="343" t="s">
         <v>3229</v>
       </c>
-      <c r="G9" s="339"/>
-      <c r="H9" s="339"/>
-      <c r="I9" s="339"/>
-      <c r="J9" s="339"/>
-      <c r="K9" s="339"/>
-      <c r="L9" s="339"/>
-      <c r="M9" s="339"/>
-      <c r="N9" s="339"/>
+      <c r="G9" s="343"/>
+      <c r="H9" s="343"/>
+      <c r="I9" s="343"/>
+      <c r="J9" s="343"/>
+      <c r="K9" s="343"/>
+      <c r="L9" s="343"/>
+      <c r="M9" s="343"/>
+      <c r="N9" s="343"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
@@ -42168,7 +42271,7 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" s="340" t="s">
+      <c r="M12" s="316" t="s">
         <v>414</v>
       </c>
       <c r="N12">
@@ -42202,7 +42305,7 @@
       <c r="L13">
         <v>1</v>
       </c>
-      <c r="M13" s="340" t="s">
+      <c r="M13" s="316" t="s">
         <v>526</v>
       </c>
       <c r="N13">
@@ -42234,7 +42337,7 @@
       <c r="L14">
         <v>2</v>
       </c>
-      <c r="M14" s="340" t="s">
+      <c r="M14" s="316" t="s">
         <v>561</v>
       </c>
       <c r="N14">
@@ -42549,24 +42652,24 @@
       </c>
     </row>
     <row r="28" spans="1:33">
-      <c r="E28" s="341"/>
+      <c r="E28" s="317"/>
       <c r="G28" s="162" t="s">
         <v>3243</v>
       </c>
-      <c r="I28" s="341"/>
-      <c r="K28" s="341"/>
+      <c r="I28" s="317"/>
+      <c r="K28" s="317"/>
     </row>
     <row r="29" spans="1:33">
-      <c r="E29" s="341" t="s">
+      <c r="E29" s="317" t="s">
         <v>3243</v>
       </c>
       <c r="G29" s="43" t="s">
         <v>3244</v>
       </c>
-      <c r="I29" s="341" t="s">
+      <c r="I29" s="317" t="s">
         <v>3243</v>
       </c>
-      <c r="K29" s="341" t="s">
+      <c r="K29" s="317" t="s">
         <v>3243</v>
       </c>
     </row>
@@ -42867,160 +42970,160 @@
       </c>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="342"/>
-      <c r="B51" s="342"/>
-      <c r="C51" s="342"/>
-      <c r="D51" s="342"/>
-      <c r="E51" s="342"/>
-      <c r="F51" s="342"/>
-      <c r="G51" s="342"/>
-      <c r="H51" s="342"/>
-      <c r="I51" s="342"/>
-      <c r="J51" s="342"/>
-      <c r="K51" s="342"/>
-      <c r="L51" s="342"/>
-      <c r="M51" s="342"/>
-      <c r="N51" s="342"/>
-      <c r="O51" s="342"/>
+      <c r="A51" s="318"/>
+      <c r="B51" s="318"/>
+      <c r="C51" s="318"/>
+      <c r="D51" s="318"/>
+      <c r="E51" s="318"/>
+      <c r="F51" s="318"/>
+      <c r="G51" s="318"/>
+      <c r="H51" s="318"/>
+      <c r="I51" s="318"/>
+      <c r="J51" s="318"/>
+      <c r="K51" s="318"/>
+      <c r="L51" s="318"/>
+      <c r="M51" s="318"/>
+      <c r="N51" s="318"/>
+      <c r="O51" s="318"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A52" s="342"/>
-      <c r="B52" s="342">
+      <c r="A52" s="318"/>
+      <c r="B52" s="318">
         <v>1</v>
       </c>
-      <c r="C52" s="342"/>
-      <c r="D52" s="342"/>
-      <c r="E52" s="342"/>
-      <c r="F52" s="342">
+      <c r="C52" s="318"/>
+      <c r="D52" s="318"/>
+      <c r="E52" s="318"/>
+      <c r="F52" s="318">
         <v>2</v>
       </c>
-      <c r="G52" s="342"/>
-      <c r="H52" s="342"/>
-      <c r="I52" s="342"/>
-      <c r="J52" s="342">
+      <c r="G52" s="318"/>
+      <c r="H52" s="318"/>
+      <c r="I52" s="318"/>
+      <c r="J52" s="318">
         <v>3</v>
       </c>
-      <c r="K52" s="342"/>
-      <c r="L52" s="342"/>
-      <c r="M52" s="342"/>
-      <c r="N52" s="342">
+      <c r="K52" s="318"/>
+      <c r="L52" s="318"/>
+      <c r="M52" s="318"/>
+      <c r="N52" s="318">
         <v>1000000</v>
       </c>
-      <c r="O52" s="342"/>
+      <c r="O52" s="318"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A53" s="342"/>
-      <c r="B53" s="343" t="s">
+      <c r="A53" s="318"/>
+      <c r="B53" s="319" t="s">
         <v>414</v>
       </c>
-      <c r="C53" s="342"/>
-      <c r="D53" s="342"/>
-      <c r="E53" s="342"/>
-      <c r="F53" s="343" t="s">
+      <c r="C53" s="318"/>
+      <c r="D53" s="318"/>
+      <c r="E53" s="318"/>
+      <c r="F53" s="319" t="s">
         <v>526</v>
       </c>
-      <c r="G53" s="342"/>
-      <c r="H53" s="342"/>
-      <c r="I53" s="342"/>
-      <c r="J53" s="343" t="s">
+      <c r="G53" s="318"/>
+      <c r="H53" s="318"/>
+      <c r="I53" s="318"/>
+      <c r="J53" s="319" t="s">
         <v>561</v>
       </c>
-      <c r="K53" s="342"/>
-      <c r="L53" s="342"/>
-      <c r="M53" s="342"/>
-      <c r="N53" s="343" t="s">
+      <c r="K53" s="318"/>
+      <c r="L53" s="318"/>
+      <c r="M53" s="318"/>
+      <c r="N53" s="319" t="s">
         <v>1830</v>
       </c>
-      <c r="O53" s="342"/>
+      <c r="O53" s="318"/>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="342" t="s">
+      <c r="A54" s="318" t="s">
         <v>2055</v>
       </c>
-      <c r="B54" s="342" t="s">
+      <c r="B54" s="318" t="s">
         <v>1980</v>
       </c>
-      <c r="C54" s="342" t="s">
+      <c r="C54" s="318" t="s">
         <v>1423</v>
       </c>
-      <c r="D54" s="342"/>
-      <c r="E54" s="342" t="s">
+      <c r="D54" s="318"/>
+      <c r="E54" s="318" t="s">
         <v>2055</v>
       </c>
-      <c r="F54" s="342" t="s">
+      <c r="F54" s="318" t="s">
         <v>2599</v>
       </c>
-      <c r="G54" s="342" t="s">
+      <c r="G54" s="318" t="s">
         <v>1423</v>
       </c>
-      <c r="H54" s="342"/>
-      <c r="I54" s="342" t="s">
+      <c r="H54" s="318"/>
+      <c r="I54" s="318" t="s">
         <v>2055</v>
       </c>
-      <c r="J54" s="342" t="s">
+      <c r="J54" s="318" t="s">
         <v>2600</v>
       </c>
-      <c r="K54" s="342" t="s">
+      <c r="K54" s="318" t="s">
         <v>1423</v>
       </c>
-      <c r="L54" s="342"/>
-      <c r="M54" s="342" t="s">
+      <c r="L54" s="318"/>
+      <c r="M54" s="318" t="s">
         <v>2055</v>
       </c>
-      <c r="N54" s="342" t="s">
+      <c r="N54" s="318" t="s">
         <v>2613</v>
       </c>
-      <c r="O54" s="342" t="s">
+      <c r="O54" s="318" t="s">
         <v>1423</v>
       </c>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="342" t="s">
+      <c r="A55" s="318" t="s">
         <v>419</v>
       </c>
-      <c r="B55" s="342"/>
+      <c r="B55" s="318"/>
       <c r="C55" s="199" t="s">
         <v>3250</v>
       </c>
-      <c r="D55" s="342"/>
+      <c r="D55" s="318"/>
       <c r="E55" s="199" t="s">
         <v>3250</v>
       </c>
-      <c r="F55" s="342"/>
-      <c r="G55" s="342" t="s">
+      <c r="F55" s="318"/>
+      <c r="G55" s="318" t="s">
         <v>2600</v>
       </c>
-      <c r="H55" s="342"/>
-      <c r="I55" s="344" t="s">
+      <c r="H55" s="318"/>
+      <c r="I55" s="320" t="s">
         <v>1980</v>
       </c>
-      <c r="J55" s="342"/>
-      <c r="K55" s="342" t="s">
+      <c r="J55" s="318"/>
+      <c r="K55" s="318" t="s">
         <v>2051</v>
       </c>
-      <c r="L55" s="342"/>
-      <c r="M55" s="342"/>
-      <c r="N55" s="342"/>
-      <c r="O55" s="342" t="s">
+      <c r="L55" s="318"/>
+      <c r="M55" s="318"/>
+      <c r="N55" s="318"/>
+      <c r="O55" s="318" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="342"/>
-      <c r="B56" s="342"/>
-      <c r="C56" s="342"/>
-      <c r="D56" s="342"/>
-      <c r="E56" s="342"/>
-      <c r="F56" s="342"/>
-      <c r="G56" s="342"/>
-      <c r="H56" s="342"/>
-      <c r="I56" s="342"/>
-      <c r="J56" s="342"/>
-      <c r="K56" s="342"/>
-      <c r="L56" s="342"/>
-      <c r="M56" s="342"/>
-      <c r="N56" s="342"/>
-      <c r="O56" s="342"/>
+      <c r="A56" s="318"/>
+      <c r="B56" s="318"/>
+      <c r="C56" s="318"/>
+      <c r="D56" s="318"/>
+      <c r="E56" s="318"/>
+      <c r="F56" s="318"/>
+      <c r="G56" s="318"/>
+      <c r="H56" s="318"/>
+      <c r="I56" s="318"/>
+      <c r="J56" s="318"/>
+      <c r="K56" s="318"/>
+      <c r="L56" s="318"/>
+      <c r="M56" s="318"/>
+      <c r="N56" s="318"/>
+      <c r="O56" s="318"/>
     </row>
     <row r="57" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="58" spans="1:17" ht="15.75" thickBot="1">
@@ -45164,10 +45267,385 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>3252</v>
+      </c>
+      <c r="E1" s="121" t="s">
+        <v>551</v>
+      </c>
+      <c r="F1" s="258" t="s">
+        <v>415</v>
+      </c>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="258"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="345" t="s">
+        <v>415</v>
+      </c>
+      <c r="L1" s="346" t="s">
+        <v>192</v>
+      </c>
+      <c r="M1" s="347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E2" s="188" t="s">
+        <v>552</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>1980</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="348" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="349" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E3" s="188" t="s">
+        <v>712</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>2599</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="350"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E4" s="188" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>2600</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="117" t="s">
+        <v>1980</v>
+      </c>
+      <c r="L4" s="346" t="s">
+        <v>192</v>
+      </c>
+      <c r="M4" s="347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>3256</v>
+      </c>
+      <c r="E5" s="188" t="s">
+        <v>2224</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>2613</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="348" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="349" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>3257</v>
+      </c>
+      <c r="E6" s="188"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="350"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>2691</v>
+      </c>
+      <c r="E7" s="188"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="117" t="s">
+        <v>2599</v>
+      </c>
+      <c r="L7" s="346" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7" s="347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>2692</v>
+      </c>
+      <c r="E8" s="188"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="348" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="349" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>2693</v>
+      </c>
+      <c r="E9" s="188"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="350"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3261</v>
+      </c>
+      <c r="E10" s="188"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="117" t="s">
+        <v>2600</v>
+      </c>
+      <c r="L10" s="346" t="s">
+        <v>192</v>
+      </c>
+      <c r="M10" s="347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>3258</v>
+      </c>
+      <c r="E11" s="188"/>
+      <c r="F11" s="27" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="348" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="349" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="168" t="s">
+        <v>3269</v>
+      </c>
+      <c r="E12" s="188" t="s">
+        <v>2521</v>
+      </c>
+      <c r="F12" s="134">
+        <v>1</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>3271</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>3273</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>3274</v>
+      </c>
+      <c r="J12" s="27"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="350"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>3264</v>
+      </c>
+      <c r="E13" s="188"/>
+      <c r="F13" s="134">
+        <v>2</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>3272</v>
+      </c>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="117" t="s">
+        <v>2613</v>
+      </c>
+      <c r="L13" s="346" t="s">
+        <v>192</v>
+      </c>
+      <c r="M13" s="347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E14" s="188"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="348" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="349" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="188"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="76"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>3265</v>
+      </c>
+      <c r="E16" s="188"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="76"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="B17" t="s">
+        <v>3266</v>
+      </c>
+      <c r="E17" s="123"/>
+      <c r="F17" s="259"/>
+      <c r="G17" s="259"/>
+      <c r="H17" s="259"/>
+      <c r="I17" s="259"/>
+      <c r="J17" s="259"/>
+      <c r="K17" s="259"/>
+      <c r="L17" s="259"/>
+      <c r="M17" s="124"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="B18" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="C19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="168" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="C21" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:U134"/>
   <sheetViews>
-    <sheetView topLeftCell="C115" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H115" sqref="H115:K122"/>
+    <sheetView topLeftCell="A207" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45957,11 +46435,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
@@ -46094,11 +46572,11 @@
       <c r="L6" s="43" t="s">
         <v>1598</v>
       </c>
-      <c r="M6" s="329" t="s">
+      <c r="M6" s="344" t="s">
         <v>1599</v>
       </c>
-      <c r="N6" s="329"/>
-      <c r="O6" s="329"/>
+      <c r="N6" s="344"/>
+      <c r="O6" s="344"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -46506,7 +46984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:L85"/>
   <sheetViews>
@@ -49538,7 +50016,7 @@
       <c r="F269" s="39">
         <v>9</v>
       </c>
-      <c r="G269" s="323" t="s">
+      <c r="G269" s="332" t="s">
         <v>2846</v>
       </c>
       <c r="I269" s="56" t="s">
@@ -49559,7 +50037,7 @@
       <c r="F270" s="39">
         <v>15</v>
       </c>
-      <c r="G270" s="324"/>
+      <c r="G270" s="333"/>
       <c r="I270" s="172" t="s">
         <v>2842</v>
       </c>
@@ -51137,23 +51615,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="335" t="s">
         <v>2925</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="I1" s="326" t="s">
+      <c r="B1" s="335"/>
+      <c r="C1" s="335"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
+      <c r="I1" s="335" t="s">
         <v>2937</v>
       </c>
-      <c r="J1" s="326"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
+      <c r="N1" s="335"/>
+      <c r="O1" s="335"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -51309,28 +51787,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="319" t="s">
+      <c r="A12" s="328" t="s">
         <v>2939</v>
       </c>
-      <c r="B12" s="325"/>
-      <c r="C12" s="325"/>
-      <c r="D12" s="325"/>
-      <c r="E12" s="325"/>
-      <c r="F12" s="325"/>
-      <c r="G12" s="325"/>
-      <c r="H12" s="320"/>
-      <c r="I12" s="319" t="s">
+      <c r="B12" s="334"/>
+      <c r="C12" s="334"/>
+      <c r="D12" s="334"/>
+      <c r="E12" s="334"/>
+      <c r="F12" s="334"/>
+      <c r="G12" s="334"/>
+      <c r="H12" s="329"/>
+      <c r="I12" s="328" t="s">
         <v>2939</v>
       </c>
-      <c r="J12" s="325"/>
-      <c r="K12" s="325"/>
-      <c r="L12" s="325"/>
-      <c r="M12" s="325"/>
-      <c r="N12" s="325"/>
-      <c r="O12" s="325"/>
-      <c r="P12" s="325"/>
-      <c r="Q12" s="325"/>
-      <c r="R12" s="320"/>
+      <c r="J12" s="334"/>
+      <c r="K12" s="334"/>
+      <c r="L12" s="334"/>
+      <c r="M12" s="334"/>
+      <c r="N12" s="334"/>
+      <c r="O12" s="334"/>
+      <c r="P12" s="334"/>
+      <c r="Q12" s="334"/>
+      <c r="R12" s="329"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="30" t="s">
@@ -51558,14 +52036,14 @@
       <c r="R21" s="37"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="326" t="s">
+      <c r="A24" s="335" t="s">
         <v>2925</v>
       </c>
-      <c r="B24" s="326"/>
-      <c r="C24" s="326"/>
-      <c r="D24" s="326"/>
-      <c r="E24" s="326"/>
-      <c r="F24" s="326"/>
+      <c r="B24" s="335"/>
+      <c r="C24" s="335"/>
+      <c r="D24" s="335"/>
+      <c r="E24" s="335"/>
+      <c r="F24" s="335"/>
       <c r="H24" s="275" t="s">
         <v>2937</v>
       </c>
@@ -51575,11 +52053,11 @@
       <c r="L24" s="275"/>
       <c r="M24" s="275"/>
       <c r="N24" s="275"/>
-      <c r="P24" s="326" t="s">
+      <c r="P24" s="335" t="s">
         <v>2978</v>
       </c>
-      <c r="Q24" s="326"/>
-      <c r="R24" s="326"/>
+      <c r="Q24" s="335"/>
+      <c r="R24" s="335"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="106" t="s">
@@ -51819,28 +52297,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="319" t="s">
+      <c r="A35" s="328" t="s">
         <v>2979</v>
       </c>
-      <c r="B35" s="325"/>
-      <c r="C35" s="325"/>
-      <c r="D35" s="325"/>
-      <c r="E35" s="325"/>
-      <c r="F35" s="325"/>
-      <c r="G35" s="325"/>
-      <c r="H35" s="320"/>
-      <c r="I35" s="319" t="s">
+      <c r="B35" s="334"/>
+      <c r="C35" s="334"/>
+      <c r="D35" s="334"/>
+      <c r="E35" s="334"/>
+      <c r="F35" s="334"/>
+      <c r="G35" s="334"/>
+      <c r="H35" s="329"/>
+      <c r="I35" s="328" t="s">
         <v>1133</v>
       </c>
-      <c r="J35" s="325"/>
-      <c r="K35" s="325"/>
-      <c r="L35" s="325"/>
-      <c r="M35" s="325"/>
-      <c r="N35" s="325"/>
-      <c r="O35" s="325"/>
-      <c r="P35" s="325"/>
-      <c r="Q35" s="325"/>
-      <c r="R35" s="320"/>
+      <c r="J35" s="334"/>
+      <c r="K35" s="334"/>
+      <c r="L35" s="334"/>
+      <c r="M35" s="334"/>
+      <c r="N35" s="334"/>
+      <c r="O35" s="334"/>
+      <c r="P35" s="334"/>
+      <c r="Q35" s="334"/>
+      <c r="R35" s="329"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="30" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="19" activeTab="24"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="21" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6208" uniqueCount="3275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6279" uniqueCount="3314">
   <si>
     <t>USER</t>
   </si>
@@ -10132,6 +10132,123 @@
   </si>
   <si>
     <t>#ccc(mike)</t>
+  </si>
+  <si>
+    <t>Iterator&lt;String&gt; readStudentsCollection=studentsCollection.iterator();</t>
+  </si>
+  <si>
+    <t>readStu.hasNext();</t>
+  </si>
+  <si>
+    <t>Collect all the keys</t>
+  </si>
+  <si>
+    <t>read each key 1 at a time</t>
+  </si>
+  <si>
+    <t>fetch value of each key</t>
+  </si>
+  <si>
+    <t>studentPercent</t>
+  </si>
+  <si>
+    <t>for(String key:keySet)</t>
+  </si>
+  <si>
+    <t>Set&lt;String&gt; keySet=studentPercent.keySet();</t>
+  </si>
+  <si>
+    <t>sysout(studentPercent.get(key);</t>
+  </si>
+  <si>
+    <t>sysout(key);</t>
+  </si>
+  <si>
+    <t>key=jane</t>
+  </si>
+  <si>
+    <t>C:/</t>
+  </si>
+  <si>
+    <t>program file</t>
+  </si>
+  <si>
+    <t>tutorial</t>
+  </si>
+  <si>
+    <t>java.ppt</t>
+  </si>
+  <si>
+    <t>javaprograms</t>
+  </si>
+  <si>
+    <t>C:/tutorial/java/java.ppt</t>
+  </si>
+  <si>
+    <t>File Path</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>Downloading</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>passwor</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>uploading</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>clothing</t>
+  </si>
+  <si>
+    <t>kitchne</t>
+  </si>
+  <si>
+    <t>Apt1</t>
+  </si>
+  <si>
+    <t>Apt2</t>
+  </si>
+  <si>
+    <t>FileReader</t>
+  </si>
+  <si>
+    <t>FileWriter</t>
+  </si>
+  <si>
+    <t>BuffferedWriter</t>
+  </si>
+  <si>
+    <t>Decorator design pattern</t>
   </si>
 </sst>
 </file>
@@ -10712,7 +10829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="352">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11352,6 +11469,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11424,23 +11559,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -25075,8 +25195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD102"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:K25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25106,13 +25226,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="325" t="s">
+      <c r="H3" s="331" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="326"/>
-      <c r="J3" s="326"/>
-      <c r="K3" s="326"/>
-      <c r="L3" s="327"/>
+      <c r="I3" s="332"/>
+      <c r="J3" s="332"/>
+      <c r="K3" s="332"/>
+      <c r="L3" s="333"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
@@ -25130,20 +25250,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="328" t="s">
+      <c r="G6" s="334" t="s">
         <v>1661</v>
       </c>
-      <c r="H6" s="329"/>
+      <c r="H6" s="335"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="328" t="s">
+      <c r="J6" s="334" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="329"/>
+      <c r="K6" s="335"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="328" t="s">
+      <c r="M6" s="334" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="329"/>
+      <c r="N6" s="335"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="125" t="s">
@@ -25161,20 +25281,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="330" t="s">
+      <c r="G8" s="336" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="331"/>
+      <c r="H8" s="337"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="330" t="s">
+      <c r="J8" s="336" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="331"/>
+      <c r="K8" s="337"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="330" t="s">
+      <c r="M8" s="336" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="331"/>
+      <c r="N8" s="337"/>
       <c r="Q8" s="144"/>
     </row>
     <row r="9" spans="1:18">
@@ -25214,29 +25334,29 @@
       <c r="Q11" s="144"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="F12" s="321" t="s">
+      <c r="F12" s="327" t="s">
         <v>2761</v>
       </c>
-      <c r="G12" s="322"/>
-      <c r="H12" s="322"/>
-      <c r="I12" s="322"/>
-      <c r="J12" s="322"/>
-      <c r="K12" s="322"/>
-      <c r="L12" s="322"/>
-      <c r="M12" s="322"/>
-      <c r="N12" s="322"/>
+      <c r="G12" s="328"/>
+      <c r="H12" s="328"/>
+      <c r="I12" s="328"/>
+      <c r="J12" s="328"/>
+      <c r="K12" s="328"/>
+      <c r="L12" s="328"/>
+      <c r="M12" s="328"/>
+      <c r="N12" s="328"/>
       <c r="Q12" s="144"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F13" s="323"/>
-      <c r="G13" s="324"/>
-      <c r="H13" s="324"/>
-      <c r="I13" s="324"/>
-      <c r="J13" s="324"/>
-      <c r="K13" s="324"/>
-      <c r="L13" s="324"/>
-      <c r="M13" s="324"/>
-      <c r="N13" s="324"/>
+      <c r="F13" s="329"/>
+      <c r="G13" s="330"/>
+      <c r="H13" s="330"/>
+      <c r="I13" s="330"/>
+      <c r="J13" s="330"/>
+      <c r="K13" s="330"/>
+      <c r="L13" s="330"/>
+      <c r="M13" s="330"/>
+      <c r="N13" s="330"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
@@ -26212,7 +26332,7 @@
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="49"/>
-      <c r="L3" s="336" t="s">
+      <c r="L3" s="342" t="s">
         <v>3112</v>
       </c>
     </row>
@@ -26241,7 +26361,7 @@
       <c r="K4" s="52" t="s">
         <v>561</v>
       </c>
-      <c r="L4" s="337"/>
+      <c r="L4" s="343"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="A5" s="96"/>
@@ -26259,7 +26379,7 @@
       <c r="K5" s="55">
         <v>123</v>
       </c>
-      <c r="L5" s="337"/>
+      <c r="L5" s="343"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="96"/>
@@ -26273,7 +26393,7 @@
       <c r="I6" s="51"/>
       <c r="J6" s="51"/>
       <c r="K6" s="51"/>
-      <c r="L6" s="337"/>
+      <c r="L6" s="343"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="96"/>
@@ -26289,7 +26409,7 @@
       </c>
       <c r="J7" s="47"/>
       <c r="K7" s="49"/>
-      <c r="L7" s="337"/>
+      <c r="L7" s="343"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="96"/>
@@ -26307,7 +26427,7 @@
       <c r="K8" s="52" t="s">
         <v>526</v>
       </c>
-      <c r="L8" s="337"/>
+      <c r="L8" s="343"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="96" t="s">
@@ -26325,7 +26445,7 @@
       <c r="K9" s="55">
         <v>124</v>
       </c>
-      <c r="L9" s="337"/>
+      <c r="L9" s="343"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="F10" s="50"/>
@@ -26334,7 +26454,7 @@
       <c r="I10" s="51"/>
       <c r="J10" s="51"/>
       <c r="K10" s="51"/>
-      <c r="L10" s="337"/>
+      <c r="L10" s="343"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="96" t="s">
@@ -26347,7 +26467,7 @@
       <c r="I11" s="51"/>
       <c r="J11" s="47"/>
       <c r="K11" s="49"/>
-      <c r="L11" s="337"/>
+      <c r="L11" s="343"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="96" t="s">
@@ -26363,7 +26483,7 @@
       <c r="K12" s="52" t="s">
         <v>3104</v>
       </c>
-      <c r="L12" s="337"/>
+      <c r="L12" s="343"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="96" t="s">
@@ -26379,7 +26499,7 @@
       <c r="K13" s="55">
         <v>222</v>
       </c>
-      <c r="L13" s="337"/>
+      <c r="L13" s="343"/>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="57" t="s">
@@ -39331,25 +39451,25 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="106"/>
-      <c r="B29" s="330" t="s">
+      <c r="B29" s="336" t="s">
         <v>3202</v>
       </c>
-      <c r="C29" s="338"/>
-      <c r="D29" s="331"/>
+      <c r="C29" s="344"/>
+      <c r="D29" s="337"/>
       <c r="E29" s="106"/>
       <c r="F29" s="106"/>
-      <c r="G29" s="330" t="s">
+      <c r="G29" s="336" t="s">
         <v>1357</v>
       </c>
-      <c r="H29" s="338"/>
-      <c r="I29" s="331"/>
+      <c r="H29" s="344"/>
+      <c r="I29" s="337"/>
       <c r="J29" s="106"/>
       <c r="K29" s="106"/>
-      <c r="L29" s="330" t="s">
+      <c r="L29" s="336" t="s">
         <v>3203</v>
       </c>
-      <c r="M29" s="338"/>
-      <c r="N29" s="331"/>
+      <c r="M29" s="344"/>
+      <c r="N29" s="337"/>
       <c r="O29" s="106"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1">
@@ -39385,7 +39505,7 @@
       <c r="I31" s="75"/>
       <c r="J31" s="106"/>
       <c r="K31" s="106"/>
-      <c r="L31" s="339" t="s">
+      <c r="L31" s="345" t="s">
         <v>3217</v>
       </c>
       <c r="M31" s="38" t="s">
@@ -39410,7 +39530,7 @@
       <c r="I32" s="75"/>
       <c r="J32" s="106"/>
       <c r="K32" s="106"/>
-      <c r="L32" s="340"/>
+      <c r="L32" s="346"/>
       <c r="M32" s="38" t="s">
         <v>2280</v>
       </c>
@@ -39419,7 +39539,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="106"/>
-      <c r="B33" s="339" t="s">
+      <c r="B33" s="345" t="s">
         <v>3217</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -39435,7 +39555,7 @@
       <c r="I33" s="75"/>
       <c r="J33" s="106"/>
       <c r="K33" s="106"/>
-      <c r="L33" s="340"/>
+      <c r="L33" s="346"/>
       <c r="M33" s="38" t="s">
         <v>3205</v>
       </c>
@@ -39444,7 +39564,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="106"/>
-      <c r="B34" s="340"/>
+      <c r="B34" s="346"/>
       <c r="C34" s="178" t="s">
         <v>3213</v>
       </c>
@@ -39458,7 +39578,7 @@
       <c r="I34" s="75"/>
       <c r="J34" s="106"/>
       <c r="K34" s="106"/>
-      <c r="L34" s="340"/>
+      <c r="L34" s="346"/>
       <c r="M34" s="178" t="s">
         <v>3212</v>
       </c>
@@ -39467,7 +39587,7 @@
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1">
       <c r="A35" s="106"/>
-      <c r="B35" s="341"/>
+      <c r="B35" s="347"/>
       <c r="C35" s="178" t="s">
         <v>3210</v>
       </c>
@@ -39481,7 +39601,7 @@
       <c r="I35" s="75"/>
       <c r="J35" s="106"/>
       <c r="K35" s="106"/>
-      <c r="L35" s="340"/>
+      <c r="L35" s="346"/>
       <c r="M35" s="178" t="s">
         <v>3213</v>
       </c>
@@ -39504,7 +39624,7 @@
       <c r="I36" s="75"/>
       <c r="J36" s="106"/>
       <c r="K36" s="106"/>
-      <c r="L36" s="341"/>
+      <c r="L36" s="347"/>
       <c r="M36" s="178" t="s">
         <v>3210</v>
       </c>
@@ -42050,8 +42170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG319"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N4"/>
+    <sheetView topLeftCell="A81" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42172,59 +42292,70 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="B5" s="342" t="s">
+      <c r="B5" s="348" t="s">
         <v>3222</v>
       </c>
-      <c r="C5" s="342"/>
-      <c r="F5" s="342" t="s">
+      <c r="C5" s="348"/>
+      <c r="F5" s="348" t="s">
         <v>3223</v>
       </c>
-      <c r="G5" s="342"/>
-      <c r="I5" s="342" t="s">
+      <c r="G5" s="348"/>
+      <c r="H5" s="38" t="s">
+        <v>636</v>
+      </c>
+      <c r="I5" s="348" t="s">
         <v>3223</v>
       </c>
-      <c r="J5" s="342"/>
-      <c r="M5" s="342" t="s">
+      <c r="J5" s="348"/>
+      <c r="M5" s="348" t="s">
         <v>3223</v>
       </c>
-      <c r="N5" s="342"/>
+      <c r="N5" s="348"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="B6" s="342" t="s">
+      <c r="B6" s="348" t="s">
         <v>3224</v>
       </c>
-      <c r="C6" s="342"/>
-      <c r="F6" s="342" t="s">
+      <c r="C6" s="348"/>
+      <c r="F6" s="348" t="s">
         <v>3224</v>
       </c>
-      <c r="G6" s="342"/>
-      <c r="I6" s="342" t="s">
+      <c r="G6" s="348"/>
+      <c r="I6" s="348" t="s">
         <v>1534</v>
       </c>
-      <c r="J6" s="342"/>
-      <c r="M6" s="342" t="s">
+      <c r="J6" s="348"/>
+      <c r="M6" s="348" t="s">
         <v>3225</v>
       </c>
-      <c r="N6" s="342"/>
+      <c r="N6" s="348"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="M7" s="342" t="s">
+      <c r="M7" s="348" t="s">
         <v>3228</v>
       </c>
-      <c r="N7" s="342"/>
+      <c r="N7" s="348"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="E8" t="s">
+        <v>3275</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3276</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="F9" s="343" t="s">
+      <c r="F9" s="349" t="s">
         <v>3229</v>
       </c>
-      <c r="G9" s="343"/>
-      <c r="H9" s="343"/>
-      <c r="I9" s="343"/>
-      <c r="J9" s="343"/>
-      <c r="K9" s="343"/>
-      <c r="L9" s="343"/>
-      <c r="M9" s="343"/>
-      <c r="N9" s="343"/>
+      <c r="G9" s="349"/>
+      <c r="H9" s="349"/>
+      <c r="I9" s="349"/>
+      <c r="J9" s="349"/>
+      <c r="K9" s="349"/>
+      <c r="L9" s="349"/>
+      <c r="M9" s="349"/>
+      <c r="N9" s="349"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
@@ -43173,38 +43304,336 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="65" spans="17:17">
+    <row r="65" spans="3:17">
       <c r="Q65" s="28" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="66" spans="17:17">
+    <row r="66" spans="3:17">
+      <c r="C66" s="351" t="s">
+        <v>3280</v>
+      </c>
+      <c r="D66" s="351"/>
+      <c r="J66" t="s">
+        <v>1533</v>
+      </c>
       <c r="Q66" s="130" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="67" spans="17:17">
+    <row r="67" spans="3:17">
+      <c r="C67" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J67" s="43" t="s">
+        <v>414</v>
+      </c>
       <c r="Q67" s="57"/>
     </row>
-    <row r="68" spans="17:17">
+    <row r="68" spans="3:17">
+      <c r="C68" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="D68" s="43">
+        <v>23</v>
+      </c>
+      <c r="F68" t="s">
+        <v>50</v>
+      </c>
+      <c r="G68" t="s">
+        <v>3277</v>
+      </c>
+      <c r="J68" s="43" t="s">
+        <v>526</v>
+      </c>
+      <c r="L68" t="s">
+        <v>3282</v>
+      </c>
       <c r="Q68" s="131" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="69" spans="17:17">
+    <row r="69" spans="3:17">
+      <c r="C69" s="43" t="s">
+        <v>526</v>
+      </c>
+      <c r="D69" s="43">
+        <v>34</v>
+      </c>
+      <c r="J69" s="43" t="s">
+        <v>561</v>
+      </c>
       <c r="Q69" s="28" t="s">
         <v>526</v>
       </c>
+    </row>
+    <row r="70" spans="3:17">
+      <c r="C70" s="43" t="s">
+        <v>561</v>
+      </c>
+      <c r="D70" s="43">
+        <v>12</v>
+      </c>
+      <c r="J70" s="43" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="71" spans="3:17">
+      <c r="C71" s="43" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D71" s="43">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="3:17">
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="F72" t="s">
+        <v>51</v>
+      </c>
+      <c r="G72" t="s">
+        <v>3278</v>
+      </c>
+      <c r="J72" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="73" spans="3:17">
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="J73" t="s">
+        <v>368</v>
+      </c>
+      <c r="M73" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="74" spans="3:17">
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="K74" t="s">
+        <v>3284</v>
+      </c>
+      <c r="N74" t="s">
+        <v>414</v>
+      </c>
+      <c r="O74" t="s">
+        <v>526</v>
+      </c>
+      <c r="P74" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="75" spans="3:17">
+      <c r="F75" t="s">
+        <v>122</v>
+      </c>
+      <c r="G75" t="s">
+        <v>3279</v>
+      </c>
+      <c r="K75" t="s">
+        <v>3283</v>
+      </c>
+      <c r="N75">
+        <v>23</v>
+      </c>
+      <c r="O75">
+        <v>34</v>
+      </c>
+      <c r="P75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="3:17">
+      <c r="J77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="3:17">
+      <c r="F80" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14">
+      <c r="D82" t="s">
+        <v>3288</v>
+      </c>
+      <c r="F82" t="s">
+        <v>3287</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14">
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14">
+      <c r="B85" t="s">
+        <v>3289</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14">
+      <c r="C88" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14">
+      <c r="C89" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" ht="15.75" thickBot="1"/>
+    <row r="92" spans="2:14">
+      <c r="C92" s="30"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="32"/>
+      <c r="K92" s="30" t="s">
+        <v>1606</v>
+      </c>
+      <c r="L92" s="31"/>
+      <c r="M92" s="31"/>
+      <c r="N92" s="32"/>
+    </row>
+    <row r="93" spans="2:14">
+      <c r="C93" s="80"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="41"/>
+      <c r="G93" t="s">
+        <v>3295</v>
+      </c>
+      <c r="K93" s="33"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="27"/>
+      <c r="N93" s="34"/>
+    </row>
+    <row r="94" spans="2:14">
+      <c r="C94" s="80"/>
+      <c r="D94" s="39" t="s">
+        <v>3293</v>
+      </c>
+      <c r="E94" s="39" t="s">
+        <v>3298</v>
+      </c>
+      <c r="F94" s="41" t="s">
+        <v>3296</v>
+      </c>
+      <c r="G94" t="s">
+        <v>3294</v>
+      </c>
+      <c r="K94" s="33" t="s">
+        <v>3297</v>
+      </c>
+      <c r="L94" s="27" t="s">
+        <v>3299</v>
+      </c>
+      <c r="M94" s="27"/>
+      <c r="N94" s="34"/>
+    </row>
+    <row r="95" spans="2:14">
+      <c r="C95" s="80"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="41"/>
+      <c r="K95" s="33"/>
+      <c r="L95" s="27"/>
+      <c r="M95" s="27"/>
+      <c r="N95" s="34"/>
+    </row>
+    <row r="96" spans="2:14" ht="15.75" thickBot="1">
+      <c r="C96" s="35"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="37"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="37"/>
+    </row>
+    <row r="97" spans="3:18" ht="15.75" thickBot="1"/>
+    <row r="98" spans="3:18">
+      <c r="C98" s="30"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31" t="s">
+        <v>3300</v>
+      </c>
+      <c r="F98" s="32"/>
+      <c r="K98" s="30" t="s">
+        <v>1606</v>
+      </c>
+      <c r="L98" s="31"/>
+      <c r="M98" s="31"/>
+      <c r="N98" s="32"/>
+    </row>
+    <row r="99" spans="3:18">
+      <c r="C99" s="33"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27" t="s">
+        <v>3301</v>
+      </c>
+      <c r="F99" s="34" t="s">
+        <v>3299</v>
+      </c>
+      <c r="G99" t="s">
+        <v>3304</v>
+      </c>
+      <c r="K99" s="33"/>
+      <c r="L99" s="27"/>
+      <c r="M99" s="27"/>
+      <c r="N99" s="34"/>
+    </row>
+    <row r="100" spans="3:18" ht="15.75" thickBot="1">
+      <c r="C100" s="35"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36" t="s">
+        <v>3302</v>
+      </c>
+      <c r="F100" s="37" t="s">
+        <v>3297</v>
+      </c>
+      <c r="G100" t="s">
+        <v>3303</v>
+      </c>
+      <c r="K100" s="33" t="s">
+        <v>3296</v>
+      </c>
+      <c r="L100" s="27" t="s">
+        <v>3298</v>
+      </c>
+      <c r="M100" s="27"/>
+      <c r="N100" s="34"/>
     </row>
     <row r="101" spans="3:18">
       <c r="C101" s="125" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="102" spans="3:18">
+      <c r="K101" s="33"/>
+      <c r="L101" s="27"/>
+      <c r="M101" s="27"/>
+      <c r="N101" s="34"/>
+    </row>
+    <row r="102" spans="3:18" ht="15.75" thickBot="1">
       <c r="C102" t="s">
         <v>1379</v>
       </c>
+      <c r="K102" s="35"/>
+      <c r="L102" s="36"/>
+      <c r="M102" s="36"/>
+      <c r="N102" s="37"/>
     </row>
     <row r="104" spans="3:18">
       <c r="C104" s="57">
@@ -45248,7 +45677,8 @@
       <c r="O319" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="C66:D66"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="M7:N7"/>
@@ -45293,13 +45723,13 @@
       <c r="H1" s="258"/>
       <c r="I1" s="258"/>
       <c r="J1" s="258"/>
-      <c r="K1" s="345" t="s">
+      <c r="K1" s="321" t="s">
         <v>415</v>
       </c>
-      <c r="L1" s="346" t="s">
+      <c r="L1" s="322" t="s">
         <v>192</v>
       </c>
-      <c r="M1" s="347">
+      <c r="M1" s="323">
         <v>1</v>
       </c>
     </row>
@@ -45318,10 +45748,10 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="117"/>
-      <c r="L2" s="348" t="s">
+      <c r="L2" s="324" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="349" t="s">
+      <c r="M2" s="325" t="s">
         <v>1155</v>
       </c>
     </row>
@@ -45341,7 +45771,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="117"/>
       <c r="L3" s="117"/>
-      <c r="M3" s="350"/>
+      <c r="M3" s="326"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
@@ -45360,10 +45790,10 @@
       <c r="K4" s="117" t="s">
         <v>1980</v>
       </c>
-      <c r="L4" s="346" t="s">
+      <c r="L4" s="322" t="s">
         <v>192</v>
       </c>
-      <c r="M4" s="347">
+      <c r="M4" s="323">
         <v>2</v>
       </c>
     </row>
@@ -45382,10 +45812,10 @@
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="117"/>
-      <c r="L5" s="348" t="s">
+      <c r="L5" s="324" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="349" t="s">
+      <c r="M5" s="325" t="s">
         <v>3259</v>
       </c>
     </row>
@@ -45401,7 +45831,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="117"/>
       <c r="L6" s="117"/>
-      <c r="M6" s="350"/>
+      <c r="M6" s="326"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
@@ -45416,10 +45846,10 @@
       <c r="K7" s="117" t="s">
         <v>2599</v>
       </c>
-      <c r="L7" s="346" t="s">
+      <c r="L7" s="322" t="s">
         <v>192</v>
       </c>
-      <c r="M7" s="347">
+      <c r="M7" s="323">
         <v>1</v>
       </c>
     </row>
@@ -45434,10 +45864,10 @@
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
       <c r="K8" s="117"/>
-      <c r="L8" s="348" t="s">
+      <c r="L8" s="324" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="349" t="s">
+      <c r="M8" s="325" t="s">
         <v>3260</v>
       </c>
     </row>
@@ -45453,7 +45883,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="117"/>
       <c r="L9" s="117"/>
-      <c r="M9" s="350"/>
+      <c r="M9" s="326"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
@@ -45471,10 +45901,10 @@
       <c r="K10" s="117" t="s">
         <v>2600</v>
       </c>
-      <c r="L10" s="346" t="s">
+      <c r="L10" s="322" t="s">
         <v>192</v>
       </c>
-      <c r="M10" s="347">
+      <c r="M10" s="323">
         <v>1</v>
       </c>
     </row>
@@ -45491,10 +45921,10 @@
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
       <c r="K11" s="117"/>
-      <c r="L11" s="348" t="s">
+      <c r="L11" s="324" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="349" t="s">
+      <c r="M11" s="325" t="s">
         <v>3261</v>
       </c>
     </row>
@@ -45520,7 +45950,7 @@
       <c r="J12" s="27"/>
       <c r="K12" s="117"/>
       <c r="L12" s="117"/>
-      <c r="M12" s="350"/>
+      <c r="M12" s="326"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
@@ -45539,10 +45969,10 @@
       <c r="K13" s="117" t="s">
         <v>2613</v>
       </c>
-      <c r="L13" s="346" t="s">
+      <c r="L13" s="322" t="s">
         <v>192</v>
       </c>
-      <c r="M13" s="347">
+      <c r="M13" s="323">
         <v>1</v>
       </c>
     </row>
@@ -45557,10 +45987,10 @@
       <c r="I14" s="43"/>
       <c r="J14" s="27"/>
       <c r="K14" s="117"/>
-      <c r="L14" s="348" t="s">
+      <c r="L14" s="324" t="s">
         <v>60</v>
       </c>
-      <c r="M14" s="349" t="s">
+      <c r="M14" s="325" t="s">
         <v>1155</v>
       </c>
     </row>
@@ -46572,11 +47002,11 @@
       <c r="L6" s="43" t="s">
         <v>1598</v>
       </c>
-      <c r="M6" s="344" t="s">
+      <c r="M6" s="350" t="s">
         <v>1599</v>
       </c>
-      <c r="N6" s="344"/>
-      <c r="O6" s="344"/>
+      <c r="N6" s="350"/>
+      <c r="O6" s="350"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -46986,10 +47416,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:L85"/>
+  <dimension ref="A3:P115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108:L108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47331,6 +47761,160 @@
     <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>1652</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16">
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43"/>
+      <c r="M98" s="43"/>
+      <c r="N98" s="43"/>
+      <c r="O98" s="43"/>
+      <c r="P98" s="43"/>
+    </row>
+    <row r="99" spans="3:16">
+      <c r="C99" s="43"/>
+      <c r="D99" s="43" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+      <c r="M99" s="43"/>
+      <c r="N99" s="43"/>
+      <c r="O99" s="43"/>
+      <c r="P99" s="43"/>
+    </row>
+    <row r="100" spans="3:16">
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="M100" s="43"/>
+      <c r="N100" s="43"/>
+      <c r="O100" s="43"/>
+      <c r="P100" s="43"/>
+    </row>
+    <row r="101" spans="3:16">
+      <c r="C101" s="43"/>
+      <c r="D101" s="43" t="s">
+        <v>1463</v>
+      </c>
+      <c r="M101" s="43"/>
+      <c r="N101" s="43"/>
+      <c r="O101" s="43"/>
+      <c r="P101" s="43"/>
+    </row>
+    <row r="102" spans="3:16">
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="M102" s="43"/>
+      <c r="N102" s="43"/>
+      <c r="O102" s="43"/>
+      <c r="P102" s="43"/>
+    </row>
+    <row r="103" spans="3:16">
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="M103" s="43"/>
+      <c r="N103" s="43"/>
+      <c r="O103" s="43" t="s">
+        <v>3306</v>
+      </c>
+      <c r="P103" s="43"/>
+    </row>
+    <row r="104" spans="3:16">
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="M104" s="43"/>
+      <c r="N104" s="43"/>
+      <c r="O104" s="43"/>
+      <c r="P104" s="43"/>
+    </row>
+    <row r="105" spans="3:16">
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="M105" s="43"/>
+      <c r="N105" s="43"/>
+      <c r="O105" s="43"/>
+      <c r="P105" s="43"/>
+    </row>
+    <row r="106" spans="3:16">
+      <c r="C106" s="33"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="34"/>
+      <c r="I106" t="s">
+        <v>3313</v>
+      </c>
+      <c r="M106" s="33"/>
+      <c r="N106" s="27"/>
+      <c r="O106" s="27"/>
+      <c r="P106" s="34"/>
+    </row>
+    <row r="107" spans="3:16" ht="15.75" thickBot="1">
+      <c r="C107" s="35"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="37"/>
+      <c r="M107" s="35"/>
+      <c r="N107" s="36"/>
+      <c r="O107" s="36"/>
+      <c r="P107" s="37"/>
+    </row>
+    <row r="108" spans="3:16">
+      <c r="D108" t="s">
+        <v>3308</v>
+      </c>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
+      <c r="K108" s="29"/>
+      <c r="L108" s="29"/>
+      <c r="N108" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="109" spans="3:16">
+      <c r="G109" t="s">
+        <v>3310</v>
+      </c>
+      <c r="I109" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="110" spans="3:16">
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
+      <c r="K110" s="29"/>
+      <c r="L110" s="29"/>
+    </row>
+    <row r="111" spans="3:16">
+      <c r="E111" s="43"/>
+      <c r="F111" s="43" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="112" spans="3:16">
+      <c r="E112" s="43"/>
+      <c r="F112" s="43"/>
+    </row>
+    <row r="113" spans="5:9">
+      <c r="E113" s="43"/>
+      <c r="F113" s="43"/>
+    </row>
+    <row r="114" spans="5:9">
+      <c r="E114" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="5:9">
+      <c r="G115" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I115" t="s">
+        <v>3312</v>
       </c>
     </row>
   </sheetData>
@@ -50016,7 +50600,7 @@
       <c r="F269" s="39">
         <v>9</v>
       </c>
-      <c r="G269" s="332" t="s">
+      <c r="G269" s="338" t="s">
         <v>2846</v>
       </c>
       <c r="I269" s="56" t="s">
@@ -50037,7 +50621,7 @@
       <c r="F270" s="39">
         <v>15</v>
       </c>
-      <c r="G270" s="333"/>
+      <c r="G270" s="339"/>
       <c r="I270" s="172" t="s">
         <v>2842</v>
       </c>
@@ -51615,23 +52199,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="335" t="s">
+      <c r="A1" s="341" t="s">
         <v>2925</v>
       </c>
-      <c r="B1" s="335"/>
-      <c r="C1" s="335"/>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="I1" s="335" t="s">
+      <c r="B1" s="341"/>
+      <c r="C1" s="341"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="I1" s="341" t="s">
         <v>2937</v>
       </c>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
-      <c r="N1" s="335"/>
-      <c r="O1" s="335"/>
+      <c r="J1" s="341"/>
+      <c r="K1" s="341"/>
+      <c r="L1" s="341"/>
+      <c r="M1" s="341"/>
+      <c r="N1" s="341"/>
+      <c r="O1" s="341"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -51787,28 +52371,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="328" t="s">
+      <c r="A12" s="334" t="s">
         <v>2939</v>
       </c>
-      <c r="B12" s="334"/>
-      <c r="C12" s="334"/>
-      <c r="D12" s="334"/>
-      <c r="E12" s="334"/>
-      <c r="F12" s="334"/>
-      <c r="G12" s="334"/>
-      <c r="H12" s="329"/>
-      <c r="I12" s="328" t="s">
+      <c r="B12" s="340"/>
+      <c r="C12" s="340"/>
+      <c r="D12" s="340"/>
+      <c r="E12" s="340"/>
+      <c r="F12" s="340"/>
+      <c r="G12" s="340"/>
+      <c r="H12" s="335"/>
+      <c r="I12" s="334" t="s">
         <v>2939</v>
       </c>
-      <c r="J12" s="334"/>
-      <c r="K12" s="334"/>
-      <c r="L12" s="334"/>
-      <c r="M12" s="334"/>
-      <c r="N12" s="334"/>
-      <c r="O12" s="334"/>
-      <c r="P12" s="334"/>
-      <c r="Q12" s="334"/>
-      <c r="R12" s="329"/>
+      <c r="J12" s="340"/>
+      <c r="K12" s="340"/>
+      <c r="L12" s="340"/>
+      <c r="M12" s="340"/>
+      <c r="N12" s="340"/>
+      <c r="O12" s="340"/>
+      <c r="P12" s="340"/>
+      <c r="Q12" s="340"/>
+      <c r="R12" s="335"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="30" t="s">
@@ -52036,14 +52620,14 @@
       <c r="R21" s="37"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="335" t="s">
+      <c r="A24" s="341" t="s">
         <v>2925</v>
       </c>
-      <c r="B24" s="335"/>
-      <c r="C24" s="335"/>
-      <c r="D24" s="335"/>
-      <c r="E24" s="335"/>
-      <c r="F24" s="335"/>
+      <c r="B24" s="341"/>
+      <c r="C24" s="341"/>
+      <c r="D24" s="341"/>
+      <c r="E24" s="341"/>
+      <c r="F24" s="341"/>
       <c r="H24" s="275" t="s">
         <v>2937</v>
       </c>
@@ -52053,11 +52637,11 @@
       <c r="L24" s="275"/>
       <c r="M24" s="275"/>
       <c r="N24" s="275"/>
-      <c r="P24" s="335" t="s">
+      <c r="P24" s="341" t="s">
         <v>2978</v>
       </c>
-      <c r="Q24" s="335"/>
-      <c r="R24" s="335"/>
+      <c r="Q24" s="341"/>
+      <c r="R24" s="341"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="106" t="s">
@@ -52297,28 +52881,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="328" t="s">
+      <c r="A35" s="334" t="s">
         <v>2979</v>
       </c>
-      <c r="B35" s="334"/>
-      <c r="C35" s="334"/>
-      <c r="D35" s="334"/>
-      <c r="E35" s="334"/>
-      <c r="F35" s="334"/>
-      <c r="G35" s="334"/>
-      <c r="H35" s="329"/>
-      <c r="I35" s="328" t="s">
+      <c r="B35" s="340"/>
+      <c r="C35" s="340"/>
+      <c r="D35" s="340"/>
+      <c r="E35" s="340"/>
+      <c r="F35" s="340"/>
+      <c r="G35" s="340"/>
+      <c r="H35" s="335"/>
+      <c r="I35" s="334" t="s">
         <v>1133</v>
       </c>
-      <c r="J35" s="334"/>
-      <c r="K35" s="334"/>
-      <c r="L35" s="334"/>
-      <c r="M35" s="334"/>
-      <c r="N35" s="334"/>
-      <c r="O35" s="334"/>
-      <c r="P35" s="334"/>
-      <c r="Q35" s="334"/>
-      <c r="R35" s="329"/>
+      <c r="J35" s="340"/>
+      <c r="K35" s="340"/>
+      <c r="L35" s="340"/>
+      <c r="M35" s="340"/>
+      <c r="N35" s="340"/>
+      <c r="O35" s="340"/>
+      <c r="P35" s="340"/>
+      <c r="Q35" s="340"/>
+      <c r="R35" s="335"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="30" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="21" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6279" uniqueCount="3314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6280" uniqueCount="3313">
   <si>
     <t>USER</t>
   </si>
@@ -8430,36 +8430,6 @@
   </si>
   <si>
     <t>name=john</t>
-  </si>
-  <si>
-    <t>&lt;Restaurant&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/Restaurant&gt;</t>
-  </si>
-  <si>
-    <t>&lt;name&gt;john&lt;/name&gt;</t>
-  </si>
-  <si>
-    <t>&lt;customer&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/customer&gt;</t>
-  </si>
-  <si>
-    <t>&lt;name&gt;</t>
-  </si>
-  <si>
-    <t>&lt;address&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/address&gt;</t>
-  </si>
-  <si>
-    <t>&lt;city&gt;</t>
-  </si>
-  <si>
-    <t>&lt;state&gt;</t>
   </si>
   <si>
     <t>disk</t>
@@ -10249,6 +10219,33 @@
   </si>
   <si>
     <t>Decorator design pattern</t>
+  </si>
+  <si>
+    <t>var restaurant={</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>name:"john",</t>
+  </si>
+  <si>
+    <t>customer:{</t>
+  </si>
+  <si>
+    <t>name:"jane",</t>
+  </si>
+  <si>
+    <t>address:{</t>
+  </si>
+  <si>
+    <t>streetName:"123 abcd",</t>
+  </si>
+  <si>
+    <t>zip:1234</t>
+  </si>
+  <si>
+    <t>restaurant.customer.address.zip</t>
   </si>
 </sst>
 </file>
@@ -11550,6 +11547,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11557,9 +11557,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11880,7 +11877,7 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1">
       <c r="B2" t="s">
-        <v>2862</v>
+        <v>2852</v>
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="31"/>
@@ -11900,7 +11897,7 @@
         <v>2316</v>
       </c>
       <c r="D3" t="s">
-        <v>2859</v>
+        <v>2849</v>
       </c>
       <c r="E3" s="80" t="s">
         <v>1692</v>
@@ -11926,7 +11923,7 @@
         <v>2450</v>
       </c>
       <c r="D4" t="s">
-        <v>2861</v>
+        <v>2851</v>
       </c>
       <c r="E4" s="50" t="s">
         <v>404</v>
@@ -12001,7 +11998,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="B8" t="s">
-        <v>2901</v>
+        <v>2891</v>
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="51"/>
@@ -12037,7 +12034,7 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="B10" t="s">
-        <v>2896</v>
+        <v>2886</v>
       </c>
       <c r="E10" s="50"/>
       <c r="F10" s="51"/>
@@ -12051,7 +12048,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="B11" t="s">
-        <v>2895</v>
+        <v>2885</v>
       </c>
       <c r="E11" s="50"/>
       <c r="F11" s="51"/>
@@ -12067,7 +12064,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="B12" t="s">
-        <v>2894</v>
+        <v>2884</v>
       </c>
       <c r="E12" s="50"/>
       <c r="F12" s="51"/>
@@ -12085,7 +12082,7 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="B13" t="s">
-        <v>2897</v>
+        <v>2887</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="51"/>
@@ -12103,7 +12100,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="B14" t="s">
-        <v>2906</v>
+        <v>2896</v>
       </c>
       <c r="E14" s="50"/>
       <c r="F14" s="51"/>
@@ -12117,7 +12114,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="B15" t="s">
-        <v>2907</v>
+        <v>2897</v>
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="51"/>
@@ -12131,7 +12128,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="B16" t="s">
-        <v>2898</v>
+        <v>2888</v>
       </c>
       <c r="E16" s="50"/>
       <c r="F16" s="51"/>
@@ -12149,16 +12146,16 @@
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="27" t="s">
-        <v>2864</v>
+        <v>2854</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>2902</v>
+        <v>2892</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>2859</v>
+        <v>2849</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>2903</v>
+        <v>2893</v>
       </c>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
@@ -12167,17 +12164,17 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1">
       <c r="B18" t="s">
-        <v>2899</v>
+        <v>2889</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="36" t="s">
-        <v>2904</v>
+        <v>2894</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>2867</v>
+        <v>2857</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>2905</v>
+        <v>2895</v>
       </c>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
@@ -12187,33 +12184,33 @@
     </row>
     <row r="19" spans="1:13">
       <c r="B19" t="s">
-        <v>2900</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="B20" t="s">
-        <v>2908</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="B21" t="s">
-        <v>2909</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1">
       <c r="A24" t="s">
-        <v>2873</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="B25" t="s">
-        <v>2874</v>
+        <v>2864</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31" t="s">
-        <v>2921</v>
+        <v>2911</v>
       </c>
       <c r="J25" s="30"/>
       <c r="K25" s="32"/>
@@ -12239,7 +12236,7 @@
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1">
       <c r="F27" s="33" t="s">
-        <v>2922</v>
+        <v>2912</v>
       </c>
       <c r="G27" s="27" t="s">
         <v>415</v>
@@ -12251,16 +12248,16 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>2875</v>
+        <v>2865</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27" t="s">
-        <v>2919</v>
+        <v>2909</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>2885</v>
+        <v>2875</v>
       </c>
       <c r="K28" s="32" t="s">
         <v>2599</v>
@@ -12271,14 +12268,14 @@
         <v>2350</v>
       </c>
       <c r="C29" t="s">
-        <v>2911</v>
+        <v>2901</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="35" t="s">
-        <v>2774</v>
+        <v>2764</v>
       </c>
       <c r="K29" s="37">
         <v>123</v>
@@ -12289,7 +12286,7 @@
         <v>190</v>
       </c>
       <c r="C30" t="s">
-        <v>2910</v>
+        <v>2900</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="27"/>
@@ -12306,25 +12303,25 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27" t="s">
-        <v>2920</v>
+        <v>2910</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>2916</v>
+        <v>2906</v>
       </c>
       <c r="K31" s="32" t="s">
-        <v>2918</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1">
       <c r="A32" t="s">
-        <v>2879</v>
+        <v>2869</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="35" t="s">
-        <v>2917</v>
+        <v>2907</v>
       </c>
       <c r="K32" s="37">
         <v>1234</v>
@@ -12335,7 +12332,7 @@
         <v>182</v>
       </c>
       <c r="C33" t="s">
-        <v>2912</v>
+        <v>2902</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="27"/>
@@ -12349,7 +12346,7 @@
         <v>186</v>
       </c>
       <c r="C34" t="s">
-        <v>2913</v>
+        <v>2903</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="27"/>
@@ -12390,7 +12387,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="B38" t="s">
-        <v>2914</v>
+        <v>2904</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="27"/>
@@ -12401,7 +12398,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1">
       <c r="B39" t="s">
-        <v>2915</v>
+        <v>2905</v>
       </c>
       <c r="F39" s="35"/>
       <c r="G39" s="36"/>
@@ -12431,7 +12428,7 @@
       <c r="H65" s="48"/>
       <c r="I65" s="48"/>
       <c r="J65" s="48" t="s">
-        <v>2870</v>
+        <v>2860</v>
       </c>
       <c r="K65" s="48"/>
       <c r="L65" s="48"/>
@@ -12439,7 +12436,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="B66" t="s">
-        <v>2862</v>
+        <v>2852</v>
       </c>
       <c r="F66" s="262" t="s">
         <v>1692</v>
@@ -12458,13 +12455,13 @@
     </row>
     <row r="67" spans="1:13">
       <c r="B67" t="s">
-        <v>2863</v>
+        <v>2853</v>
       </c>
       <c r="C67" t="s">
         <v>2316</v>
       </c>
       <c r="D67" t="s">
-        <v>2859</v>
+        <v>2849</v>
       </c>
       <c r="F67" s="50" t="s">
         <v>404</v>
@@ -12488,16 +12485,16 @@
         <v>146</v>
       </c>
       <c r="C68" t="s">
-        <v>2860</v>
+        <v>2850</v>
       </c>
       <c r="D68" t="s">
-        <v>2861</v>
+        <v>2851</v>
       </c>
       <c r="F68" s="50" t="s">
         <v>551</v>
       </c>
       <c r="G68" s="51" t="s">
-        <v>2869</v>
+        <v>2859</v>
       </c>
       <c r="H68" s="51"/>
       <c r="I68" s="51"/>
@@ -12518,7 +12515,7 @@
         <v>552</v>
       </c>
       <c r="G69" s="51" t="s">
-        <v>2871</v>
+        <v>2861</v>
       </c>
       <c r="H69" s="51"/>
       <c r="I69" s="51"/>
@@ -12529,14 +12526,14 @@
     </row>
     <row r="70" spans="1:13">
       <c r="B70" t="s">
-        <v>2849</v>
+        <v>2839</v>
       </c>
       <c r="F70" s="50"/>
       <c r="G70" s="51"/>
       <c r="H70" s="51"/>
       <c r="I70" s="51"/>
       <c r="J70" s="51" t="s">
-        <v>2869</v>
+        <v>2859</v>
       </c>
       <c r="K70" s="99"/>
       <c r="L70" s="100"/>
@@ -12544,7 +12541,7 @@
     </row>
     <row r="71" spans="1:13">
       <c r="B71" t="s">
-        <v>2850</v>
+        <v>2840</v>
       </c>
       <c r="F71" s="50"/>
       <c r="G71" s="51"/>
@@ -12561,7 +12558,7 @@
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
       <c r="B72" t="s">
-        <v>2851</v>
+        <v>2841</v>
       </c>
       <c r="F72" s="50"/>
       <c r="G72" s="51"/>
@@ -12578,7 +12575,7 @@
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
       <c r="B73" t="s">
-        <v>2853</v>
+        <v>2843</v>
       </c>
       <c r="F73" s="50"/>
       <c r="G73" s="51"/>
@@ -12591,14 +12588,14 @@
     </row>
     <row r="74" spans="1:13">
       <c r="B74" t="s">
-        <v>2852</v>
+        <v>2842</v>
       </c>
       <c r="F74" s="50"/>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
       <c r="I74" s="51"/>
       <c r="J74" s="51" t="s">
-        <v>2871</v>
+        <v>2861</v>
       </c>
       <c r="K74" s="99"/>
       <c r="L74" s="100"/>
@@ -12606,7 +12603,7 @@
     </row>
     <row r="75" spans="1:13">
       <c r="B75" t="s">
-        <v>2856</v>
+        <v>2846</v>
       </c>
       <c r="F75" s="50"/>
       <c r="G75" s="51"/>
@@ -12623,7 +12620,7 @@
     </row>
     <row r="76" spans="1:13" ht="15.75" thickBot="1">
       <c r="B76" t="s">
-        <v>2854</v>
+        <v>2844</v>
       </c>
       <c r="F76" s="50"/>
       <c r="G76" s="51"/>
@@ -12640,17 +12637,17 @@
     </row>
     <row r="77" spans="1:13">
       <c r="B77" t="s">
-        <v>2855</v>
+        <v>2845</v>
       </c>
       <c r="F77" s="50"/>
       <c r="G77" s="51" t="s">
-        <v>2864</v>
+        <v>2854</v>
       </c>
       <c r="H77" s="51" t="s">
-        <v>2865</v>
+        <v>2855</v>
       </c>
       <c r="I77" s="51" t="s">
-        <v>2866</v>
+        <v>2856</v>
       </c>
       <c r="J77" s="51"/>
       <c r="K77" s="51"/>
@@ -12666,10 +12663,10 @@
         <v>1891</v>
       </c>
       <c r="H78" s="51" t="s">
-        <v>2867</v>
+        <v>2857</v>
       </c>
       <c r="I78" s="117" t="s">
-        <v>2868</v>
+        <v>2858</v>
       </c>
       <c r="J78" s="51"/>
       <c r="K78" s="51"/>
@@ -12678,7 +12675,7 @@
     </row>
     <row r="79" spans="1:13">
       <c r="B79" t="s">
-        <v>2857</v>
+        <v>2847</v>
       </c>
       <c r="F79" s="50"/>
       <c r="G79" s="51"/>
@@ -12691,7 +12688,7 @@
     </row>
     <row r="80" spans="1:13" ht="15.75" thickBot="1">
       <c r="B80" t="s">
-        <v>2858</v>
+        <v>2848</v>
       </c>
       <c r="F80" s="53"/>
       <c r="G80" s="54"/>
@@ -12721,24 +12718,24 @@
       <c r="I83" s="258"/>
       <c r="J83" s="258"/>
       <c r="K83" s="258" t="s">
-        <v>2882</v>
+        <v>2872</v>
       </c>
       <c r="L83" s="121" t="s">
         <v>201</v>
       </c>
       <c r="M83" s="122" t="s">
-        <v>2883</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="B84" t="s">
+        <v>2862</v>
+      </c>
+      <c r="F84" s="188" t="s">
+        <v>2882</v>
+      </c>
+      <c r="G84" s="27" t="s">
         <v>2872</v>
-      </c>
-      <c r="F84" s="188" t="s">
-        <v>2892</v>
-      </c>
-      <c r="G84" s="27" t="s">
-        <v>2882</v>
       </c>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
@@ -12749,7 +12746,7 @@
     </row>
     <row r="85" spans="1:13" ht="15.75" thickBot="1">
       <c r="B85" t="s">
-        <v>2893</v>
+        <v>2883</v>
       </c>
       <c r="F85" s="188"/>
       <c r="G85" s="27"/>
@@ -12770,10 +12767,10 @@
       <c r="I86" s="32"/>
       <c r="J86" s="27"/>
       <c r="K86" s="27" t="s">
-        <v>2883</v>
+        <v>2873</v>
       </c>
       <c r="L86" s="121" t="s">
-        <v>2884</v>
+        <v>2874</v>
       </c>
       <c r="M86" s="122" t="b">
         <v>1</v>
@@ -12781,7 +12778,7 @@
     </row>
     <row r="87" spans="1:13" ht="15.75" thickBot="1">
       <c r="A87" t="s">
-        <v>2873</v>
+        <v>2863</v>
       </c>
       <c r="F87" s="188"/>
       <c r="G87" s="27"/>
@@ -12790,15 +12787,15 @@
       <c r="J87" s="27"/>
       <c r="K87" s="27"/>
       <c r="L87" s="188" t="s">
-        <v>2885</v>
+        <v>2875</v>
       </c>
       <c r="M87" s="76" t="s">
-        <v>2887</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="B88" t="s">
-        <v>2874</v>
+        <v>2864</v>
       </c>
       <c r="F88" s="188"/>
       <c r="G88" s="27"/>
@@ -12807,10 +12804,10 @@
       <c r="J88" s="27"/>
       <c r="K88" s="27"/>
       <c r="L88" s="123" t="s">
-        <v>2888</v>
+        <v>2878</v>
       </c>
       <c r="M88" s="124" t="s">
-        <v>2889</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -12828,7 +12825,7 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>2875</v>
+        <v>2865</v>
       </c>
       <c r="F90" s="188"/>
       <c r="G90" s="27"/>
@@ -12836,7 +12833,7 @@
       <c r="I90" s="76"/>
       <c r="J90" s="27"/>
       <c r="K90" s="27" t="s">
-        <v>2886</v>
+        <v>2876</v>
       </c>
       <c r="L90" s="121" t="s">
         <v>195</v>
@@ -12847,7 +12844,7 @@
     </row>
     <row r="91" spans="1:13">
       <c r="B91" t="s">
-        <v>2876</v>
+        <v>2866</v>
       </c>
       <c r="F91" s="188"/>
       <c r="G91" s="27"/>
@@ -12864,7 +12861,7 @@
     </row>
     <row r="92" spans="1:13">
       <c r="B92" t="s">
-        <v>2877</v>
+        <v>2867</v>
       </c>
       <c r="F92" s="188"/>
       <c r="G92" s="27"/>
@@ -12877,7 +12874,7 @@
     </row>
     <row r="93" spans="1:13">
       <c r="B93" t="s">
-        <v>2878</v>
+        <v>2868</v>
       </c>
       <c r="F93" s="188"/>
       <c r="G93" s="27"/>
@@ -12885,10 +12882,10 @@
       <c r="I93" s="122"/>
       <c r="J93" s="27"/>
       <c r="K93" s="27" t="s">
-        <v>2889</v>
+        <v>2879</v>
       </c>
       <c r="L93" s="121" t="s">
-        <v>2890</v>
+        <v>2880</v>
       </c>
       <c r="M93" s="266">
         <v>44542</v>
@@ -12905,7 +12902,7 @@
       <c r="J94" s="27"/>
       <c r="K94" s="27"/>
       <c r="L94" s="123" t="s">
-        <v>2891</v>
+        <v>2881</v>
       </c>
       <c r="M94" s="124">
         <v>12312312</v>
@@ -12913,7 +12910,7 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>2879</v>
+        <v>2869</v>
       </c>
       <c r="F95" s="188"/>
       <c r="G95" s="27"/>
@@ -12929,7 +12926,7 @@
         <v>189</v>
       </c>
       <c r="C96" t="s">
-        <v>2880</v>
+        <v>2870</v>
       </c>
       <c r="F96" s="188"/>
       <c r="G96" s="27"/>
@@ -12945,7 +12942,7 @@
         <v>182</v>
       </c>
       <c r="C97" t="s">
-        <v>2881</v>
+        <v>2871</v>
       </c>
       <c r="F97" s="123"/>
       <c r="G97" s="36"/>
@@ -16401,7 +16398,7 @@
     </row>
     <row r="179" spans="1:18" ht="15.75" thickBot="1">
       <c r="B179" t="s">
-        <v>3023</v>
+        <v>3013</v>
       </c>
       <c r="F179" s="33"/>
       <c r="G179" s="27" t="s">
@@ -16423,11 +16420,11 @@
     </row>
     <row r="180" spans="1:18">
       <c r="B180" t="s">
-        <v>3003</v>
+        <v>2993</v>
       </c>
       <c r="F180" s="33"/>
       <c r="G180" s="51" t="s">
-        <v>2993</v>
+        <v>2983</v>
       </c>
       <c r="H180" s="51" t="s">
         <v>2023</v>
@@ -16447,7 +16444,7 @@
     </row>
     <row r="181" spans="1:18">
       <c r="B181" t="s">
-        <v>3072</v>
+        <v>3062</v>
       </c>
       <c r="F181" s="33"/>
       <c r="G181" s="51" t="s">
@@ -16495,7 +16492,7 @@
     </row>
     <row r="183" spans="1:18">
       <c r="B183" t="s">
-        <v>3033</v>
+        <v>3023</v>
       </c>
       <c r="F183" s="33"/>
       <c r="G183" s="51" t="s">
@@ -16517,11 +16514,11 @@
     </row>
     <row r="184" spans="1:18">
       <c r="B184" t="s">
-        <v>3005</v>
+        <v>2995</v>
       </c>
       <c r="F184" s="33"/>
       <c r="G184" s="51" t="s">
-        <v>3073</v>
+        <v>3063</v>
       </c>
       <c r="H184" s="51"/>
       <c r="I184" s="27"/>
@@ -16575,7 +16572,7 @@
     </row>
     <row r="187" spans="1:18">
       <c r="A187" t="s">
-        <v>3032</v>
+        <v>3022</v>
       </c>
       <c r="F187" s="33"/>
       <c r="G187" s="51"/>
@@ -16615,11 +16612,11 @@
     </row>
     <row r="189" spans="1:18">
       <c r="B189" t="s">
-        <v>3024</v>
+        <v>3014</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" t="s">
-        <v>3031</v>
+        <v>3021</v>
       </c>
       <c r="H189" s="27"/>
       <c r="I189" s="27"/>
@@ -16653,7 +16650,7 @@
     </row>
     <row r="191" spans="1:18">
       <c r="B191" t="s">
-        <v>3002</v>
+        <v>2992</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="27"/>
@@ -16689,7 +16686,7 @@
     </row>
     <row r="193" spans="1:18">
       <c r="A193" t="s">
-        <v>3025</v>
+        <v>3015</v>
       </c>
       <c r="F193" s="33"/>
       <c r="G193" s="27"/>
@@ -16711,7 +16708,7 @@
       </c>
       <c r="F194" s="33"/>
       <c r="G194" s="27" t="s">
-        <v>3030</v>
+        <v>3020</v>
       </c>
       <c r="H194" s="27"/>
       <c r="I194" s="27"/>
@@ -16727,11 +16724,11 @@
     </row>
     <row r="195" spans="1:18">
       <c r="B195" t="s">
-        <v>3026</v>
+        <v>3016</v>
       </c>
       <c r="F195" s="33"/>
       <c r="G195" s="27" t="s">
-        <v>3029</v>
+        <v>3019</v>
       </c>
       <c r="H195" s="27"/>
       <c r="I195" s="27"/>
@@ -16765,7 +16762,7 @@
     </row>
     <row r="197" spans="1:18">
       <c r="A197" t="s">
-        <v>3027</v>
+        <v>3017</v>
       </c>
       <c r="F197" s="33"/>
       <c r="G197" s="27"/>
@@ -16783,7 +16780,7 @@
     </row>
     <row r="198" spans="1:18">
       <c r="B198" t="s">
-        <v>3028</v>
+        <v>3018</v>
       </c>
       <c r="F198" s="33"/>
       <c r="G198" s="27"/>
@@ -19197,7 +19194,7 @@
       <c r="A3" s="57"/>
       <c r="B3" s="57"/>
       <c r="C3" s="57" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
       <c r="D3" s="57"/>
       <c r="E3" s="57"/>
@@ -19219,7 +19216,7 @@
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
       <c r="E4" s="127" t="s">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="F4" s="65"/>
       <c r="G4" s="57"/>
@@ -19283,7 +19280,7 @@
         <v>578</v>
       </c>
       <c r="E7" s="127" t="s">
-        <v>3039</v>
+        <v>3029</v>
       </c>
       <c r="F7" s="57" t="s">
         <v>591</v>
@@ -19300,7 +19297,7 @@
       </c>
       <c r="N7" s="57"/>
       <c r="O7" t="s">
-        <v>3022</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -19309,7 +19306,7 @@
       <c r="C8" s="57"/>
       <c r="D8" s="57"/>
       <c r="E8" s="127" t="s">
-        <v>3019</v>
+        <v>3009</v>
       </c>
       <c r="F8" s="57" t="s">
         <v>592</v>
@@ -19374,7 +19371,7 @@
       <c r="D11" s="57"/>
       <c r="E11" s="57"/>
       <c r="F11" s="127" t="s">
-        <v>3040</v>
+        <v>3030</v>
       </c>
       <c r="G11" s="57"/>
       <c r="H11" s="61" t="s">
@@ -19491,7 +19488,7 @@
       </c>
       <c r="B16" s="57"/>
       <c r="C16" s="127" t="s">
-        <v>3045</v>
+        <v>3035</v>
       </c>
       <c r="D16" s="58" t="s">
         <v>583</v>
@@ -19551,7 +19548,7 @@
         <v>1729</v>
       </c>
       <c r="I18" s="291" t="s">
-        <v>3044</v>
+        <v>3034</v>
       </c>
       <c r="J18" s="57"/>
       <c r="K18" s="57" t="s">
@@ -19579,7 +19576,7 @@
       <c r="G19" s="149"/>
       <c r="H19" s="152"/>
       <c r="I19" s="291" t="s">
-        <v>3043</v>
+        <v>3033</v>
       </c>
       <c r="J19" s="57"/>
       <c r="K19" s="67" t="s">
@@ -19604,7 +19601,7 @@
         <v>587</v>
       </c>
       <c r="F20" s="127" t="s">
-        <v>3042</v>
+        <v>3032</v>
       </c>
       <c r="G20" s="57"/>
       <c r="H20" s="64" t="s">
@@ -19628,7 +19625,7 @@
         <v>588</v>
       </c>
       <c r="F21" s="127" t="s">
-        <v>3043</v>
+        <v>3033</v>
       </c>
       <c r="G21" s="57"/>
       <c r="H21" s="65" t="s">
@@ -19652,7 +19649,7 @@
         <v>588</v>
       </c>
       <c r="D22" s="290" t="s">
-        <v>3041</v>
+        <v>3031</v>
       </c>
       <c r="E22" s="57" t="s">
         <v>577</v>
@@ -19671,7 +19668,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="127" t="s">
-        <v>3021</v>
+        <v>3011</v>
       </c>
       <c r="B23" s="57"/>
       <c r="C23" s="57" t="s">
@@ -20513,7 +20510,7 @@
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="27" t="s">
-        <v>3048</v>
+        <v>3038</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>1440</v>
@@ -20529,7 +20526,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="B4" t="s">
-        <v>3061</v>
+        <v>3051</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="27" t="s">
@@ -20551,7 +20548,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
       <c r="C5" t="s">
-        <v>3046</v>
+        <v>3036</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="27" t="s">
@@ -20587,7 +20584,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="B7" t="s">
-        <v>3063</v>
+        <v>3053</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="27"/>
@@ -20603,7 +20600,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="C8" t="s">
-        <v>3046</v>
+        <v>3036</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="27"/>
@@ -20621,7 +20618,7 @@
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
       <c r="C9" t="s">
-        <v>3064</v>
+        <v>3054</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="27"/>
@@ -20667,7 +20664,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>3047</v>
+        <v>3037</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="27"/>
@@ -20681,7 +20678,7 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="A13" t="s">
-        <v>3062</v>
+        <v>3052</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="27"/>
@@ -20695,7 +20692,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="B14" t="s">
-        <v>3065</v>
+        <v>3055</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="27"/>
@@ -22063,10 +22060,10 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="H2" t="s">
-        <v>3051</v>
+        <v>3041</v>
       </c>
       <c r="I2" t="s">
-        <v>3052</v>
+        <v>3042</v>
       </c>
       <c r="J2" t="s">
         <v>763</v>
@@ -22074,33 +22071,33 @@
     </row>
     <row r="4" spans="2:13">
       <c r="H4" t="s">
-        <v>3053</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="5" spans="2:13">
       <c r="H5" t="s">
-        <v>3054</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="H6" s="56" t="s">
-        <v>3055</v>
+        <v>3045</v>
       </c>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
       <c r="L6" t="s">
-        <v>3262</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="H7" t="s">
-        <v>3070</v>
+        <v>3060</v>
       </c>
       <c r="K7" t="s">
-        <v>3071</v>
+        <v>3061</v>
       </c>
       <c r="M7" t="s">
-        <v>3263</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1"/>
@@ -22110,12 +22107,12 @@
       <c r="D9" s="301"/>
       <c r="F9" s="30"/>
       <c r="G9" s="79" t="s">
-        <v>3050</v>
+        <v>3040</v>
       </c>
       <c r="H9" s="32"/>
       <c r="K9" s="299"/>
       <c r="L9" s="302" t="s">
-        <v>3050</v>
+        <v>3040</v>
       </c>
       <c r="M9" s="301"/>
     </row>
@@ -22157,13 +22154,13 @@
       <c r="C13" s="27"/>
       <c r="D13" s="34"/>
       <c r="E13" t="s">
-        <v>3059</v>
+        <v>3049</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="27"/>
       <c r="H13" s="34"/>
       <c r="J13" s="292" t="s">
-        <v>3060</v>
+        <v>3050</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="27"/>
@@ -22171,25 +22168,25 @@
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="33" t="s">
-        <v>3056</v>
+        <v>3046</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="34" t="s">
-        <v>3057</v>
+        <v>3047</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>3056</v>
+        <v>3046</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="34" t="s">
-        <v>3057</v>
+        <v>3047</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>3056</v>
+        <v>3046</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14" s="34" t="s">
-        <v>3057</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -22206,17 +22203,17 @@
     <row r="16" spans="2:13">
       <c r="B16" s="33"/>
       <c r="C16" s="27" t="s">
-        <v>3058</v>
+        <v>3048</v>
       </c>
       <c r="D16" s="34"/>
       <c r="F16" s="33"/>
       <c r="G16" s="27" t="s">
-        <v>3058</v>
+        <v>3048</v>
       </c>
       <c r="H16" s="34"/>
       <c r="K16" s="33"/>
       <c r="L16" s="27" t="s">
-        <v>3058</v>
+        <v>3048</v>
       </c>
       <c r="M16" s="34"/>
     </row>
@@ -22302,7 +22299,7 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" t="s">
-        <v>3049</v>
+        <v>3039</v>
       </c>
       <c r="E51" s="80"/>
       <c r="F51" s="39" t="s">
@@ -22317,7 +22314,7 @@
     </row>
     <row r="52" spans="1:22" ht="15.75" thickBot="1">
       <c r="B52" t="s">
-        <v>3066</v>
+        <v>3056</v>
       </c>
       <c r="E52" s="305" t="s">
         <v>146</v>
@@ -22332,7 +22329,7 @@
     </row>
     <row r="53" spans="1:22">
       <c r="C53" t="s">
-        <v>3067</v>
+        <v>3057</v>
       </c>
       <c r="P53" t="s">
         <v>736</v>
@@ -22353,7 +22350,7 @@
     </row>
     <row r="56" spans="1:22">
       <c r="B56" t="s">
-        <v>3066</v>
+        <v>3056</v>
       </c>
       <c r="H56" s="30"/>
       <c r="I56" s="31"/>
@@ -22361,7 +22358,7 @@
     </row>
     <row r="57" spans="1:22">
       <c r="C57" t="s">
-        <v>3068</v>
+        <v>3058</v>
       </c>
       <c r="H57" s="33"/>
       <c r="I57" t="s">
@@ -22400,7 +22397,7 @@
     </row>
     <row r="61" spans="1:22" ht="15.75" thickBot="1">
       <c r="B61" t="s">
-        <v>3069</v>
+        <v>3059</v>
       </c>
       <c r="H61" s="35"/>
       <c r="I61" s="36"/>
@@ -23647,7 +23644,7 @@
     </row>
     <row r="273" spans="1:19">
       <c r="C273" t="s">
-        <v>3090</v>
+        <v>3080</v>
       </c>
       <c r="J273" s="152"/>
     </row>
@@ -23659,17 +23656,17 @@
     </row>
     <row r="276" spans="1:19">
       <c r="A276" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="G276" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="J276" s="152"/>
       <c r="K276" t="s">
-        <v>3076</v>
+        <v>3066</v>
       </c>
       <c r="Q276" t="s">
-        <v>3077</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="277" spans="1:19" ht="15.75" thickBot="1">
@@ -23709,7 +23706,7 @@
       <c r="B279" s="27"/>
       <c r="C279" s="34"/>
       <c r="E279" s="307" t="s">
-        <v>3078</v>
+        <v>3068</v>
       </c>
       <c r="G279" s="33" t="s">
         <v>728</v>
@@ -23723,7 +23720,7 @@
       <c r="L279" s="27"/>
       <c r="M279" s="34"/>
       <c r="O279" s="125" t="s">
-        <v>3082</v>
+        <v>3072</v>
       </c>
       <c r="Q279" s="33" t="s">
         <v>821</v>
@@ -23744,12 +23741,12 @@
       <c r="I280" s="41"/>
       <c r="J280" s="152"/>
       <c r="K280" s="80" t="s">
-        <v>3083</v>
+        <v>3073</v>
       </c>
       <c r="L280" s="39"/>
       <c r="M280" s="41"/>
       <c r="Q280" s="80" t="s">
-        <v>3083</v>
+        <v>3073</v>
       </c>
       <c r="R280" s="39"/>
       <c r="S280" s="41"/>
@@ -23768,12 +23765,12 @@
       <c r="J281" s="152"/>
       <c r="K281" s="305"/>
       <c r="L281" s="306" t="s">
-        <v>3084</v>
+        <v>3074</v>
       </c>
       <c r="M281" s="132"/>
       <c r="Q281" s="305"/>
       <c r="R281" s="306" t="s">
-        <v>3085</v>
+        <v>3075</v>
       </c>
       <c r="S281" s="132"/>
     </row>
@@ -23782,7 +23779,7 @@
     </row>
     <row r="283" spans="1:19">
       <c r="E283" t="s">
-        <v>3079</v>
+        <v>3069</v>
       </c>
       <c r="J283" s="152"/>
     </row>
@@ -23801,7 +23798,7 @@
       <c r="F285" s="32"/>
       <c r="J285" s="152"/>
       <c r="N285" s="33" t="s">
-        <v>3080</v>
+        <v>3070</v>
       </c>
       <c r="P285" s="32"/>
     </row>
@@ -23811,7 +23808,7 @@
       <c r="J286" s="152"/>
       <c r="N286" s="33"/>
       <c r="O286" s="27" t="s">
-        <v>3081</v>
+        <v>3071</v>
       </c>
       <c r="P286" s="34"/>
     </row>
@@ -23828,10 +23825,10 @@
       <c r="F288" s="34"/>
       <c r="J288" s="152"/>
       <c r="L288" t="s">
-        <v>3088</v>
+        <v>3078</v>
       </c>
       <c r="N288" s="33" t="s">
-        <v>3086</v>
+        <v>3076</v>
       </c>
       <c r="O288" s="27"/>
       <c r="P288" s="34"/>
@@ -23842,11 +23839,11 @@
       <c r="F289" s="34"/>
       <c r="J289" s="152"/>
       <c r="L289" t="s">
-        <v>3089</v>
+        <v>3079</v>
       </c>
       <c r="N289" s="33"/>
       <c r="O289" s="27" t="s">
-        <v>3087</v>
+        <v>3077</v>
       </c>
       <c r="P289" s="34"/>
     </row>
@@ -25195,7 +25192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -25335,7 +25332,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="F12" s="327" t="s">
-        <v>2761</v>
+        <v>2751</v>
       </c>
       <c r="G12" s="328"/>
       <c r="H12" s="328"/>
@@ -25360,7 +25357,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>2751</v>
+        <v>2741</v>
       </c>
       <c r="D14" s="125" t="s">
         <v>1660</v>
@@ -25510,7 +25507,7 @@
     <row r="23" spans="1:17">
       <c r="F23" s="142"/>
       <c r="G23" s="17" t="s">
-        <v>2745</v>
+        <v>2735</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="18"/>
@@ -25586,7 +25583,7 @@
     </row>
     <row r="33" spans="1:17 16384:16384">
       <c r="A33" s="27" t="s">
-        <v>2783</v>
+        <v>2773</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
@@ -25618,7 +25615,7 @@
     </row>
     <row r="34" spans="1:17 16384:16384">
       <c r="A34" s="253" t="s">
-        <v>2782</v>
+        <v>2772</v>
       </c>
       <c r="B34" s="134"/>
       <c r="C34" s="134"/>
@@ -25626,20 +25623,20 @@
       <c r="E34" s="134"/>
       <c r="F34" s="134"/>
       <c r="G34" s="134" t="s">
-        <v>2747</v>
+        <v>2737</v>
       </c>
       <c r="H34" s="134" t="s">
-        <v>2746</v>
+        <v>2736</v>
       </c>
       <c r="I34" s="134"/>
       <c r="J34" s="134"/>
       <c r="K34" s="134"/>
       <c r="L34" s="134"/>
       <c r="M34" s="134" t="s">
-        <v>2747</v>
+        <v>2737</v>
       </c>
       <c r="N34" s="134" t="s">
-        <v>2746</v>
+        <v>2736</v>
       </c>
       <c r="P34" s="165"/>
     </row>
@@ -25795,7 +25792,7 @@
     </row>
     <row r="45" spans="1:17 16384:16384">
       <c r="B45" t="s">
-        <v>2748</v>
+        <v>2738</v>
       </c>
       <c r="E45" s="39"/>
       <c r="F45" s="145"/>
@@ -25811,7 +25808,7 @@
     </row>
     <row r="46" spans="1:17 16384:16384">
       <c r="B46" t="s">
-        <v>2749</v>
+        <v>2739</v>
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="145"/>
@@ -25830,7 +25827,7 @@
         <v>1882</v>
       </c>
       <c r="B47" t="s">
-        <v>2750</v>
+        <v>2740</v>
       </c>
       <c r="E47" s="39"/>
       <c r="F47" s="145"/>
@@ -26288,17 +26285,17 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="A1" s="96" t="s">
-        <v>3091</v>
+        <v>3081</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="A2" s="96" t="s">
-        <v>3100</v>
+        <v>3090</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>3103</v>
+        <v>3093</v>
       </c>
       <c r="C2" s="96"/>
       <c r="F2" s="47"/>
@@ -26311,17 +26308,17 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="96" t="s">
-        <v>3101</v>
+        <v>3091</v>
       </c>
       <c r="B3" s="96" t="s">
         <v>462</v>
       </c>
       <c r="C3" s="96"/>
       <c r="D3" s="57" t="s">
-        <v>3102</v>
+        <v>3092</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>3098</v>
+        <v>3088</v>
       </c>
       <c r="G3" s="51" t="s">
         <v>415</v>
@@ -26333,22 +26330,22 @@
       <c r="J3" s="47"/>
       <c r="K3" s="49"/>
       <c r="L3" s="342" t="s">
-        <v>3112</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="96" t="s">
-        <v>3101</v>
+        <v>3091</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>3092</v>
+        <v>3082</v>
       </c>
       <c r="C4" s="96"/>
       <c r="D4" s="57" t="s">
-        <v>3102</v>
+        <v>3092</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>3099</v>
+        <v>3089</v>
       </c>
       <c r="G4" s="51" t="s">
         <v>2023</v>
@@ -26366,7 +26363,7 @@
     <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="s">
-        <v>3093</v>
+        <v>3083</v>
       </c>
       <c r="C5" s="96"/>
       <c r="F5" s="50"/>
@@ -26374,7 +26371,7 @@
       <c r="H5" s="51"/>
       <c r="I5" s="51"/>
       <c r="J5" s="53" t="s">
-        <v>3097</v>
+        <v>3087</v>
       </c>
       <c r="K5" s="55">
         <v>123</v>
@@ -26399,7 +26396,7 @@
       <c r="A7" s="96"/>
       <c r="B7" s="96"/>
       <c r="C7" s="96" t="s">
-        <v>3094</v>
+        <v>3084</v>
       </c>
       <c r="F7" s="50"/>
       <c r="G7" s="51"/>
@@ -26440,7 +26437,7 @@
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
       <c r="J9" s="53" t="s">
-        <v>3097</v>
+        <v>3087</v>
       </c>
       <c r="K9" s="55">
         <v>124</v>
@@ -26458,7 +26455,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="96" t="s">
-        <v>3095</v>
+        <v>3085</v>
       </c>
       <c r="B11" s="96"/>
       <c r="F11" s="50"/>
@@ -26471,7 +26468,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="96" t="s">
-        <v>3096</v>
+        <v>3086</v>
       </c>
       <c r="F12" s="50"/>
       <c r="G12" s="51"/>
@@ -26481,20 +26478,20 @@
         <v>60</v>
       </c>
       <c r="K12" s="52" t="s">
-        <v>3104</v>
+        <v>3094</v>
       </c>
       <c r="L12" s="343"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="96" t="s">
-        <v>3106</v>
+        <v>3096</v>
       </c>
       <c r="F13" s="50"/>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
       <c r="I13" s="51"/>
       <c r="J13" s="53" t="s">
-        <v>3097</v>
+        <v>3087</v>
       </c>
       <c r="K13" s="55">
         <v>222</v>
@@ -26503,7 +26500,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="57" t="s">
-        <v>3111</v>
+        <v>3101</v>
       </c>
       <c r="F14" s="50"/>
       <c r="G14" s="51"/>
@@ -26515,10 +26512,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="57" t="s">
-        <v>3105</v>
+        <v>3095</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>2918</v>
+        <v>2908</v>
       </c>
       <c r="F15" s="50"/>
       <c r="G15" s="51"/>
@@ -26530,10 +26527,10 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1">
       <c r="B16" s="57" t="s">
-        <v>3107</v>
+        <v>3097</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>2918</v>
+        <v>2908</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="54"/>
@@ -26545,12 +26542,12 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="57" t="s">
-        <v>3108</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="57" t="s">
-        <v>3109</v>
+        <v>3099</v>
       </c>
       <c r="D19" s="57" t="s">
         <v>561</v>
@@ -26558,7 +26555,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="57" t="s">
-        <v>3110</v>
+        <v>3100</v>
       </c>
       <c r="D20" s="57" t="s">
         <v>526</v>
@@ -29737,7 +29734,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="A1" t="s">
-        <v>3113</v>
+        <v>3103</v>
       </c>
       <c r="F1" s="30"/>
       <c r="G1" s="31"/>
@@ -29752,7 +29749,7 @@
         <v>462</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>3098</v>
+        <v>3088</v>
       </c>
       <c r="G2" s="27" t="s">
         <v>415</v>
@@ -29771,10 +29768,10 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="B3" t="s">
-        <v>3114</v>
+        <v>3104</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>3099</v>
+        <v>3089</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>2023</v>
@@ -29782,7 +29779,7 @@
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="35" t="s">
-        <v>3120</v>
+        <v>3110</v>
       </c>
       <c r="K3" s="37" t="s">
         <v>419</v>
@@ -29794,7 +29791,7 @@
         <v>146</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>3121</v>
+        <v>3111</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>419</v>
@@ -29807,7 +29804,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="F5" s="33" t="s">
-        <v>3122</v>
+        <v>3112</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>419</v>
@@ -29830,7 +29827,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="35" t="s">
-        <v>3120</v>
+        <v>3110</v>
       </c>
       <c r="K6" s="37" t="s">
         <v>419</v>
@@ -29839,10 +29836,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>3115</v>
+        <v>3105</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>3123</v>
+        <v>3113</v>
       </c>
       <c r="G7" s="38" t="s">
         <v>1819</v>
@@ -29857,7 +29854,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>3116</v>
+        <v>3106</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="38" t="s">
@@ -29873,7 +29870,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>3117</v>
+        <v>3107</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="38" t="s">
@@ -29886,7 +29883,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>3118</v>
+        <v>3108</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="38" t="s">
@@ -29899,7 +29896,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>3119</v>
+        <v>3109</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="27"/>
@@ -29920,7 +29917,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" t="s">
-        <v>3127</v>
+        <v>3117</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="27"/>
@@ -29951,7 +29948,7 @@
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="35" t="s">
-        <v>3120</v>
+        <v>3110</v>
       </c>
       <c r="K15" s="37" t="s">
         <v>419</v>
@@ -29969,7 +29966,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1">
       <c r="A17" t="s">
-        <v>3124</v>
+        <v>3114</v>
       </c>
       <c r="E17" t="s">
         <v>419</v>
@@ -29984,10 +29981,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>3125</v>
+        <v>3115</v>
       </c>
       <c r="E18" t="s">
-        <v>3126</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1">
@@ -30004,7 +30001,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="B21" t="s">
-        <v>3128</v>
+        <v>3118</v>
       </c>
       <c r="C21" s="57">
         <v>0</v>
@@ -30042,7 +30039,7 @@
         <v>415</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>3120</v>
+        <v>3110</v>
       </c>
       <c r="K22" s="37" t="s">
         <v>419</v>
@@ -30084,20 +30081,20 @@
     </row>
     <row r="27" spans="1:12">
       <c r="B27" t="s">
-        <v>3129</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="C29" t="s">
-        <v>3130</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="B32" t="s">
-        <v>3131</v>
+        <v>3121</v>
       </c>
       <c r="F32" t="s">
-        <v>3133</v>
+        <v>3123</v>
       </c>
       <c r="G32" s="304">
         <v>0</v>
@@ -30106,7 +30103,7 @@
         <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>3134</v>
+        <v>3124</v>
       </c>
       <c r="K32" s="304">
         <v>0</v>
@@ -30117,10 +30114,10 @@
     </row>
     <row r="33" spans="2:12">
       <c r="B33" t="s">
-        <v>3132</v>
+        <v>3122</v>
       </c>
       <c r="F33" t="s">
-        <v>3137</v>
+        <v>3127</v>
       </c>
       <c r="G33" s="130">
         <v>1</v>
@@ -30143,7 +30140,7 @@
         <v>30</v>
       </c>
       <c r="J34" t="s">
-        <v>3136</v>
+        <v>3126</v>
       </c>
       <c r="K34" s="304">
         <v>2</v>
@@ -30182,17 +30179,17 @@
     </row>
     <row r="38" spans="2:12">
       <c r="F38" t="s">
-        <v>3135</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="39" spans="2:12">
       <c r="F39" t="s">
-        <v>3138</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="27" t="s">
-        <v>3119</v>
+        <v>3109</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
@@ -30205,7 +30202,7 @@
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="27" t="s">
-        <v>3123</v>
+        <v>3113</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>1819</v>
@@ -30215,7 +30212,7 @@
       </c>
       <c r="E42" s="27"/>
       <c r="F42" s="27" t="s">
-        <v>3139</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="43" spans="2:12">
@@ -30229,7 +30226,7 @@
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
       <c r="G43" t="s">
-        <v>3140</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="44" spans="2:12">
@@ -30252,37 +30249,37 @@
         <v>419</v>
       </c>
       <c r="F45" t="s">
-        <v>3141</v>
+        <v>3131</v>
       </c>
       <c r="G45" t="s">
-        <v>3142</v>
+        <v>3132</v>
       </c>
       <c r="J45" t="s">
-        <v>3149</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="46" spans="2:12">
       <c r="F46" t="s">
-        <v>3143</v>
+        <v>3133</v>
       </c>
       <c r="G46" t="s">
-        <v>3148</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="47" spans="2:12">
       <c r="F47" t="s">
-        <v>3144</v>
+        <v>3134</v>
       </c>
       <c r="G47" t="s">
-        <v>3146</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="48" spans="2:12">
       <c r="F48" t="s">
-        <v>3145</v>
+        <v>3135</v>
       </c>
       <c r="G48" t="s">
-        <v>3147</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="50" spans="2:13" ht="15.75" thickBot="1"/>
@@ -32921,7 +32918,7 @@
         <v>1135</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>3154</v>
+        <v>3144</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -32939,7 +32936,7 @@
         <v>1176</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>3155</v>
+        <v>3145</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
@@ -32956,7 +32953,7 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" t="s">
-        <v>3151</v>
+        <v>3141</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="27"/>
@@ -32972,7 +32969,7 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" t="s">
-        <v>3152</v>
+        <v>3142</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>551</v>
@@ -33016,7 +33013,7 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" t="s">
-        <v>3153</v>
+        <v>3143</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>712</v>
@@ -33077,10 +33074,10 @@
     </row>
     <row r="10" spans="1:14">
       <c r="D10" s="33" t="s">
-        <v>3164</v>
+        <v>3154</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>2869</v>
+        <v>2859</v>
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
@@ -33107,7 +33104,7 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="27"/>
@@ -33129,7 +33126,7 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" t="s">
-        <v>3161</v>
+        <v>3151</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="27"/>
@@ -33147,12 +33144,12 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" t="s">
-        <v>3162</v>
+        <v>3152</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27" t="s">
-        <v>2869</v>
+        <v>2859</v>
       </c>
       <c r="G14" s="46" t="s">
         <v>414</v>
@@ -33167,7 +33164,7 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" t="s">
-        <v>3163</v>
+        <v>3153</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="27"/>
@@ -33196,7 +33193,7 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1">
       <c r="A17" s="166" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="36"/>
@@ -33212,39 +33209,39 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="D19" t="s">
-        <v>3158</v>
+        <v>3148</v>
       </c>
       <c r="G19" t="s">
         <v>1134</v>
       </c>
       <c r="I19" t="s">
-        <v>3159</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="G20" t="s">
-        <v>3156</v>
+        <v>3146</v>
       </c>
       <c r="I20" t="s">
-        <v>3157</v>
+        <v>3147</v>
       </c>
       <c r="K20" t="s">
-        <v>3165</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" thickBot="1">
       <c r="K21" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="D22" s="30" t="s">
-        <v>3154</v>
+        <v>3144</v>
       </c>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
@@ -33259,10 +33256,10 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>3183</v>
+        <v>3173</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>3155</v>
+        <v>3145</v>
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
@@ -33279,7 +33276,7 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1">
       <c r="A24" t="s">
-        <v>3180</v>
+        <v>3170</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="27"/>
@@ -33295,7 +33292,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1">
       <c r="A25" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>551</v>
@@ -33317,7 +33314,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>3181</v>
+        <v>3171</v>
       </c>
       <c r="D26" s="33" t="s">
         <v>552</v>
@@ -33339,7 +33336,7 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1">
       <c r="A27" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="D27" s="33" t="s">
         <v>712</v>
@@ -33359,13 +33356,13 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1">
       <c r="A28" t="s">
-        <v>3171</v>
+        <v>3161</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>1143</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>3185</v>
+        <v>3175</v>
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
@@ -33379,7 +33376,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>3172</v>
+        <v>3162</v>
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="38"/>
@@ -33399,7 +33396,7 @@
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="38" t="s">
-        <v>3182</v>
+        <v>3172</v>
       </c>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
@@ -33413,7 +33410,7 @@
     </row>
     <row r="31" spans="1:14" ht="15.75" thickBot="1">
       <c r="A31" t="s">
-        <v>3173</v>
+        <v>3163</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="38"/>
@@ -33429,7 +33426,7 @@
     </row>
     <row r="32" spans="1:14" ht="15.75" thickBot="1">
       <c r="B32" s="56" t="s">
-        <v>3176</v>
+        <v>3166</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="38" t="s">
@@ -33451,7 +33448,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>3174</v>
+        <v>3164</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="38"/>
@@ -33461,7 +33458,7 @@
       <c r="I33" s="27"/>
       <c r="J33" s="33"/>
       <c r="K33" s="38" t="s">
-        <v>3185</v>
+        <v>3175</v>
       </c>
       <c r="L33" s="27"/>
       <c r="M33" s="34"/>
@@ -33469,7 +33466,7 @@
     </row>
     <row r="34" spans="1:14" ht="15.75" thickBot="1">
       <c r="B34" t="s">
-        <v>3177</v>
+        <v>3167</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="38"/>
@@ -33489,7 +33486,7 @@
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="38" t="s">
-        <v>2871</v>
+        <v>2861</v>
       </c>
       <c r="F35" s="311" t="s">
         <v>561</v>
@@ -33505,11 +33502,11 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>3175</v>
+        <v>3165</v>
       </c>
       <c r="D36" s="33"/>
       <c r="E36" s="27" t="s">
-        <v>3184</v>
+        <v>3174</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
@@ -33523,7 +33520,7 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" thickBot="1">
       <c r="B37" t="s">
-        <v>3178</v>
+        <v>3168</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="36"/>
@@ -33539,25 +33536,25 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>3174</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="B39" s="56" t="s">
-        <v>3179</v>
+        <v>3169</v>
       </c>
       <c r="E39" t="s">
-        <v>3186</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" thickBot="1">
       <c r="K41" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" thickBot="1">
       <c r="D42" s="30" t="s">
-        <v>3154</v>
+        <v>3144</v>
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
@@ -33572,7 +33569,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="D43" s="33" t="s">
-        <v>3155</v>
+        <v>3145</v>
       </c>
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
@@ -33589,7 +33586,7 @@
     </row>
     <row r="44" spans="1:14" ht="15.75" thickBot="1">
       <c r="A44" t="s">
-        <v>3180</v>
+        <v>3170</v>
       </c>
       <c r="D44" s="33"/>
       <c r="E44" s="27"/>
@@ -33605,7 +33602,7 @@
     </row>
     <row r="45" spans="1:14" ht="15.75" thickBot="1">
       <c r="A45" t="s">
-        <v>3187</v>
+        <v>3177</v>
       </c>
       <c r="D45" s="33"/>
       <c r="E45" s="38"/>
@@ -33623,7 +33620,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>3188</v>
+        <v>3178</v>
       </c>
       <c r="D46" s="33" t="s">
         <v>551</v>
@@ -38790,7 +38787,7 @@
     </row>
     <row r="1285" spans="1:12">
       <c r="A1285" t="s">
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="F1285" s="33"/>
       <c r="G1285" s="27"/>
@@ -38953,20 +38950,20 @@
         <v>1348</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>3192</v>
+        <v>3182</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>3193</v>
+        <v>3183</v>
       </c>
       <c r="E3" s="133" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>3191</v>
+        <v>3181</v>
       </c>
       <c r="G3" s="106"/>
       <c r="H3" s="106" t="s">
-        <v>3189</v>
+        <v>3179</v>
       </c>
       <c r="I3" s="106"/>
       <c r="J3" s="106"/>
@@ -38979,7 +38976,7 @@
     <row r="4" spans="1:15">
       <c r="A4" s="106"/>
       <c r="B4" s="106" t="s">
-        <v>3195</v>
+        <v>3185</v>
       </c>
       <c r="C4" s="106"/>
       <c r="D4" s="106"/>
@@ -38987,7 +38984,7 @@
       <c r="F4" s="106"/>
       <c r="G4" s="106"/>
       <c r="H4" s="312" t="s">
-        <v>3194</v>
+        <v>3184</v>
       </c>
       <c r="I4" s="106"/>
       <c r="J4" s="106"/>
@@ -39025,7 +39022,7 @@
       <c r="F6" s="106"/>
       <c r="G6" s="106"/>
       <c r="H6" s="133" t="s">
-        <v>3190</v>
+        <v>3180</v>
       </c>
       <c r="I6" s="106"/>
       <c r="J6" s="106"/>
@@ -39038,7 +39035,7 @@
     <row r="7" spans="1:15">
       <c r="A7" s="106"/>
       <c r="B7" s="106" t="s">
-        <v>3196</v>
+        <v>3186</v>
       </c>
       <c r="C7" s="106"/>
       <c r="D7" s="106"/>
@@ -39124,7 +39121,7 @@
       <c r="F11" s="133"/>
       <c r="G11" s="106"/>
       <c r="H11" s="106" t="s">
-        <v>3201</v>
+        <v>3191</v>
       </c>
       <c r="I11" s="106"/>
       <c r="J11" s="106"/>
@@ -39137,7 +39134,7 @@
     <row r="12" spans="1:15">
       <c r="A12" s="106"/>
       <c r="B12" s="106" t="s">
-        <v>3195</v>
+        <v>3185</v>
       </c>
       <c r="C12" s="106"/>
       <c r="D12" s="106"/>
@@ -39145,7 +39142,7 @@
       <c r="F12" s="106"/>
       <c r="G12" s="106"/>
       <c r="H12" s="133" t="s">
-        <v>3197</v>
+        <v>3187</v>
       </c>
       <c r="I12" s="106">
         <v>2</v>
@@ -39187,13 +39184,13 @@
       <c r="F14" s="106"/>
       <c r="G14" s="106"/>
       <c r="H14" s="133" t="s">
-        <v>3198</v>
+        <v>3188</v>
       </c>
       <c r="I14" s="106">
         <v>1</v>
       </c>
       <c r="J14" s="106" t="s">
-        <v>3200</v>
+        <v>3190</v>
       </c>
       <c r="K14" s="106"/>
       <c r="L14" s="106"/>
@@ -39204,7 +39201,7 @@
     <row r="15" spans="1:15">
       <c r="A15" s="106"/>
       <c r="B15" s="106" t="s">
-        <v>3196</v>
+        <v>3186</v>
       </c>
       <c r="C15" s="106"/>
       <c r="D15" s="106"/>
@@ -39233,7 +39230,7 @@
       <c r="F16" s="106"/>
       <c r="G16" s="106"/>
       <c r="H16" s="133" t="s">
-        <v>3199</v>
+        <v>3189</v>
       </c>
       <c r="I16" s="38">
         <v>5</v>
@@ -39452,7 +39449,7 @@
     <row r="29" spans="1:15">
       <c r="A29" s="106"/>
       <c r="B29" s="336" t="s">
-        <v>3202</v>
+        <v>3192</v>
       </c>
       <c r="C29" s="344"/>
       <c r="D29" s="337"/>
@@ -39466,7 +39463,7 @@
       <c r="J29" s="106"/>
       <c r="K29" s="106"/>
       <c r="L29" s="336" t="s">
-        <v>3203</v>
+        <v>3193</v>
       </c>
       <c r="M29" s="344"/>
       <c r="N29" s="337"/>
@@ -39493,20 +39490,20 @@
       <c r="A31" s="106"/>
       <c r="B31" s="84"/>
       <c r="C31" s="38" t="s">
-        <v>3210</v>
+        <v>3200</v>
       </c>
       <c r="D31" s="75"/>
       <c r="E31" s="106"/>
       <c r="F31" s="106"/>
       <c r="G31" s="84"/>
       <c r="H31" s="38" t="s">
-        <v>3204</v>
+        <v>3194</v>
       </c>
       <c r="I31" s="75"/>
       <c r="J31" s="106"/>
       <c r="K31" s="106"/>
       <c r="L31" s="345" t="s">
-        <v>3217</v>
+        <v>3207</v>
       </c>
       <c r="M31" s="38" t="s">
         <v>2643</v>
@@ -39540,10 +39537,10 @@
     <row r="33" spans="1:16">
       <c r="A33" s="106"/>
       <c r="B33" s="345" t="s">
-        <v>3217</v>
+        <v>3207</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>3214</v>
+        <v>3204</v>
       </c>
       <c r="D33" s="75"/>
       <c r="E33" s="106"/>
@@ -39557,7 +39554,7 @@
       <c r="K33" s="106"/>
       <c r="L33" s="346"/>
       <c r="M33" s="38" t="s">
-        <v>3205</v>
+        <v>3195</v>
       </c>
       <c r="N33" s="75"/>
       <c r="O33" s="106"/>
@@ -39566,7 +39563,7 @@
       <c r="A34" s="106"/>
       <c r="B34" s="346"/>
       <c r="C34" s="178" t="s">
-        <v>3213</v>
+        <v>3203</v>
       </c>
       <c r="D34" s="75"/>
       <c r="E34" s="106"/>
@@ -39580,7 +39577,7 @@
       <c r="K34" s="106"/>
       <c r="L34" s="346"/>
       <c r="M34" s="178" t="s">
-        <v>3212</v>
+        <v>3202</v>
       </c>
       <c r="N34" s="75"/>
       <c r="O34" s="106"/>
@@ -39589,7 +39586,7 @@
       <c r="A35" s="106"/>
       <c r="B35" s="347"/>
       <c r="C35" s="178" t="s">
-        <v>3210</v>
+        <v>3200</v>
       </c>
       <c r="D35" s="75"/>
       <c r="E35" s="106"/>
@@ -39603,7 +39600,7 @@
       <c r="K35" s="106"/>
       <c r="L35" s="346"/>
       <c r="M35" s="178" t="s">
-        <v>3213</v>
+        <v>3203</v>
       </c>
       <c r="N35" s="75"/>
       <c r="O35" s="106"/>
@@ -39626,7 +39623,7 @@
       <c r="K36" s="106"/>
       <c r="L36" s="347"/>
       <c r="M36" s="178" t="s">
-        <v>3210</v>
+        <v>3200</v>
       </c>
       <c r="N36" s="75"/>
       <c r="O36" s="106"/>
@@ -39635,7 +39632,7 @@
       <c r="A37" s="106"/>
       <c r="B37" s="84"/>
       <c r="C37" s="38" t="s">
-        <v>3214</v>
+        <v>3204</v>
       </c>
       <c r="D37" s="75"/>
       <c r="E37" s="106"/>
@@ -39658,7 +39655,7 @@
       <c r="A38" s="106"/>
       <c r="B38" s="84"/>
       <c r="C38" s="178" t="s">
-        <v>3213</v>
+        <v>3203</v>
       </c>
       <c r="D38" s="75"/>
       <c r="E38" s="106"/>
@@ -39672,7 +39669,7 @@
       <c r="K38" s="106"/>
       <c r="L38" s="84"/>
       <c r="M38" s="315" t="s">
-        <v>3212</v>
+        <v>3202</v>
       </c>
       <c r="N38" s="75"/>
       <c r="O38" s="106"/>
@@ -39681,7 +39678,7 @@
       <c r="A39" s="106"/>
       <c r="B39" s="84"/>
       <c r="C39" s="178" t="s">
-        <v>3210</v>
+        <v>3200</v>
       </c>
       <c r="D39" s="75"/>
       <c r="E39" s="106"/>
@@ -39695,7 +39692,7 @@
       <c r="K39" s="106"/>
       <c r="L39" s="84"/>
       <c r="M39" s="313" t="s">
-        <v>3211</v>
+        <v>3201</v>
       </c>
       <c r="N39" s="75"/>
       <c r="O39" s="106"/>
@@ -39743,7 +39740,7 @@
       <c r="K41" s="106"/>
       <c r="L41" s="84"/>
       <c r="M41" s="313" t="s">
-        <v>3215</v>
+        <v>3205</v>
       </c>
       <c r="N41" s="75"/>
       <c r="O41" s="106"/>
@@ -39762,7 +39759,7 @@
       <c r="K42" s="106"/>
       <c r="L42" s="84"/>
       <c r="M42" s="178" t="s">
-        <v>3211</v>
+        <v>3201</v>
       </c>
       <c r="N42" s="75"/>
       <c r="O42" s="106"/>
@@ -39781,7 +39778,7 @@
       <c r="K43" s="106"/>
       <c r="L43" s="84"/>
       <c r="M43" s="178" t="s">
-        <v>3213</v>
+        <v>3203</v>
       </c>
       <c r="N43" s="75"/>
       <c r="O43" s="106"/>
@@ -39792,19 +39789,19 @@
       <c r="C44" s="38"/>
       <c r="D44" s="75"/>
       <c r="E44" s="106" t="s">
-        <v>3206</v>
+        <v>3196</v>
       </c>
       <c r="F44" s="106"/>
       <c r="G44" s="84"/>
       <c r="H44" s="38"/>
       <c r="I44" s="75"/>
       <c r="J44" s="106" t="s">
-        <v>3207</v>
+        <v>3197</v>
       </c>
       <c r="K44" s="106"/>
       <c r="L44" s="84"/>
       <c r="M44" s="178" t="s">
-        <v>3210</v>
+        <v>3200</v>
       </c>
       <c r="N44" s="75"/>
       <c r="O44" s="106"/>
@@ -39823,7 +39820,7 @@
       <c r="K45" s="106"/>
       <c r="L45" s="85"/>
       <c r="M45" s="86" t="s">
-        <v>3216</v>
+        <v>3206</v>
       </c>
       <c r="N45" s="87"/>
       <c r="O45" s="106"/>
@@ -39837,7 +39834,7 @@
       <c r="F46" s="106"/>
       <c r="G46" s="106"/>
       <c r="H46" s="106" t="s">
-        <v>3218</v>
+        <v>3208</v>
       </c>
       <c r="I46" s="106"/>
       <c r="J46" s="106"/>
@@ -39854,15 +39851,15 @@
       <c r="D47" s="106"/>
       <c r="E47" s="106"/>
       <c r="F47" s="106" t="s">
-        <v>3219</v>
+        <v>3209</v>
       </c>
       <c r="G47" s="106"/>
       <c r="H47" s="106" t="s">
-        <v>3208</v>
+        <v>3198</v>
       </c>
       <c r="I47" s="106"/>
       <c r="J47" s="106" t="s">
-        <v>3209</v>
+        <v>3199</v>
       </c>
       <c r="K47" s="106"/>
       <c r="L47" s="106"/>
@@ -39877,7 +39874,7 @@
       <c r="D48" s="106"/>
       <c r="E48" s="106"/>
       <c r="F48" s="106" t="s">
-        <v>3220</v>
+        <v>3210</v>
       </c>
       <c r="G48" s="106"/>
       <c r="H48" s="106"/>
@@ -42186,7 +42183,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>3221</v>
+        <v>3211</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -42214,10 +42211,10 @@
         <v>2681</v>
       </c>
       <c r="M1" t="s">
-        <v>3226</v>
+        <v>3216</v>
       </c>
       <c r="N1" t="s">
-        <v>3227</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -42282,7 +42279,7 @@
         <v>561</v>
       </c>
       <c r="I4" t="s">
-        <v>3251</v>
+        <v>3241</v>
       </c>
       <c r="M4" s="310" t="s">
         <v>561</v>
@@ -42292,88 +42289,88 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="B5" s="348" t="s">
-        <v>3222</v>
-      </c>
-      <c r="C5" s="348"/>
-      <c r="F5" s="348" t="s">
-        <v>3223</v>
-      </c>
-      <c r="G5" s="348"/>
+      <c r="B5" s="349" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C5" s="349"/>
+      <c r="F5" s="349" t="s">
+        <v>3213</v>
+      </c>
+      <c r="G5" s="349"/>
       <c r="H5" s="38" t="s">
         <v>636</v>
       </c>
-      <c r="I5" s="348" t="s">
-        <v>3223</v>
-      </c>
-      <c r="J5" s="348"/>
-      <c r="M5" s="348" t="s">
-        <v>3223</v>
-      </c>
-      <c r="N5" s="348"/>
+      <c r="I5" s="349" t="s">
+        <v>3213</v>
+      </c>
+      <c r="J5" s="349"/>
+      <c r="M5" s="349" t="s">
+        <v>3213</v>
+      </c>
+      <c r="N5" s="349"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="B6" s="348" t="s">
-        <v>3224</v>
-      </c>
-      <c r="C6" s="348"/>
-      <c r="F6" s="348" t="s">
-        <v>3224</v>
-      </c>
-      <c r="G6" s="348"/>
-      <c r="I6" s="348" t="s">
+      <c r="B6" s="349" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C6" s="349"/>
+      <c r="F6" s="349" t="s">
+        <v>3214</v>
+      </c>
+      <c r="G6" s="349"/>
+      <c r="I6" s="349" t="s">
         <v>1534</v>
       </c>
-      <c r="J6" s="348"/>
-      <c r="M6" s="348" t="s">
-        <v>3225</v>
-      </c>
-      <c r="N6" s="348"/>
+      <c r="J6" s="349"/>
+      <c r="M6" s="349" t="s">
+        <v>3215</v>
+      </c>
+      <c r="N6" s="349"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="M7" s="348" t="s">
-        <v>3228</v>
-      </c>
-      <c r="N7" s="348"/>
+      <c r="M7" s="349" t="s">
+        <v>3218</v>
+      </c>
+      <c r="N7" s="349"/>
     </row>
     <row r="8" spans="1:15">
       <c r="E8" t="s">
-        <v>3275</v>
+        <v>3265</v>
       </c>
       <c r="L8" t="s">
-        <v>3276</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="F9" s="349" t="s">
-        <v>3229</v>
-      </c>
-      <c r="G9" s="349"/>
-      <c r="H9" s="349"/>
-      <c r="I9" s="349"/>
-      <c r="J9" s="349"/>
-      <c r="K9" s="349"/>
-      <c r="L9" s="349"/>
-      <c r="M9" s="349"/>
-      <c r="N9" s="349"/>
+      <c r="F9" s="350" t="s">
+        <v>3219</v>
+      </c>
+      <c r="G9" s="350"/>
+      <c r="H9" s="350"/>
+      <c r="I9" s="350"/>
+      <c r="J9" s="350"/>
+      <c r="K9" s="350"/>
+      <c r="L9" s="350"/>
+      <c r="M9" s="350"/>
+      <c r="N9" s="350"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>3230</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="D11" t="s">
-        <v>3231</v>
+        <v>3221</v>
       </c>
       <c r="G11" t="s">
-        <v>3232</v>
+        <v>3222</v>
       </c>
       <c r="J11" t="s">
-        <v>3233</v>
+        <v>3223</v>
       </c>
       <c r="M11" t="s">
-        <v>3234</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -42488,10 +42485,10 @@
     </row>
     <row r="16" spans="1:15">
       <c r="B16" t="s">
-        <v>3236</v>
+        <v>3226</v>
       </c>
       <c r="F16" t="s">
-        <v>3237</v>
+        <v>3227</v>
       </c>
       <c r="N16">
         <v>4</v>
@@ -42566,7 +42563,7 @@
         <v>1028</v>
       </c>
       <c r="M18" s="56" t="s">
-        <v>3235</v>
+        <v>3225</v>
       </c>
       <c r="V18" t="s">
         <v>2671</v>
@@ -42674,7 +42671,7 @@
       </c>
       <c r="I22" s="43"/>
       <c r="J22" s="56" t="s">
-        <v>3238</v>
+        <v>3228</v>
       </c>
       <c r="T22">
         <v>2</v>
@@ -42709,7 +42706,7 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" t="s">
-        <v>3239</v>
+        <v>3229</v>
       </c>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
@@ -42721,7 +42718,7 @@
     </row>
     <row r="25" spans="1:33">
       <c r="G25" t="s">
-        <v>3240</v>
+        <v>3230</v>
       </c>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
@@ -42737,7 +42734,7 @@
     </row>
     <row r="26" spans="1:33" ht="15.75" thickBot="1">
       <c r="G26" s="43" t="s">
-        <v>3241</v>
+        <v>3231</v>
       </c>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
@@ -42758,7 +42755,7 @@
         <v>2011</v>
       </c>
       <c r="G27" s="43" t="s">
-        <v>3242</v>
+        <v>3232</v>
       </c>
       <c r="I27" s="26" t="s">
         <v>2012</v>
@@ -42785,29 +42782,29 @@
     <row r="28" spans="1:33">
       <c r="E28" s="317"/>
       <c r="G28" s="162" t="s">
-        <v>3243</v>
+        <v>3233</v>
       </c>
       <c r="I28" s="317"/>
       <c r="K28" s="317"/>
     </row>
     <row r="29" spans="1:33">
       <c r="E29" s="317" t="s">
-        <v>3243</v>
+        <v>3233</v>
       </c>
       <c r="G29" s="43" t="s">
-        <v>3244</v>
+        <v>3234</v>
       </c>
       <c r="I29" s="317" t="s">
-        <v>3243</v>
+        <v>3233</v>
       </c>
       <c r="K29" s="317" t="s">
-        <v>3243</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="15.75" thickBot="1">
       <c r="E30" s="215"/>
       <c r="G30" s="43" t="s">
-        <v>3245</v>
+        <v>3235</v>
       </c>
       <c r="I30" s="215"/>
       <c r="K30" s="215"/>
@@ -42842,7 +42839,7 @@
     </row>
     <row r="32" spans="1:33">
       <c r="E32" t="s">
-        <v>3246</v>
+        <v>3236</v>
       </c>
       <c r="G32" t="s">
         <v>1355</v>
@@ -42919,7 +42916,7 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" t="s">
-        <v>3247</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -42950,7 +42947,7 @@
         <v>561</v>
       </c>
       <c r="G36" t="s">
-        <v>3249</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -42986,7 +42983,7 @@
         <v>999999</v>
       </c>
       <c r="C39" s="162" t="s">
-        <v>3248</v>
+        <v>3238</v>
       </c>
       <c r="E39">
         <v>999999</v>
@@ -43003,7 +43000,7 @@
         <v>1000000</v>
       </c>
       <c r="F40" s="162" t="s">
-        <v>3248</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="44" spans="1:33" ht="15.75" thickBot="1">
@@ -43214,11 +43211,11 @@
       </c>
       <c r="B55" s="318"/>
       <c r="C55" s="199" t="s">
-        <v>3250</v>
+        <v>3240</v>
       </c>
       <c r="D55" s="318"/>
       <c r="E55" s="199" t="s">
-        <v>3250</v>
+        <v>3240</v>
       </c>
       <c r="F55" s="318"/>
       <c r="G55" s="318" t="s">
@@ -43270,7 +43267,7 @@
         <v>2055</v>
       </c>
       <c r="D59" t="s">
-        <v>3250</v>
+        <v>3240</v>
       </c>
       <c r="E59" t="s">
         <v>1423</v>
@@ -43310,10 +43307,10 @@
       </c>
     </row>
     <row r="66" spans="3:17">
-      <c r="C66" s="351" t="s">
-        <v>3280</v>
-      </c>
-      <c r="D66" s="351"/>
+      <c r="C66" s="348" t="s">
+        <v>3270</v>
+      </c>
+      <c r="D66" s="348"/>
       <c r="J66" t="s">
         <v>1533</v>
       </c>
@@ -43344,13 +43341,13 @@
         <v>50</v>
       </c>
       <c r="G68" t="s">
-        <v>3277</v>
+        <v>3267</v>
       </c>
       <c r="J68" s="43" t="s">
         <v>526</v>
       </c>
       <c r="L68" t="s">
-        <v>3282</v>
+        <v>3272</v>
       </c>
       <c r="Q68" s="131" t="s">
         <v>1440</v>
@@ -43396,10 +43393,10 @@
         <v>51</v>
       </c>
       <c r="G72" t="s">
-        <v>3278</v>
+        <v>3268</v>
       </c>
       <c r="J72" t="s">
-        <v>3281</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="73" spans="3:17">
@@ -43409,14 +43406,14 @@
         <v>368</v>
       </c>
       <c r="M73" t="s">
-        <v>3285</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="74" spans="3:17">
       <c r="C74" s="43"/>
       <c r="D74" s="43"/>
       <c r="K74" t="s">
-        <v>3284</v>
+        <v>3274</v>
       </c>
       <c r="N74" t="s">
         <v>414</v>
@@ -43433,10 +43430,10 @@
         <v>122</v>
       </c>
       <c r="G75" t="s">
-        <v>3279</v>
+        <v>3269</v>
       </c>
       <c r="K75" t="s">
-        <v>3283</v>
+        <v>3273</v>
       </c>
       <c r="N75">
         <v>23</v>
@@ -43455,15 +43452,15 @@
     </row>
     <row r="80" spans="3:17">
       <c r="F80" t="s">
-        <v>3286</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="82" spans="2:14">
       <c r="D82" t="s">
-        <v>3288</v>
+        <v>3278</v>
       </c>
       <c r="F82" t="s">
-        <v>3287</v>
+        <v>3277</v>
       </c>
       <c r="H82" t="s">
         <v>1655</v>
@@ -43479,20 +43476,20 @@
     </row>
     <row r="85" spans="2:14">
       <c r="B85" t="s">
-        <v>3289</v>
+        <v>3279</v>
       </c>
       <c r="C85" t="s">
-        <v>3290</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="88" spans="2:14">
       <c r="C88" t="s">
-        <v>3292</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="89" spans="2:14">
       <c r="C89" t="s">
-        <v>3291</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="91" spans="2:14" ht="15.75" thickBot="1"/>
@@ -43514,7 +43511,7 @@
       <c r="E93" s="39"/>
       <c r="F93" s="41"/>
       <c r="G93" t="s">
-        <v>3295</v>
+        <v>3285</v>
       </c>
       <c r="K93" s="33"/>
       <c r="L93" s="27"/>
@@ -43524,22 +43521,22 @@
     <row r="94" spans="2:14">
       <c r="C94" s="80"/>
       <c r="D94" s="39" t="s">
-        <v>3293</v>
+        <v>3283</v>
       </c>
       <c r="E94" s="39" t="s">
-        <v>3298</v>
+        <v>3288</v>
       </c>
       <c r="F94" s="41" t="s">
-        <v>3296</v>
+        <v>3286</v>
       </c>
       <c r="G94" t="s">
-        <v>3294</v>
+        <v>3284</v>
       </c>
       <c r="K94" s="33" t="s">
-        <v>3297</v>
+        <v>3287</v>
       </c>
       <c r="L94" s="27" t="s">
-        <v>3299</v>
+        <v>3289</v>
       </c>
       <c r="M94" s="27"/>
       <c r="N94" s="34"/>
@@ -43569,7 +43566,7 @@
       <c r="C98" s="30"/>
       <c r="D98" s="31"/>
       <c r="E98" s="31" t="s">
-        <v>3300</v>
+        <v>3290</v>
       </c>
       <c r="F98" s="32"/>
       <c r="K98" s="30" t="s">
@@ -43583,13 +43580,13 @@
       <c r="C99" s="33"/>
       <c r="D99" s="27"/>
       <c r="E99" s="27" t="s">
-        <v>3301</v>
+        <v>3291</v>
       </c>
       <c r="F99" s="34" t="s">
-        <v>3299</v>
+        <v>3289</v>
       </c>
       <c r="G99" t="s">
-        <v>3304</v>
+        <v>3294</v>
       </c>
       <c r="K99" s="33"/>
       <c r="L99" s="27"/>
@@ -43600,19 +43597,19 @@
       <c r="C100" s="35"/>
       <c r="D100" s="36"/>
       <c r="E100" s="36" t="s">
-        <v>3302</v>
+        <v>3292</v>
       </c>
       <c r="F100" s="37" t="s">
-        <v>3297</v>
+        <v>3287</v>
       </c>
       <c r="G100" t="s">
-        <v>3303</v>
+        <v>3293</v>
       </c>
       <c r="K100" s="33" t="s">
-        <v>3296</v>
+        <v>3286</v>
       </c>
       <c r="L100" s="27" t="s">
-        <v>3298</v>
+        <v>3288</v>
       </c>
       <c r="M100" s="27"/>
       <c r="N100" s="34"/>
@@ -45711,7 +45708,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>3252</v>
+        <v>3242</v>
       </c>
       <c r="E1" s="121" t="s">
         <v>551</v>
@@ -45735,7 +45732,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>3253</v>
+        <v>3243</v>
       </c>
       <c r="E2" s="188" t="s">
         <v>552</v>
@@ -45757,7 +45754,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>3254</v>
+        <v>3244</v>
       </c>
       <c r="E3" s="188" t="s">
         <v>712</v>
@@ -45775,7 +45772,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>3255</v>
+        <v>3245</v>
       </c>
       <c r="E4" s="188" t="s">
         <v>1143</v>
@@ -45799,7 +45796,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>3256</v>
+        <v>3246</v>
       </c>
       <c r="E5" s="188" t="s">
         <v>2224</v>
@@ -45816,12 +45813,12 @@
         <v>60</v>
       </c>
       <c r="M5" s="325" t="s">
-        <v>3259</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>3257</v>
+        <v>3247</v>
       </c>
       <c r="E6" s="188"/>
       <c r="F6" s="27"/>
@@ -45868,7 +45865,7 @@
         <v>60</v>
       </c>
       <c r="M8" s="325" t="s">
-        <v>3260</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -45890,7 +45887,7 @@
         <v>2694</v>
       </c>
       <c r="C10" t="s">
-        <v>3261</v>
+        <v>3251</v>
       </c>
       <c r="E10" s="188"/>
       <c r="F10" s="27"/>
@@ -45910,7 +45907,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>3258</v>
+        <v>3248</v>
       </c>
       <c r="E11" s="188"/>
       <c r="F11" s="27" t="s">
@@ -45925,12 +45922,12 @@
         <v>60</v>
       </c>
       <c r="M11" s="325" t="s">
-        <v>3261</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="168" t="s">
-        <v>3269</v>
+        <v>3259</v>
       </c>
       <c r="E12" s="188" t="s">
         <v>2521</v>
@@ -45939,13 +45936,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>3271</v>
+        <v>3261</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>3273</v>
+        <v>3263</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>3274</v>
+        <v>3264</v>
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="117"/>
@@ -45954,14 +45951,14 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>3264</v>
+        <v>3254</v>
       </c>
       <c r="E13" s="188"/>
       <c r="F13" s="134">
         <v>2</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>3272</v>
+        <v>3262</v>
       </c>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
@@ -46010,7 +46007,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>3265</v>
+        <v>3255</v>
       </c>
       <c r="E16" s="188"/>
       <c r="F16" s="27"/>
@@ -46024,7 +46021,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="B17" t="s">
-        <v>3266</v>
+        <v>3256</v>
       </c>
       <c r="E17" s="123"/>
       <c r="F17" s="259"/>
@@ -46038,7 +46035,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="B18" t="s">
-        <v>3267</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -46051,12 +46048,12 @@
         <v>139</v>
       </c>
       <c r="E20" s="168" t="s">
-        <v>3270</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="C21" t="s">
-        <v>3268</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -47002,11 +46999,11 @@
       <c r="L6" s="43" t="s">
         <v>1598</v>
       </c>
-      <c r="M6" s="350" t="s">
+      <c r="M6" s="351" t="s">
         <v>1599</v>
       </c>
-      <c r="N6" s="350"/>
-      <c r="O6" s="350"/>
+      <c r="N6" s="351"/>
+      <c r="O6" s="351"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -47776,7 +47773,7 @@
     <row r="99" spans="3:16">
       <c r="C99" s="43"/>
       <c r="D99" s="43" t="s">
-        <v>3305</v>
+        <v>3295</v>
       </c>
       <c r="E99" s="43"/>
       <c r="F99" s="43"/>
@@ -47817,7 +47814,7 @@
       <c r="M103" s="43"/>
       <c r="N103" s="43"/>
       <c r="O103" s="43" t="s">
-        <v>3306</v>
+        <v>3296</v>
       </c>
       <c r="P103" s="43"/>
     </row>
@@ -47843,7 +47840,7 @@
       <c r="E106" s="27"/>
       <c r="F106" s="34"/>
       <c r="I106" t="s">
-        <v>3313</v>
+        <v>3303</v>
       </c>
       <c r="M106" s="33"/>
       <c r="N106" s="27"/>
@@ -47862,7 +47859,7 @@
     </row>
     <row r="108" spans="3:16">
       <c r="D108" t="s">
-        <v>3308</v>
+        <v>3298</v>
       </c>
       <c r="G108" s="29"/>
       <c r="H108" s="29"/>
@@ -47871,15 +47868,15 @@
       <c r="K108" s="29"/>
       <c r="L108" s="29"/>
       <c r="N108" t="s">
-        <v>3309</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="109" spans="3:16">
       <c r="G109" t="s">
-        <v>3310</v>
+        <v>3300</v>
       </c>
       <c r="I109" t="s">
-        <v>3311</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="110" spans="3:16">
@@ -47893,7 +47890,7 @@
     <row r="111" spans="3:16">
       <c r="E111" s="43"/>
       <c r="F111" s="43" t="s">
-        <v>3307</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="112" spans="3:16">
@@ -47914,7 +47911,7 @@
         <v>1618</v>
       </c>
       <c r="I115" t="s">
-        <v>3312</v>
+        <v>3302</v>
       </c>
     </row>
   </sheetData>
@@ -48762,29 +48759,29 @@
     </row>
     <row r="139" spans="2:16">
       <c r="D139" t="s">
-        <v>2767</v>
+        <v>2757</v>
       </c>
       <c r="J139" t="s">
-        <v>2768</v>
+        <v>2758</v>
       </c>
       <c r="P139" t="s">
-        <v>2769</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="141" spans="2:16">
       <c r="D141" t="s">
-        <v>2752</v>
+        <v>2742</v>
       </c>
       <c r="J141" t="s">
-        <v>2752</v>
+        <v>2742</v>
       </c>
       <c r="P141" t="s">
-        <v>2752</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="142" spans="2:16">
       <c r="D142" t="s">
-        <v>2753</v>
+        <v>2743</v>
       </c>
       <c r="J142" t="s">
         <v>2307</v>
@@ -48795,7 +48792,7 @@
     </row>
     <row r="143" spans="2:16">
       <c r="D143" t="s">
-        <v>2759</v>
+        <v>2749</v>
       </c>
       <c r="G143" t="s">
         <v>1908</v>
@@ -48808,28 +48805,28 @@
     </row>
     <row r="145" spans="2:19">
       <c r="B145" t="s">
-        <v>2760</v>
+        <v>2750</v>
       </c>
       <c r="D145" t="s">
-        <v>2763</v>
+        <v>2753</v>
       </c>
       <c r="G145" t="s">
         <v>1675</v>
       </c>
       <c r="J145" t="s">
-        <v>2763</v>
+        <v>2753</v>
       </c>
       <c r="P145" t="s">
-        <v>2763</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="148" spans="2:19">
       <c r="D148" s="199" t="s">
-        <v>2761</v>
+        <v>2751</v>
       </c>
       <c r="E148" s="29"/>
       <c r="J148" s="199" t="s">
-        <v>2762</v>
+        <v>2752</v>
       </c>
       <c r="K148" s="199"/>
       <c r="P148" s="199" t="s">
@@ -48839,10 +48836,10 @@
     </row>
     <row r="150" spans="2:19">
       <c r="D150" t="s">
-        <v>2764</v>
+        <v>2754</v>
       </c>
       <c r="J150" t="s">
-        <v>2765</v>
+        <v>2755</v>
       </c>
       <c r="P150" t="s">
         <v>1910</v>
@@ -48850,19 +48847,19 @@
     </row>
     <row r="151" spans="2:19">
       <c r="D151" s="108" t="s">
-        <v>2766</v>
+        <v>2756</v>
       </c>
       <c r="E151" s="108"/>
       <c r="F151" s="108"/>
       <c r="G151" s="108"/>
       <c r="J151" s="108" t="s">
-        <v>2766</v>
+        <v>2756</v>
       </c>
       <c r="K151" s="108"/>
       <c r="L151" s="108"/>
       <c r="M151" s="108"/>
       <c r="P151" s="108" t="s">
-        <v>2766</v>
+        <v>2756</v>
       </c>
       <c r="Q151" s="108"/>
       <c r="R151" s="108"/>
@@ -48873,15 +48870,15 @@
         <v>1890</v>
       </c>
       <c r="C153" t="s">
-        <v>2754</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="154" spans="2:19">
       <c r="B154" t="s">
-        <v>2755</v>
+        <v>2745</v>
       </c>
       <c r="D154" t="s">
-        <v>2756</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="155" spans="2:19">
@@ -48889,7 +48886,7 @@
         <v>44</v>
       </c>
       <c r="D155" t="s">
-        <v>2757</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="156" spans="2:19">
@@ -48897,7 +48894,7 @@
         <v>45</v>
       </c>
       <c r="D156" t="s">
-        <v>2758</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="207" spans="4:11">
@@ -48954,20 +48951,20 @@
     </row>
     <row r="209" spans="4:15">
       <c r="D209" s="134" t="s">
-        <v>2747</v>
+        <v>2737</v>
       </c>
       <c r="E209" s="134" t="s">
-        <v>2746</v>
+        <v>2736</v>
       </c>
       <c r="F209" s="134"/>
       <c r="G209" s="134"/>
       <c r="H209" s="134"/>
       <c r="I209" s="134"/>
       <c r="J209" s="134" t="s">
-        <v>2747</v>
+        <v>2737</v>
       </c>
       <c r="K209" s="134" t="s">
-        <v>2746</v>
+        <v>2736</v>
       </c>
       <c r="N209">
         <v>1</v>
@@ -49038,7 +49035,7 @@
         <v>0</v>
       </c>
       <c r="M212" t="s">
-        <v>3034</v>
+        <v>3024</v>
       </c>
       <c r="N212" s="74">
         <v>8</v>
@@ -49058,7 +49055,7 @@
         <v>0</v>
       </c>
       <c r="M213" t="s">
-        <v>3035</v>
+        <v>3025</v>
       </c>
       <c r="N213" s="74">
         <v>14</v>
@@ -49078,7 +49075,7 @@
         <v>0</v>
       </c>
       <c r="M214" t="s">
-        <v>3036</v>
+        <v>3026</v>
       </c>
       <c r="N214" s="74">
         <v>6</v>
@@ -49086,7 +49083,7 @@
     </row>
     <row r="217" spans="4:15">
       <c r="N217" t="s">
-        <v>3037</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="246" spans="3:14" ht="15.75" thickBot="1"/>
@@ -49696,28 +49693,28 @@
     </row>
     <row r="184" spans="3:14">
       <c r="C184" t="s">
-        <v>2770</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="185" spans="3:14">
       <c r="D185" t="s">
-        <v>2771</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="186" spans="3:14">
       <c r="D186" t="s">
-        <v>2772</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="187" spans="3:14">
       <c r="D187" t="s">
-        <v>2773</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="188" spans="3:14" ht="15.75" thickBot="1"/>
     <row r="189" spans="3:14">
       <c r="C189" s="30" t="s">
-        <v>2770</v>
+        <v>2760</v>
       </c>
       <c r="D189" s="31"/>
       <c r="E189" s="32"/>
@@ -49745,7 +49742,7 @@
         <v>189</v>
       </c>
       <c r="J190" s="34" t="s">
-        <v>2776</v>
+        <v>2766</v>
       </c>
       <c r="L190" s="33"/>
       <c r="M190" s="27" t="s">
@@ -49761,7 +49758,7 @@
         <v>2350</v>
       </c>
       <c r="E191" s="34" t="s">
-        <v>2777</v>
+        <v>2767</v>
       </c>
       <c r="H191" s="33"/>
       <c r="I191" s="27" t="s">
@@ -49775,7 +49772,7 @@
         <v>179</v>
       </c>
       <c r="N191" s="34" t="s">
-        <v>2778</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="192" spans="3:14">
@@ -49784,7 +49781,7 @@
         <v>190</v>
       </c>
       <c r="E192" s="34" t="s">
-        <v>2774</v>
+        <v>2764</v>
       </c>
       <c r="F192" t="s">
         <v>2358</v>
@@ -49801,16 +49798,16 @@
         <v>189</v>
       </c>
       <c r="N192" s="34" t="s">
-        <v>2779</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="193" spans="3:14">
       <c r="C193" s="33"/>
       <c r="D193" s="38" t="s">
-        <v>2781</v>
+        <v>2771</v>
       </c>
       <c r="E193" s="34" t="s">
-        <v>2775</v>
+        <v>2765</v>
       </c>
       <c r="H193" s="33"/>
       <c r="I193" s="38" t="s">
@@ -49824,7 +49821,7 @@
         <v>189</v>
       </c>
       <c r="N193" s="34" t="s">
-        <v>2780</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="194" spans="3:14">
@@ -49878,7 +49875,7 @@
     <row r="199" spans="3:14" ht="15.75" thickBot="1"/>
     <row r="200" spans="3:14">
       <c r="C200" s="30" t="s">
-        <v>2784</v>
+        <v>2774</v>
       </c>
       <c r="D200" s="31"/>
       <c r="E200" s="32"/>
@@ -49894,14 +49891,14 @@
       <c r="C202" s="33"/>
       <c r="D202" s="38"/>
       <c r="E202" s="34" t="s">
-        <v>2785</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="203" spans="3:14">
       <c r="C203" s="33"/>
       <c r="D203" s="27"/>
       <c r="E203" s="34" t="s">
-        <v>2786</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="204" spans="3:14">
@@ -49931,37 +49928,37 @@
     </row>
     <row r="211" spans="2:15">
       <c r="B211" t="s">
-        <v>2789</v>
+        <v>2779</v>
       </c>
       <c r="C211" t="s">
-        <v>2790</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="212" spans="2:15">
       <c r="E212" t="s">
-        <v>2767</v>
+        <v>2757</v>
       </c>
       <c r="J212" t="s">
-        <v>2768</v>
+        <v>2758</v>
       </c>
       <c r="O212" t="s">
-        <v>2769</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="213" spans="2:15">
       <c r="E213" t="s">
-        <v>2753</v>
+        <v>2743</v>
       </c>
       <c r="J213" t="s">
-        <v>2787</v>
+        <v>2777</v>
       </c>
       <c r="O213" t="s">
-        <v>2788</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="214" spans="2:15">
       <c r="E214" t="s">
-        <v>2752</v>
+        <v>2742</v>
       </c>
       <c r="J214" t="s">
         <v>1463</v>
@@ -49975,44 +49972,44 @@
         <v>1908</v>
       </c>
       <c r="E215" t="s">
-        <v>2798</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="217" spans="2:15">
       <c r="E217" s="257" t="s">
-        <v>2793</v>
+        <v>2783</v>
       </c>
       <c r="F217" s="257"/>
     </row>
     <row r="218" spans="2:15">
       <c r="B218" t="s">
-        <v>2760</v>
+        <v>2750</v>
       </c>
       <c r="D218" t="s">
         <v>1675</v>
       </c>
       <c r="E218" t="s">
-        <v>2799</v>
+        <v>2789</v>
       </c>
       <c r="I218" t="s">
         <v>1675</v>
       </c>
       <c r="J218" t="s">
-        <v>2799</v>
+        <v>2789</v>
       </c>
       <c r="N218" t="s">
         <v>1675</v>
       </c>
       <c r="O218" t="s">
-        <v>2799</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="221" spans="2:15">
       <c r="B221" t="s">
-        <v>2800</v>
+        <v>2790</v>
       </c>
       <c r="E221" s="257" t="s">
-        <v>2761</v>
+        <v>2751</v>
       </c>
       <c r="F221" s="257"/>
       <c r="J221" s="257" t="s">
@@ -50024,7 +50021,7 @@
     </row>
     <row r="222" spans="2:15">
       <c r="E222" t="s">
-        <v>2796</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="223" spans="2:15">
@@ -50032,7 +50029,7 @@
         <v>1909</v>
       </c>
       <c r="J223" t="s">
-        <v>2797</v>
+        <v>2787</v>
       </c>
       <c r="O223" t="s">
         <v>1910</v>
@@ -50040,22 +50037,22 @@
     </row>
     <row r="225" spans="2:12">
       <c r="B225" t="s">
-        <v>2791</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="226" spans="2:12">
       <c r="B226" t="s">
-        <v>2792</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="227" spans="2:12">
       <c r="B227" t="s">
-        <v>2794</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="228" spans="2:12">
       <c r="B228" t="s">
-        <v>2795</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="230" spans="2:12">
@@ -50065,34 +50062,34 @@
     </row>
     <row r="231" spans="2:12">
       <c r="E231" t="s">
-        <v>2801</v>
+        <v>2791</v>
       </c>
       <c r="J231" t="s">
-        <v>2770</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="232" spans="2:12">
       <c r="E232" t="s">
-        <v>2802</v>
+        <v>2792</v>
       </c>
       <c r="K232" t="s">
-        <v>2807</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="233" spans="2:12">
       <c r="E233" t="s">
-        <v>2803</v>
+        <v>2793</v>
       </c>
       <c r="K233" t="s">
-        <v>2808</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="234" spans="2:12">
       <c r="E234" t="s">
-        <v>2804</v>
+        <v>2794</v>
       </c>
       <c r="K234" t="s">
-        <v>2809</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="236" spans="2:12">
@@ -50102,17 +50099,17 @@
     </row>
     <row r="237" spans="2:12">
       <c r="E237" t="s">
-        <v>2805</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="238" spans="2:12">
       <c r="E238" t="s">
-        <v>2806</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="240" spans="2:12">
       <c r="B240" s="121" t="s">
-        <v>2770</v>
+        <v>2760</v>
       </c>
       <c r="C240" s="258"/>
       <c r="D240" s="122"/>
@@ -50140,7 +50137,7 @@
         <v>182</v>
       </c>
       <c r="H241" s="76" t="s">
-        <v>2813</v>
+        <v>2803</v>
       </c>
       <c r="J241" s="188"/>
       <c r="K241" s="27" t="s">
@@ -50156,21 +50153,21 @@
         <v>190</v>
       </c>
       <c r="D242" s="76" t="s">
-        <v>2774</v>
+        <v>2764</v>
       </c>
       <c r="F242" s="188"/>
       <c r="G242" s="27" t="s">
         <v>186</v>
       </c>
       <c r="H242" s="76" t="s">
-        <v>2814</v>
+        <v>2804</v>
       </c>
       <c r="J242" s="188"/>
       <c r="K242" s="27" t="s">
         <v>179</v>
       </c>
       <c r="L242" s="76" t="s">
-        <v>2815</v>
+        <v>2805</v>
       </c>
       <c r="M242" s="40"/>
       <c r="N242">
@@ -50183,7 +50180,7 @@
         <v>182</v>
       </c>
       <c r="D243" s="76" t="s">
-        <v>2810</v>
+        <v>2800</v>
       </c>
       <c r="F243" s="188"/>
       <c r="G243" s="27" t="s">
@@ -50197,7 +50194,7 @@
         <v>189</v>
       </c>
       <c r="L243" s="76" t="s">
-        <v>2779</v>
+        <v>2769</v>
       </c>
       <c r="N243">
         <v>32767</v>
@@ -50209,7 +50206,7 @@
         <v>188</v>
       </c>
       <c r="D244" s="76" t="s">
-        <v>2811</v>
+        <v>2801</v>
       </c>
       <c r="F244" s="188"/>
       <c r="G244" s="38" t="s">
@@ -50223,7 +50220,7 @@
         <v>189</v>
       </c>
       <c r="L244" s="76" t="s">
-        <v>2780</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -50232,7 +50229,7 @@
         <v>2350</v>
       </c>
       <c r="D245" s="76" t="s">
-        <v>2812</v>
+        <v>2802</v>
       </c>
       <c r="F245" s="188"/>
       <c r="G245" s="38" t="s">
@@ -50254,7 +50251,7 @@
         <v>2202</v>
       </c>
       <c r="D246" s="76" t="s">
-        <v>2775</v>
+        <v>2765</v>
       </c>
       <c r="F246" s="188"/>
       <c r="G246" s="38" t="s">
@@ -50270,10 +50267,10 @@
         <v>179</v>
       </c>
       <c r="P246" t="s">
-        <v>2824</v>
+        <v>2814</v>
       </c>
       <c r="Q246" t="s">
-        <v>2828</v>
+        <v>2818</v>
       </c>
       <c r="R246">
         <v>127</v>
@@ -50293,13 +50290,13 @@
         <v>189</v>
       </c>
       <c r="P247" t="s">
-        <v>2825</v>
+        <v>2815</v>
       </c>
       <c r="Q247" t="s">
-        <v>2829</v>
+        <v>2819</v>
       </c>
       <c r="R247" t="s">
-        <v>2834</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -50310,13 +50307,13 @@
         <v>186</v>
       </c>
       <c r="P248" t="s">
-        <v>2826</v>
+        <v>2816</v>
       </c>
       <c r="Q248" t="s">
-        <v>2830</v>
+        <v>2820</v>
       </c>
       <c r="R248" t="s">
-        <v>2831</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -50327,13 +50324,13 @@
         <v>190</v>
       </c>
       <c r="P249" t="s">
-        <v>2827</v>
+        <v>2817</v>
       </c>
       <c r="Q249" t="s">
-        <v>2832</v>
+        <v>2822</v>
       </c>
       <c r="R249" t="s">
-        <v>2833</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -50364,7 +50361,7 @@
     </row>
     <row r="251" spans="1:18">
       <c r="A251" s="27" t="s">
-        <v>2783</v>
+        <v>2773</v>
       </c>
       <c r="F251" s="27" t="s">
         <v>37</v>
@@ -50396,20 +50393,20 @@
     </row>
     <row r="252" spans="1:18">
       <c r="G252" s="134" t="s">
-        <v>2816</v>
+        <v>2806</v>
       </c>
       <c r="H252" s="134" t="s">
-        <v>2817</v>
+        <v>2807</v>
       </c>
       <c r="I252" s="134"/>
       <c r="J252" s="134"/>
       <c r="K252" s="134"/>
       <c r="L252" s="134"/>
       <c r="M252" s="134" t="s">
-        <v>2747</v>
+        <v>2737</v>
       </c>
       <c r="N252" s="134" t="s">
-        <v>2746</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -50442,39 +50439,39 @@
       </c>
       <c r="O253" s="251"/>
       <c r="P253" t="s">
-        <v>2815</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="255" spans="1:18">
       <c r="G255" t="s">
-        <v>2819</v>
+        <v>2809</v>
       </c>
       <c r="J255" t="s">
         <v>179</v>
       </c>
       <c r="K255" t="s">
-        <v>2818</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="256" spans="1:18">
       <c r="G256" t="s">
-        <v>2820</v>
+        <v>2810</v>
       </c>
       <c r="J256" t="s">
         <v>179</v>
       </c>
       <c r="K256" t="s">
-        <v>2822</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="257" spans="3:16">
       <c r="G257" t="s">
-        <v>2821</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="258" spans="3:16">
       <c r="J258" t="s">
-        <v>2823</v>
+        <v>2813</v>
       </c>
       <c r="N258">
         <v>127</v>
@@ -50483,7 +50480,7 @@
     <row r="261" spans="3:16" ht="15.75" thickBot="1"/>
     <row r="262" spans="3:16">
       <c r="C262" s="30" t="s">
-        <v>2835</v>
+        <v>2825</v>
       </c>
       <c r="D262" s="31"/>
       <c r="E262" s="31"/>
@@ -50518,7 +50515,7 @@
         <v>414</v>
       </c>
       <c r="F264" s="177" t="s">
-        <v>2840</v>
+        <v>2830</v>
       </c>
       <c r="G264" s="209"/>
       <c r="H264" s="172"/>
@@ -50538,7 +50535,7 @@
       <c r="D265" s="27"/>
       <c r="E265" s="27"/>
       <c r="F265" s="145" t="s">
-        <v>2841</v>
+        <v>2831</v>
       </c>
       <c r="G265" s="261"/>
       <c r="L265" s="33"/>
@@ -50563,7 +50560,7 @@
       <c r="C267" s="33"/>
       <c r="D267" s="27"/>
       <c r="E267" s="27" t="s">
-        <v>2848</v>
+        <v>2838</v>
       </c>
       <c r="F267" s="27"/>
       <c r="G267" s="34"/>
@@ -50580,7 +50577,7 @@
       <c r="F268" s="27"/>
       <c r="G268" s="34"/>
       <c r="H268" s="29" t="s">
-        <v>2836</v>
+        <v>2826</v>
       </c>
       <c r="I268" s="29"/>
       <c r="J268" s="29"/>
@@ -50595,16 +50592,16 @@
       <c r="C269" s="33"/>
       <c r="D269" s="27"/>
       <c r="E269" s="27" t="s">
-        <v>2837</v>
+        <v>2827</v>
       </c>
       <c r="F269" s="39">
         <v>9</v>
       </c>
       <c r="G269" s="338" t="s">
-        <v>2846</v>
+        <v>2836</v>
       </c>
       <c r="I269" s="56" t="s">
-        <v>2839</v>
+        <v>2829</v>
       </c>
       <c r="L269" s="33"/>
       <c r="M269" s="27"/>
@@ -50616,14 +50613,14 @@
       <c r="C270" s="33"/>
       <c r="D270" s="27"/>
       <c r="E270" s="27" t="s">
-        <v>2838</v>
+        <v>2828</v>
       </c>
       <c r="F270" s="39">
         <v>15</v>
       </c>
       <c r="G270" s="339"/>
       <c r="I270" s="172" t="s">
-        <v>2842</v>
+        <v>2832</v>
       </c>
       <c r="J270" s="172"/>
       <c r="L270" s="33"/>
@@ -50638,10 +50635,10 @@
       <c r="E271" s="27"/>
       <c r="F271" s="27"/>
       <c r="G271" s="261" t="s">
-        <v>2847</v>
+        <v>2837</v>
       </c>
       <c r="I271" t="s">
-        <v>2843</v>
+        <v>2833</v>
       </c>
       <c r="L271" s="33"/>
       <c r="M271" s="27"/>
@@ -50656,7 +50653,7 @@
       <c r="F272" s="27"/>
       <c r="G272" s="34"/>
       <c r="I272" t="s">
-        <v>2844</v>
+        <v>2834</v>
       </c>
       <c r="L272" s="33"/>
       <c r="M272" s="27"/>
@@ -50671,7 +50668,7 @@
       <c r="F273" s="27"/>
       <c r="G273" s="34"/>
       <c r="I273" t="s">
-        <v>2845</v>
+        <v>2835</v>
       </c>
       <c r="L273" s="33"/>
       <c r="M273" s="27"/>
@@ -50705,23 +50702,23 @@
     </row>
     <row r="282" spans="3:16" ht="18">
       <c r="C282" s="285" t="s">
-        <v>3010</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="283" spans="3:16" ht="18">
       <c r="D283" s="285" t="s">
-        <v>3011</v>
+        <v>3001</v>
       </c>
       <c r="N283" t="s">
-        <v>3018</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="284" spans="3:16" ht="18">
       <c r="D284" s="286" t="s">
-        <v>3012</v>
+        <v>3002</v>
       </c>
       <c r="N284" t="s">
-        <v>3017</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="286" spans="3:16">
@@ -50778,20 +50775,20 @@
     </row>
     <row r="288" spans="3:16">
       <c r="C288" s="134" t="s">
-        <v>2747</v>
+        <v>2737</v>
       </c>
       <c r="D288" s="134" t="s">
-        <v>2746</v>
+        <v>2736</v>
       </c>
       <c r="E288" s="134"/>
       <c r="F288" s="134"/>
       <c r="G288" s="134"/>
       <c r="H288" s="134"/>
       <c r="I288" s="134" t="s">
-        <v>2747</v>
+        <v>2737</v>
       </c>
       <c r="J288" s="134" t="s">
-        <v>2746</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="289" spans="3:14">
@@ -50859,10 +50856,10 @@
         <v>0</v>
       </c>
       <c r="K292" s="57" t="s">
-        <v>3013</v>
+        <v>3003</v>
       </c>
       <c r="L292" t="s">
-        <v>3014</v>
+        <v>3004</v>
       </c>
       <c r="N292">
         <v>4</v>
@@ -50884,7 +50881,7 @@
         <v>1</v>
       </c>
       <c r="K293" s="57" t="s">
-        <v>3015</v>
+        <v>3005</v>
       </c>
       <c r="N293">
         <v>5</v>
@@ -50906,7 +50903,7 @@
         <v>1</v>
       </c>
       <c r="K294" s="57" t="s">
-        <v>3016</v>
+        <v>3006</v>
       </c>
       <c r="N294">
         <v>1</v>
@@ -50925,7 +50922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A30" sqref="A30:E39"/>
     </sheetView>
   </sheetViews>
@@ -51283,7 +51280,7 @@
     <row r="29" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>2735</v>
+        <v>3304</v>
       </c>
       <c r="G30" s="30" t="s">
         <v>2356</v>
@@ -51298,7 +51295,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="B31" t="s">
-        <v>2737</v>
+        <v>3306</v>
       </c>
       <c r="G31" s="33"/>
       <c r="H31" s="27" t="s">
@@ -51323,7 +51320,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="B32" t="s">
-        <v>2738</v>
+        <v>3307</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="27" t="s">
@@ -51348,7 +51345,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="C33" t="s">
-        <v>2740</v>
+        <v>3308</v>
       </c>
       <c r="G33" s="33"/>
       <c r="H33" s="27" t="s">
@@ -51373,7 +51370,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="C34" t="s">
-        <v>2741</v>
+        <v>3309</v>
       </c>
       <c r="G34" s="33"/>
       <c r="H34" s="38" t="s">
@@ -51395,7 +51392,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1">
       <c r="D35" t="s">
-        <v>2743</v>
+        <v>3310</v>
       </c>
       <c r="G35" s="35"/>
       <c r="H35" s="36"/>
@@ -51413,22 +51410,25 @@
     </row>
     <row r="36" spans="1:15">
       <c r="D36" t="s">
-        <v>2744</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="C37" t="s">
-        <v>2742</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="B38" t="s">
-        <v>2739</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>2736</v>
+        <v>3305</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3312</v>
       </c>
       <c r="C39" s="40"/>
     </row>
@@ -52200,7 +52200,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="341" t="s">
-        <v>2925</v>
+        <v>2915</v>
       </c>
       <c r="B1" s="341"/>
       <c r="C1" s="341"/>
@@ -52208,7 +52208,7 @@
       <c r="E1" s="341"/>
       <c r="F1" s="341"/>
       <c r="I1" s="341" t="s">
-        <v>2937</v>
+        <v>2927</v>
       </c>
       <c r="J1" s="341"/>
       <c r="K1" s="341"/>
@@ -52219,7 +52219,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>2923</v>
+        <v>2913</v>
       </c>
       <c r="I2" t="s">
         <v>364</v>
@@ -52230,16 +52230,16 @@
         <v>368</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>2938</v>
+        <v>2928</v>
       </c>
       <c r="J3" t="s">
         <v>219</v>
       </c>
       <c r="K3" t="s">
-        <v>2926</v>
+        <v>2916</v>
       </c>
       <c r="L3" t="s">
-        <v>2927</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -52253,13 +52253,13 @@
         <v>225</v>
       </c>
       <c r="E4" s="111" t="s">
-        <v>2924</v>
+        <v>2914</v>
       </c>
       <c r="F4" s="154" t="s">
-        <v>2940</v>
+        <v>2930</v>
       </c>
       <c r="G4" s="269" t="s">
-        <v>2941</v>
+        <v>2931</v>
       </c>
       <c r="J4" t="s">
         <v>368</v>
@@ -52273,7 +52273,7 @@
         <v>380</v>
       </c>
       <c r="K5" t="s">
-        <v>2928</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -52281,16 +52281,16 @@
         <v>1778</v>
       </c>
       <c r="F6" t="s">
-        <v>2992</v>
+        <v>2982</v>
       </c>
       <c r="K6" s="164" t="s">
-        <v>2929</v>
+        <v>2919</v>
       </c>
       <c r="L6" s="57" t="s">
         <v>295</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>2930</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -52299,10 +52299,10 @@
       </c>
       <c r="D7" s="108"/>
       <c r="F7" t="s">
-        <v>2989</v>
+        <v>2979</v>
       </c>
       <c r="K7" s="268" t="s">
-        <v>2931</v>
+        <v>2921</v>
       </c>
       <c r="L7" s="57" t="s">
         <v>295</v>
@@ -52316,16 +52316,16 @@
         <v>146</v>
       </c>
       <c r="F8" t="s">
-        <v>2991</v>
+        <v>2981</v>
       </c>
       <c r="K8" s="270" t="s">
-        <v>2942</v>
+        <v>2932</v>
       </c>
       <c r="L8" s="57" t="s">
         <v>295</v>
       </c>
       <c r="M8" s="57" t="s">
-        <v>2943</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -52333,28 +52333,28 @@
         <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>2990</v>
+        <v>2980</v>
       </c>
       <c r="K9" s="64" t="s">
-        <v>2932</v>
+        <v>2922</v>
       </c>
       <c r="L9" s="57" t="s">
         <v>295</v>
       </c>
       <c r="M9" s="57" t="s">
-        <v>2933</v>
+        <v>2923</v>
       </c>
       <c r="N9" s="164" t="s">
-        <v>2934</v>
+        <v>2924</v>
       </c>
       <c r="O9" s="268" t="s">
-        <v>2935</v>
+        <v>2925</v>
       </c>
       <c r="P9" s="270" t="s">
         <v>1262</v>
       </c>
       <c r="Q9" s="57" t="s">
-        <v>2936</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -52362,7 +52362,7 @@
         <v>146</v>
       </c>
       <c r="M10" s="125" t="s">
-        <v>2954</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
@@ -52372,7 +52372,7 @@
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
       <c r="A12" s="334" t="s">
-        <v>2939</v>
+        <v>2929</v>
       </c>
       <c r="B12" s="340"/>
       <c r="C12" s="340"/>
@@ -52382,7 +52382,7 @@
       <c r="G12" s="340"/>
       <c r="H12" s="335"/>
       <c r="I12" s="334" t="s">
-        <v>2939</v>
+        <v>2929</v>
       </c>
       <c r="J12" s="340"/>
       <c r="K12" s="340"/>
@@ -52396,7 +52396,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="30" t="s">
-        <v>2988</v>
+        <v>2978</v>
       </c>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
@@ -52406,13 +52406,13 @@
       <c r="G13" s="31"/>
       <c r="H13" s="32"/>
       <c r="I13" s="33" t="s">
-        <v>2994</v>
+        <v>2984</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27" t="s">
-        <v>2946</v>
+        <v>2936</v>
       </c>
       <c r="N13" s="27"/>
       <c r="O13" s="27"/>
@@ -52423,24 +52423,24 @@
     <row r="14" spans="1:18">
       <c r="A14" s="33"/>
       <c r="B14" s="27" t="s">
-        <v>2957</v>
+        <v>2947</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27" t="s">
-        <v>2956</v>
+        <v>2946</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="34"/>
       <c r="I14" s="33" t="s">
-        <v>2995</v>
+        <v>2985</v>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27" t="s">
-        <v>2944</v>
+        <v>2934</v>
       </c>
       <c r="N14" s="27"/>
       <c r="O14" s="27"/>
@@ -52454,18 +52454,18 @@
         <v>1690</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>2959</v>
+        <v>2949</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27" t="s">
-        <v>2960</v>
+        <v>2950</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="34"/>
       <c r="I15" s="33"/>
       <c r="J15" s="27" t="s">
-        <v>2947</v>
+        <v>2937</v>
       </c>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
@@ -52479,21 +52479,21 @@
     <row r="16" spans="1:18">
       <c r="A16" s="33"/>
       <c r="B16" s="27" t="s">
-        <v>2940</v>
+        <v>2930</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>2961</v>
+        <v>2951</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27" t="s">
-        <v>2962</v>
+        <v>2952</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="34"/>
       <c r="I16" s="33"/>
       <c r="J16" s="27" t="s">
-        <v>2948</v>
+        <v>2938</v>
       </c>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
@@ -52507,26 +52507,26 @@
     <row r="17" spans="1:18">
       <c r="A17" s="33"/>
       <c r="B17" s="38" t="s">
-        <v>2963</v>
+        <v>2953</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>2964</v>
+        <v>2954</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="38" t="s">
-        <v>2965</v>
+        <v>2955</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="34"/>
       <c r="I17" s="33" t="s">
-        <v>2996</v>
+        <v>2986</v>
       </c>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27" t="s">
-        <v>2945</v>
+        <v>2935</v>
       </c>
       <c r="N17" s="27"/>
       <c r="O17" s="27"/>
@@ -52536,7 +52536,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="33" t="s">
-        <v>2951</v>
+        <v>2941</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -52546,7 +52546,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="34"/>
       <c r="I18" s="33" t="s">
-        <v>2949</v>
+        <v>2939</v>
       </c>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
@@ -52561,7 +52561,7 @@
     <row r="19" spans="1:18">
       <c r="A19" s="33"/>
       <c r="B19" s="27" t="s">
-        <v>2955</v>
+        <v>2945</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -52571,7 +52571,7 @@
       <c r="H19" s="34"/>
       <c r="I19" s="33"/>
       <c r="J19" s="27" t="s">
-        <v>2950</v>
+        <v>2940</v>
       </c>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
@@ -52584,7 +52584,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="33" t="s">
-        <v>2952</v>
+        <v>2942</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -52600,7 +52600,7 @@
     <row r="21" spans="1:18" ht="15.75" thickBot="1">
       <c r="A21" s="35"/>
       <c r="B21" s="36" t="s">
-        <v>2953</v>
+        <v>2943</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
@@ -52621,7 +52621,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="341" t="s">
-        <v>2925</v>
+        <v>2915</v>
       </c>
       <c r="B24" s="341"/>
       <c r="C24" s="341"/>
@@ -52629,7 +52629,7 @@
       <c r="E24" s="341"/>
       <c r="F24" s="341"/>
       <c r="H24" s="275" t="s">
-        <v>2937</v>
+        <v>2927</v>
       </c>
       <c r="I24" s="275"/>
       <c r="J24" s="275"/>
@@ -52638,14 +52638,14 @@
       <c r="M24" s="275"/>
       <c r="N24" s="275"/>
       <c r="P24" s="341" t="s">
-        <v>2978</v>
+        <v>2968</v>
       </c>
       <c r="Q24" s="341"/>
       <c r="R24" s="341"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="106" t="s">
-        <v>2969</v>
+        <v>2959</v>
       </c>
       <c r="B25" s="106"/>
       <c r="C25" s="106"/>
@@ -52654,7 +52654,7 @@
       <c r="F25" s="106"/>
       <c r="G25" s="106"/>
       <c r="H25" s="106" t="s">
-        <v>2968</v>
+        <v>2958</v>
       </c>
       <c r="I25" s="106"/>
       <c r="J25" s="106"/>
@@ -52702,13 +52702,13 @@
         <v>182</v>
       </c>
       <c r="D27" s="106" t="s">
-        <v>2966</v>
+        <v>2956</v>
       </c>
       <c r="E27" s="273"/>
       <c r="F27" s="272"/>
       <c r="G27" s="106"/>
       <c r="H27" s="106" t="s">
-        <v>2970</v>
+        <v>2960</v>
       </c>
       <c r="I27" s="106"/>
       <c r="J27" s="106"/>
@@ -52733,10 +52733,10 @@
       <c r="F28" s="106"/>
       <c r="G28" s="106"/>
       <c r="H28" s="106" t="s">
+        <v>2961</v>
+      </c>
+      <c r="I28" s="282" t="s">
         <v>2971</v>
-      </c>
-      <c r="I28" s="282" t="s">
-        <v>2981</v>
       </c>
       <c r="J28" s="107" t="s">
         <v>295</v>
@@ -52763,13 +52763,13 @@
       <c r="G29" s="106"/>
       <c r="H29" s="106"/>
       <c r="I29" s="155" t="s">
-        <v>2929</v>
+        <v>2919</v>
       </c>
       <c r="J29" s="107" t="s">
         <v>295</v>
       </c>
       <c r="K29" s="107" t="s">
-        <v>2930</v>
+        <v>2920</v>
       </c>
       <c r="L29" s="107"/>
       <c r="M29" s="280"/>
@@ -52785,7 +52785,7 @@
       <c r="G30" s="106"/>
       <c r="H30" s="106"/>
       <c r="I30" s="106" t="s">
-        <v>2973</v>
+        <v>2963</v>
       </c>
       <c r="J30" s="57"/>
       <c r="L30" s="107"/>
@@ -52799,7 +52799,7 @@
       <c r="A31" s="106"/>
       <c r="B31" s="106"/>
       <c r="C31" s="106" t="s">
-        <v>2967</v>
+        <v>2957</v>
       </c>
       <c r="D31" s="172"/>
       <c r="E31" s="106"/>
@@ -52807,22 +52807,22 @@
       <c r="G31" s="106"/>
       <c r="H31" s="106"/>
       <c r="I31" s="277" t="s">
-        <v>2974</v>
+        <v>2964</v>
       </c>
       <c r="J31" s="107" t="s">
         <v>295</v>
       </c>
       <c r="K31" s="107" t="s">
-        <v>2975</v>
+        <v>2965</v>
       </c>
       <c r="L31" s="276" t="s">
-        <v>2976</v>
+        <v>2966</v>
       </c>
       <c r="M31" s="192" t="s">
-        <v>2977</v>
+        <v>2967</v>
       </c>
       <c r="N31" s="283" t="s">
-        <v>2980</v>
+        <v>2970</v>
       </c>
       <c r="O31" s="106"/>
       <c r="P31" s="106"/>
@@ -52840,7 +52840,7 @@
       <c r="G32" s="106"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106" t="s">
-        <v>2982</v>
+        <v>2972</v>
       </c>
       <c r="L32" t="s">
         <v>526</v>
@@ -52862,7 +52862,7 @@
       <c r="G33" s="106"/>
       <c r="H33" s="106"/>
       <c r="I33" s="106" t="s">
-        <v>2983</v>
+        <v>2973</v>
       </c>
       <c r="J33" s="106"/>
       <c r="K33" s="106"/>
@@ -52882,7 +52882,7 @@
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
       <c r="A35" s="334" t="s">
-        <v>2979</v>
+        <v>2969</v>
       </c>
       <c r="B35" s="340"/>
       <c r="C35" s="340"/>
@@ -52906,7 +52906,7 @@
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="30" t="s">
-        <v>2958</v>
+        <v>2948</v>
       </c>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -52933,19 +52933,19 @@
     <row r="37" spans="1:18">
       <c r="A37" s="33"/>
       <c r="B37" s="27" t="s">
-        <v>2957</v>
+        <v>2947</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
       <c r="F37" s="27" t="s">
-        <v>2956</v>
+        <v>2946</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="34"/>
       <c r="I37" s="33"/>
       <c r="J37" s="51" t="s">
-        <v>2993</v>
+        <v>2983</v>
       </c>
       <c r="K37" s="51" t="s">
         <v>415</v>
@@ -52965,15 +52965,15 @@
     <row r="38" spans="1:18">
       <c r="A38" s="33"/>
       <c r="B38" s="279" t="s">
-        <v>2972</v>
+        <v>2962</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>2984</v>
+        <v>2974</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
       <c r="F38" s="27" t="s">
-        <v>2986</v>
+        <v>2976</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="34"/>
@@ -52985,7 +52985,7 @@
         <v>10</v>
       </c>
       <c r="L38" s="27" t="s">
-        <v>2999</v>
+        <v>2989</v>
       </c>
       <c r="M38" s="27"/>
       <c r="N38" s="27"/>
@@ -53004,12 +53004,12 @@
         <v>1690</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>2985</v>
+        <v>2975</v>
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
       <c r="F39" s="27" t="s">
-        <v>2987</v>
+        <v>2977</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="34"/>
@@ -53063,10 +53063,10 @@
       <c r="H41" s="34"/>
       <c r="I41" s="33"/>
       <c r="J41" s="74" t="s">
-        <v>2997</v>
+        <v>2987</v>
       </c>
       <c r="K41" s="74" t="s">
-        <v>2998</v>
+        <v>2988</v>
       </c>
       <c r="L41" s="27"/>
       <c r="M41" s="27"/>
@@ -53139,7 +53139,7 @@
     <row r="45" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="46" spans="1:18" ht="15.75" thickBot="1">
       <c r="B46" t="s">
-        <v>3000</v>
+        <v>2990</v>
       </c>
       <c r="G46" s="30"/>
       <c r="H46" s="31"/>
@@ -53156,7 +53156,7 @@
     </row>
     <row r="47" spans="1:18">
       <c r="C47" t="s">
-        <v>3001</v>
+        <v>2991</v>
       </c>
       <c r="G47" s="33"/>
       <c r="H47" s="51" t="s">
@@ -53179,11 +53179,11 @@
     </row>
     <row r="48" spans="1:18">
       <c r="C48" t="s">
-        <v>3009</v>
+        <v>2999</v>
       </c>
       <c r="G48" s="33"/>
       <c r="H48" s="57" t="s">
-        <v>2993</v>
+        <v>2983</v>
       </c>
       <c r="I48" s="51" t="s">
         <v>2023</v>
@@ -53204,7 +53204,7 @@
     </row>
     <row r="49" spans="2:18" ht="15.75" thickBot="1">
       <c r="C49" t="s">
-        <v>3002</v>
+        <v>2992</v>
       </c>
       <c r="G49" s="33"/>
       <c r="H49" s="51" t="s">
@@ -53246,7 +53246,7 @@
     </row>
     <row r="51" spans="2:18" ht="15.75" thickBot="1">
       <c r="B51" t="s">
-        <v>3007</v>
+        <v>2997</v>
       </c>
       <c r="G51" s="33"/>
       <c r="H51" s="74" t="s">
@@ -53307,7 +53307,7 @@
     </row>
     <row r="54" spans="2:18" ht="15.75" thickBot="1">
       <c r="C54" t="s">
-        <v>3008</v>
+        <v>2998</v>
       </c>
       <c r="G54" s="33"/>
       <c r="H54" s="27"/>
@@ -53344,7 +53344,7 @@
         <v>2411</v>
       </c>
       <c r="C56" t="s">
-        <v>3006</v>
+        <v>2996</v>
       </c>
       <c r="G56" s="33"/>
       <c r="H56" s="27"/>
@@ -53361,7 +53361,7 @@
     </row>
     <row r="57" spans="2:18">
       <c r="C57" t="s">
-        <v>3003</v>
+        <v>2993</v>
       </c>
       <c r="G57" s="33"/>
       <c r="H57" s="27"/>
@@ -53378,7 +53378,7 @@
     </row>
     <row r="58" spans="2:18">
       <c r="C58" t="s">
-        <v>3004</v>
+        <v>2994</v>
       </c>
       <c r="G58" s="33"/>
       <c r="H58" s="27"/>
@@ -53395,7 +53395,7 @@
     </row>
     <row r="59" spans="2:18">
       <c r="C59" t="s">
-        <v>3005</v>
+        <v>2995</v>
       </c>
       <c r="G59" s="33"/>
       <c r="H59" s="27"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -11458,22 +11458,30 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -11495,6 +11503,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11534,32 +11560,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11895,13 +11895,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="327" t="s">
+      <c r="H3" s="333" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="328"/>
-      <c r="J3" s="328"/>
-      <c r="K3" s="328"/>
-      <c r="L3" s="329"/>
+      <c r="I3" s="334"/>
+      <c r="J3" s="334"/>
+      <c r="K3" s="334"/>
+      <c r="L3" s="335"/>
       <c r="P3" t="s">
         <v>3190</v>
       </c>
@@ -11912,7 +11912,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D5" s="322" t="s">
+      <c r="D5" s="341" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -11930,25 +11930,25 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D6" s="322"/>
+      <c r="D6" s="341"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="330" t="s">
+      <c r="G6" s="336" t="s">
         <v>1655</v>
       </c>
-      <c r="H6" s="331"/>
+      <c r="H6" s="337"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="330" t="s">
+      <c r="J6" s="336" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="331"/>
+      <c r="K6" s="337"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="330" t="s">
+      <c r="M6" s="336" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="331"/>
+      <c r="N6" s="337"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D7" s="322"/>
+      <c r="D7" s="341"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -11963,29 +11963,29 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="D8" s="322"/>
+      <c r="D8" s="341"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="332" t="s">
+      <c r="G8" s="338" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="333"/>
+      <c r="H8" s="339"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="332" t="s">
+      <c r="J8" s="338" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="333"/>
+      <c r="K8" s="339"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="332" t="s">
+      <c r="M8" s="338" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="333"/>
+      <c r="N8" s="339"/>
       <c r="P8" t="s">
         <v>3141</v>
       </c>
       <c r="Q8" s="143"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="D9" s="322"/>
+      <c r="D9" s="341"/>
       <c r="F9" s="4"/>
       <c r="G9" s="247"/>
       <c r="H9" s="247"/>
@@ -11998,7 +11998,7 @@
       <c r="Q9" s="143"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="D10" s="322"/>
+      <c r="D10" s="341"/>
       <c r="F10" s="4"/>
       <c r="G10" s="247"/>
       <c r="H10" s="247"/>
@@ -12011,7 +12011,7 @@
       <c r="Q10" s="143"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="D11" s="322"/>
+      <c r="D11" s="341"/>
       <c r="F11" s="4"/>
       <c r="G11" s="247"/>
       <c r="H11" s="247"/>
@@ -12024,31 +12024,31 @@
       <c r="Q11" s="143"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="D12" s="322"/>
-      <c r="F12" s="323" t="s">
+      <c r="D12" s="341"/>
+      <c r="F12" s="342" t="s">
         <v>2642</v>
       </c>
-      <c r="G12" s="324"/>
-      <c r="H12" s="324"/>
-      <c r="I12" s="324"/>
-      <c r="J12" s="324"/>
-      <c r="K12" s="324"/>
-      <c r="L12" s="324"/>
-      <c r="M12" s="324"/>
-      <c r="N12" s="324"/>
+      <c r="G12" s="343"/>
+      <c r="H12" s="343"/>
+      <c r="I12" s="343"/>
+      <c r="J12" s="343"/>
+      <c r="K12" s="343"/>
+      <c r="L12" s="343"/>
+      <c r="M12" s="343"/>
+      <c r="N12" s="343"/>
       <c r="Q12" s="143"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D13" s="322"/>
-      <c r="F13" s="325"/>
-      <c r="G13" s="326"/>
-      <c r="H13" s="326"/>
-      <c r="I13" s="326"/>
-      <c r="J13" s="326"/>
-      <c r="K13" s="326"/>
-      <c r="L13" s="326"/>
-      <c r="M13" s="326"/>
-      <c r="N13" s="326"/>
+      <c r="D13" s="341"/>
+      <c r="F13" s="344"/>
+      <c r="G13" s="345"/>
+      <c r="H13" s="345"/>
+      <c r="I13" s="345"/>
+      <c r="J13" s="345"/>
+      <c r="K13" s="345"/>
+      <c r="L13" s="345"/>
+      <c r="M13" s="345"/>
+      <c r="N13" s="345"/>
       <c r="P13" t="s">
         <v>3138</v>
       </c>
@@ -12057,7 +12057,7 @@
       <c r="A14" t="s">
         <v>2632</v>
       </c>
-      <c r="D14" s="322"/>
+      <c r="D14" s="341"/>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -12069,7 +12069,7 @@
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D15" s="322"/>
+      <c r="D15" s="341"/>
       <c r="F15" s="23" t="s">
         <v>7</v>
       </c>
@@ -12085,7 +12085,7 @@
       <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="D16" s="322" t="s">
+      <c r="D16" s="341" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="140"/>
@@ -12099,7 +12099,7 @@
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="D17" s="322"/>
+      <c r="D17" s="341"/>
       <c r="E17" t="s">
         <v>1657</v>
       </c>
@@ -12122,7 +12122,7 @@
       <c r="N17" s="18"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="322"/>
+      <c r="D18" s="341"/>
       <c r="F18" s="142"/>
       <c r="G18" s="137" t="s">
         <v>11</v>
@@ -12141,7 +12141,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="D19" s="322"/>
+      <c r="D19" s="341"/>
       <c r="F19" s="140"/>
       <c r="G19" s="137" t="s">
         <v>12</v>
@@ -12158,7 +12158,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="D20" s="322"/>
+      <c r="D20" s="341"/>
       <c r="F20" s="141"/>
       <c r="G20" s="19"/>
       <c r="H20" s="17"/>
@@ -12178,7 +12178,7 @@
       <c r="Q20" s="143"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="D21" s="322"/>
+      <c r="D21" s="341"/>
       <c r="E21" t="s">
         <v>1658</v>
       </c>
@@ -12197,7 +12197,7 @@
       <c r="N21" s="18"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D22" s="322"/>
+      <c r="D22" s="341"/>
       <c r="F22" s="142"/>
       <c r="G22" s="17" t="s">
         <v>16</v>
@@ -12211,7 +12211,7 @@
       <c r="N22" s="18"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="D23" s="322"/>
+      <c r="D23" s="341"/>
       <c r="F23" s="141"/>
       <c r="G23" s="17" t="s">
         <v>2626</v>
@@ -12235,7 +12235,7 @@
       <c r="B24" s="38" t="s">
         <v>3167</v>
       </c>
-      <c r="D24" s="322"/>
+      <c r="D24" s="341"/>
       <c r="F24" s="141" t="s">
         <v>21</v>
       </c>
@@ -12261,7 +12261,7 @@
       <c r="B25" s="38" t="s">
         <v>3165</v>
       </c>
-      <c r="D25" s="322"/>
+      <c r="D25" s="341"/>
       <c r="F25" s="142"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
@@ -13227,12 +13227,12 @@
       </c>
     </row>
     <row r="108" spans="4:17">
-      <c r="D108" s="321" t="s">
+      <c r="D108" s="340" t="s">
         <v>2729</v>
       </c>
-      <c r="E108" s="321"/>
-      <c r="G108" s="321"/>
-      <c r="H108" s="321"/>
+      <c r="E108" s="340"/>
+      <c r="G108" s="340"/>
+      <c r="H108" s="340"/>
     </row>
     <row r="109" spans="4:17">
       <c r="D109" t="s">
@@ -13273,6 +13273,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="D16:D25"/>
+    <mergeCell ref="D5:D15"/>
+    <mergeCell ref="F12:N13"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="J6:K6"/>
@@ -13280,11 +13285,6 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="D16:D25"/>
-    <mergeCell ref="D5:D15"/>
-    <mergeCell ref="F12:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -24315,8 +24315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24514,7 +24514,7 @@
       <c r="A16" s="38" t="s">
         <v>3270</v>
       </c>
-      <c r="D16" s="348" t="s">
+      <c r="D16" s="322" t="s">
         <v>1128</v>
       </c>
       <c r="E16" s="81"/>
@@ -24529,7 +24529,7 @@
       <c r="B17" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="D17" s="349" t="s">
+      <c r="D17" s="323" t="s">
         <v>1676</v>
       </c>
       <c r="E17" s="39" t="s">
@@ -24552,7 +24552,7 @@
       <c r="E18" s="73">
         <v>25</v>
       </c>
-      <c r="I18" s="347" t="s">
+      <c r="I18" s="321" t="s">
         <v>56</v>
       </c>
       <c r="J18" s="225" t="s">
@@ -24570,10 +24570,10 @@
       <c r="E19" s="73" t="b">
         <v>1</v>
       </c>
-      <c r="I19" s="352" t="s">
+      <c r="I19" s="326" t="s">
         <v>176</v>
       </c>
-      <c r="J19" s="353">
+      <c r="J19" s="327">
         <v>10</v>
       </c>
       <c r="K19" s="74"/>
@@ -24593,14 +24593,14 @@
       <c r="K21" s="74"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="D22" s="350"/>
+      <c r="D22" s="324"/>
       <c r="K22" s="74"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="38" t="s">
         <v>3271</v>
       </c>
-      <c r="D23" s="350"/>
+      <c r="D23" s="324"/>
       <c r="E23" s="38" t="s">
         <v>514</v>
       </c>
@@ -24613,22 +24613,22 @@
       <c r="A24" s="38" t="s">
         <v>3272</v>
       </c>
-      <c r="D24" s="350"/>
+      <c r="D24" s="324"/>
       <c r="K24" s="74"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="38" t="s">
         <v>3273</v>
       </c>
-      <c r="D25" s="350"/>
+      <c r="D25" s="324"/>
       <c r="K25" s="74"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="D26" s="350"/>
+      <c r="D26" s="324"/>
       <c r="K26" s="74"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="D27" s="350" t="s">
+      <c r="D27" s="324" t="s">
         <v>427</v>
       </c>
       <c r="F27" s="38" t="s">
@@ -24640,7 +24640,7 @@
       <c r="K27" s="74"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="D28" s="350" t="s">
+      <c r="D28" s="324" t="s">
         <v>3275</v>
       </c>
       <c r="F28" s="38" t="s">
@@ -24652,14 +24652,14 @@
       <c r="K28" s="74"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="D29" s="350"/>
+      <c r="D29" s="324"/>
       <c r="I29" s="38" t="s">
         <v>3280</v>
       </c>
       <c r="K29" s="74"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1">
-      <c r="D30" s="351"/>
+      <c r="D30" s="325"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="85"/>
@@ -24673,7 +24673,7 @@
       <c r="A32" s="38" t="s">
         <v>3270</v>
       </c>
-      <c r="D32" s="348" t="s">
+      <c r="D32" s="322" t="s">
         <v>1128</v>
       </c>
       <c r="E32" s="81"/>
@@ -24688,7 +24688,7 @@
       <c r="B33" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="D33" s="349" t="s">
+      <c r="D33" s="323" t="s">
         <v>1676</v>
       </c>
       <c r="E33" s="39" t="s">
@@ -24715,10 +24715,10 @@
       <c r="E34" s="73" t="s">
         <v>514</v>
       </c>
-      <c r="I34" s="352" t="s">
+      <c r="I34" s="326" t="s">
         <v>176</v>
       </c>
-      <c r="J34" s="353">
+      <c r="J34" s="327">
         <v>10</v>
       </c>
       <c r="K34" s="74"/>
@@ -24758,10 +24758,10 @@
     <row r="37" spans="1:11" ht="15.75" thickBot="1">
       <c r="D37" s="163"/>
       <c r="E37" s="73"/>
-      <c r="I37" s="352" t="s">
+      <c r="I37" s="326" t="s">
         <v>176</v>
       </c>
-      <c r="J37" s="353">
+      <c r="J37" s="327">
         <v>10</v>
       </c>
       <c r="K37" s="74"/>
@@ -24770,14 +24770,14 @@
       <c r="A38" s="38" t="s">
         <v>3282</v>
       </c>
-      <c r="D38" s="350"/>
+      <c r="D38" s="324"/>
       <c r="K38" s="74"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="38" t="s">
         <v>3283</v>
       </c>
-      <c r="D39" s="350"/>
+      <c r="D39" s="324"/>
       <c r="H39" s="38" t="s">
         <v>1040</v>
       </c>
@@ -24793,17 +24793,17 @@
       <c r="A40" s="38" t="s">
         <v>3284</v>
       </c>
-      <c r="D40" s="350"/>
-      <c r="I40" s="352" t="s">
+      <c r="D40" s="324"/>
+      <c r="I40" s="326" t="s">
         <v>176</v>
       </c>
-      <c r="J40" s="353">
+      <c r="J40" s="327">
         <v>10</v>
       </c>
       <c r="K40" s="74"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="D41" s="350"/>
+      <c r="D41" s="324"/>
       <c r="K41" s="74"/>
     </row>
     <row r="42" spans="1:11">
@@ -24813,7 +24813,7 @@
       <c r="C42" s="38" t="s">
         <v>409</v>
       </c>
-      <c r="D42" s="350"/>
+      <c r="D42" s="324"/>
       <c r="K42" s="74"/>
     </row>
     <row r="43" spans="1:11">
@@ -24823,7 +24823,7 @@
       <c r="C43" s="38" t="s">
         <v>409</v>
       </c>
-      <c r="D43" s="350"/>
+      <c r="D43" s="324"/>
       <c r="K43" s="74"/>
     </row>
     <row r="44" spans="1:11">
@@ -24833,14 +24833,14 @@
       <c r="C44" s="38" t="s">
         <v>409</v>
       </c>
-      <c r="D44" s="350"/>
+      <c r="D44" s="324"/>
       <c r="K44" s="74"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="38" t="s">
         <v>3291</v>
       </c>
-      <c r="D45" s="350"/>
+      <c r="D45" s="324"/>
       <c r="K45" s="74"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1">
@@ -24850,7 +24850,7 @@
       <c r="C46" s="38" t="s">
         <v>556</v>
       </c>
-      <c r="D46" s="351"/>
+      <c r="D46" s="325"/>
       <c r="E46" s="85"/>
       <c r="F46" s="85"/>
       <c r="G46" s="85"/>
@@ -24880,7 +24880,7 @@
       <c r="A51" s="38" t="s">
         <v>3292</v>
       </c>
-      <c r="D51" s="348" t="s">
+      <c r="D51" s="322" t="s">
         <v>1128</v>
       </c>
       <c r="E51" s="81"/>
@@ -24895,7 +24895,7 @@
       <c r="B52" s="38" t="s">
         <v>3293</v>
       </c>
-      <c r="D52" s="349" t="s">
+      <c r="D52" s="323" t="s">
         <v>1676</v>
       </c>
       <c r="E52" s="39" t="s">
@@ -24922,10 +24922,10 @@
       <c r="E53" s="73" t="s">
         <v>514</v>
       </c>
-      <c r="I53" s="352" t="s">
+      <c r="I53" s="326" t="s">
         <v>3295</v>
       </c>
-      <c r="J53" s="353">
+      <c r="J53" s="327">
         <v>80</v>
       </c>
       <c r="K53" s="74"/>
@@ -24965,7 +24965,7 @@
       <c r="A57" s="38" t="s">
         <v>3296</v>
       </c>
-      <c r="D57" s="350"/>
+      <c r="D57" s="324"/>
       <c r="K57" s="74"/>
     </row>
     <row r="58" spans="1:13">
@@ -24975,13 +24975,13 @@
       <c r="B58" s="38" t="s">
         <v>3298</v>
       </c>
-      <c r="D58" s="350"/>
+      <c r="D58" s="324"/>
       <c r="I58" s="73"/>
       <c r="J58" s="73"/>
       <c r="K58" s="74"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="D59" s="350"/>
+      <c r="D59" s="324"/>
       <c r="I59" s="73"/>
       <c r="J59" s="73"/>
       <c r="K59" s="74"/>
@@ -24993,7 +24993,7 @@
       <c r="C60" s="38">
         <v>100</v>
       </c>
-      <c r="D60" s="350"/>
+      <c r="D60" s="324"/>
       <c r="K60" s="74"/>
     </row>
     <row r="61" spans="1:13">
@@ -25003,7 +25003,7 @@
       <c r="C61" s="38">
         <v>100</v>
       </c>
-      <c r="D61" s="350"/>
+      <c r="D61" s="324"/>
       <c r="K61" s="74"/>
       <c r="M61" s="73"/>
     </row>
@@ -25011,7 +25011,7 @@
       <c r="A62" s="38" t="s">
         <v>3301</v>
       </c>
-      <c r="D62" s="354" t="s">
+      <c r="D62" s="328" t="s">
         <v>3302</v>
       </c>
       <c r="G62" s="38" t="s">
@@ -25027,7 +25027,7 @@
       <c r="C63" s="38">
         <v>80</v>
       </c>
-      <c r="D63" s="354"/>
+      <c r="D63" s="328"/>
       <c r="K63" s="74"/>
       <c r="M63" s="73"/>
     </row>
@@ -25038,12 +25038,12 @@
       <c r="C64" s="38">
         <v>80</v>
       </c>
-      <c r="D64" s="350"/>
+      <c r="D64" s="324"/>
       <c r="K64" s="74"/>
       <c r="M64" s="73"/>
     </row>
     <row r="65" spans="1:13" ht="15.75" thickBot="1">
-      <c r="D65" s="351"/>
+      <c r="D65" s="325"/>
       <c r="E65" s="85"/>
       <c r="F65" s="85"/>
       <c r="G65" s="85"/>
@@ -25060,7 +25060,7 @@
       <c r="A67" s="38" t="s">
         <v>3270</v>
       </c>
-      <c r="D67" s="348" t="s">
+      <c r="D67" s="322" t="s">
         <v>1128</v>
       </c>
       <c r="E67" s="81"/>
@@ -25076,7 +25076,7 @@
       <c r="B68" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="D68" s="349" t="s">
+      <c r="D68" s="323" t="s">
         <v>1676</v>
       </c>
       <c r="E68" s="39" t="s">
@@ -25104,10 +25104,10 @@
       <c r="E69" s="73" t="s">
         <v>514</v>
       </c>
-      <c r="I69" s="352" t="s">
+      <c r="I69" s="326" t="s">
         <v>176</v>
       </c>
-      <c r="J69" s="353">
+      <c r="J69" s="327">
         <v>10</v>
       </c>
       <c r="K69" s="74"/>
@@ -25137,10 +25137,10 @@
       <c r="H71" s="176" t="s">
         <v>1151</v>
       </c>
-      <c r="I71" s="355" t="s">
+      <c r="I71" s="329" t="s">
         <v>56</v>
       </c>
-      <c r="J71" s="356" t="s">
+      <c r="J71" s="330" t="s">
         <v>409</v>
       </c>
       <c r="K71" s="74"/>
@@ -25150,10 +25150,10 @@
       <c r="D72" s="163"/>
       <c r="E72" s="73"/>
       <c r="H72" s="176"/>
-      <c r="I72" s="357" t="s">
+      <c r="I72" s="331" t="s">
         <v>176</v>
       </c>
-      <c r="J72" s="358">
+      <c r="J72" s="332">
         <v>10</v>
       </c>
       <c r="K72" s="74"/>
@@ -25186,7 +25186,7 @@
       <c r="C75" s="38" t="s">
         <v>409</v>
       </c>
-      <c r="D75" s="350"/>
+      <c r="D75" s="324"/>
       <c r="I75" s="73"/>
       <c r="J75" s="73"/>
       <c r="K75" s="74"/>
@@ -25199,7 +25199,7 @@
       <c r="C76" s="38" t="s">
         <v>409</v>
       </c>
-      <c r="D76" s="350"/>
+      <c r="D76" s="324"/>
       <c r="F76" s="73"/>
       <c r="G76" s="73"/>
       <c r="K76" s="74"/>
@@ -25209,7 +25209,7 @@
       <c r="A77" s="38" t="s">
         <v>3291</v>
       </c>
-      <c r="D77" s="350"/>
+      <c r="D77" s="324"/>
       <c r="F77" s="73"/>
       <c r="G77" s="73"/>
       <c r="K77" s="74"/>
@@ -25221,7 +25221,7 @@
       <c r="C78" s="38" t="s">
         <v>3305</v>
       </c>
-      <c r="D78" s="350"/>
+      <c r="D78" s="324"/>
       <c r="J78" s="73"/>
       <c r="K78" s="99"/>
     </row>
@@ -25232,11 +25232,11 @@
       <c r="C79" s="38" t="s">
         <v>556</v>
       </c>
-      <c r="D79" s="350"/>
+      <c r="D79" s="324"/>
       <c r="F79" s="73"/>
       <c r="G79" s="73"/>
       <c r="J79" s="73"/>
-      <c r="K79" s="353"/>
+      <c r="K79" s="327"/>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="38" t="s">
@@ -25245,13 +25245,13 @@
       <c r="C80" s="38" t="s">
         <v>556</v>
       </c>
-      <c r="D80" s="350"/>
+      <c r="D80" s="324"/>
       <c r="F80" s="73"/>
       <c r="G80" s="73"/>
       <c r="K80" s="74"/>
     </row>
     <row r="81" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D81" s="351"/>
+      <c r="D81" s="325"/>
       <c r="E81" s="85"/>
       <c r="F81" s="85"/>
       <c r="G81" s="85"/>
@@ -26166,7 +26166,7 @@
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="48"/>
-      <c r="L3" s="338" t="s">
+      <c r="L3" s="350" t="s">
         <v>2922</v>
       </c>
     </row>
@@ -26195,7 +26195,7 @@
       <c r="K4" s="51" t="s">
         <v>556</v>
       </c>
-      <c r="L4" s="339"/>
+      <c r="L4" s="351"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="A5" s="95"/>
@@ -26213,7 +26213,7 @@
       <c r="K5" s="54">
         <v>123</v>
       </c>
-      <c r="L5" s="339"/>
+      <c r="L5" s="351"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="95"/>
@@ -26227,7 +26227,7 @@
       <c r="I6" s="50"/>
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
-      <c r="L6" s="339"/>
+      <c r="L6" s="351"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="95"/>
@@ -26243,7 +26243,7 @@
       </c>
       <c r="J7" s="46"/>
       <c r="K7" s="48"/>
-      <c r="L7" s="339"/>
+      <c r="L7" s="351"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="95"/>
@@ -26261,7 +26261,7 @@
       <c r="K8" s="51" t="s">
         <v>521</v>
       </c>
-      <c r="L8" s="339"/>
+      <c r="L8" s="351"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="95" t="s">
@@ -26279,7 +26279,7 @@
       <c r="K9" s="54">
         <v>124</v>
       </c>
-      <c r="L9" s="339"/>
+      <c r="L9" s="351"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="F10" s="49"/>
@@ -26288,7 +26288,7 @@
       <c r="I10" s="50"/>
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
-      <c r="L10" s="339"/>
+      <c r="L10" s="351"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="95" t="s">
@@ -26301,7 +26301,7 @@
       <c r="I11" s="50"/>
       <c r="J11" s="46"/>
       <c r="K11" s="48"/>
-      <c r="L11" s="339"/>
+      <c r="L11" s="351"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="95" t="s">
@@ -26317,7 +26317,7 @@
       <c r="K12" s="51" t="s">
         <v>2914</v>
       </c>
-      <c r="L12" s="339"/>
+      <c r="L12" s="351"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="95" t="s">
@@ -26333,7 +26333,7 @@
       <c r="K13" s="54">
         <v>222</v>
       </c>
-      <c r="L13" s="339"/>
+      <c r="L13" s="351"/>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="56" t="s">
@@ -39285,25 +39285,25 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="105"/>
-      <c r="B29" s="332" t="s">
+      <c r="B29" s="338" t="s">
         <v>3012</v>
       </c>
-      <c r="C29" s="340"/>
-      <c r="D29" s="333"/>
+      <c r="C29" s="352"/>
+      <c r="D29" s="339"/>
       <c r="E29" s="105"/>
       <c r="F29" s="105"/>
-      <c r="G29" s="332" t="s">
+      <c r="G29" s="338" t="s">
         <v>1352</v>
       </c>
-      <c r="H29" s="340"/>
-      <c r="I29" s="333"/>
+      <c r="H29" s="352"/>
+      <c r="I29" s="339"/>
       <c r="J29" s="105"/>
       <c r="K29" s="105"/>
-      <c r="L29" s="332" t="s">
+      <c r="L29" s="338" t="s">
         <v>3013</v>
       </c>
-      <c r="M29" s="340"/>
-      <c r="N29" s="333"/>
+      <c r="M29" s="352"/>
+      <c r="N29" s="339"/>
       <c r="O29" s="105"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1">
@@ -39339,7 +39339,7 @@
       <c r="I31" s="74"/>
       <c r="J31" s="105"/>
       <c r="K31" s="105"/>
-      <c r="L31" s="341" t="s">
+      <c r="L31" s="353" t="s">
         <v>3027</v>
       </c>
       <c r="M31" s="38" t="s">
@@ -39364,7 +39364,7 @@
       <c r="I32" s="74"/>
       <c r="J32" s="105"/>
       <c r="K32" s="105"/>
-      <c r="L32" s="342"/>
+      <c r="L32" s="354"/>
       <c r="M32" s="38" t="s">
         <v>2229</v>
       </c>
@@ -39373,7 +39373,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="105"/>
-      <c r="B33" s="341" t="s">
+      <c r="B33" s="353" t="s">
         <v>3027</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -39389,7 +39389,7 @@
       <c r="I33" s="74"/>
       <c r="J33" s="105"/>
       <c r="K33" s="105"/>
-      <c r="L33" s="342"/>
+      <c r="L33" s="354"/>
       <c r="M33" s="38" t="s">
         <v>3015</v>
       </c>
@@ -39398,7 +39398,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="105"/>
-      <c r="B34" s="342"/>
+      <c r="B34" s="354"/>
       <c r="C34" s="176" t="s">
         <v>3023</v>
       </c>
@@ -39412,7 +39412,7 @@
       <c r="I34" s="74"/>
       <c r="J34" s="105"/>
       <c r="K34" s="105"/>
-      <c r="L34" s="342"/>
+      <c r="L34" s="354"/>
       <c r="M34" s="176" t="s">
         <v>3022</v>
       </c>
@@ -39421,7 +39421,7 @@
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1">
       <c r="A35" s="105"/>
-      <c r="B35" s="343"/>
+      <c r="B35" s="355"/>
       <c r="C35" s="176" t="s">
         <v>3020</v>
       </c>
@@ -39435,7 +39435,7 @@
       <c r="I35" s="74"/>
       <c r="J35" s="105"/>
       <c r="K35" s="105"/>
-      <c r="L35" s="342"/>
+      <c r="L35" s="354"/>
       <c r="M35" s="176" t="s">
         <v>3023</v>
       </c>
@@ -39458,7 +39458,7 @@
       <c r="I36" s="74"/>
       <c r="J36" s="105"/>
       <c r="K36" s="105"/>
-      <c r="L36" s="343"/>
+      <c r="L36" s="355"/>
       <c r="M36" s="176" t="s">
         <v>3020</v>
       </c>
@@ -42126,49 +42126,49 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="B5" s="344" t="s">
+      <c r="B5" s="356" t="s">
         <v>3032</v>
       </c>
-      <c r="C5" s="344"/>
-      <c r="F5" s="344" t="s">
+      <c r="C5" s="356"/>
+      <c r="F5" s="356" t="s">
         <v>3033</v>
       </c>
-      <c r="G5" s="344"/>
+      <c r="G5" s="356"/>
       <c r="H5" s="38" t="s">
         <v>631</v>
       </c>
-      <c r="I5" s="344" t="s">
+      <c r="I5" s="356" t="s">
         <v>3033</v>
       </c>
-      <c r="J5" s="344"/>
-      <c r="M5" s="344" t="s">
+      <c r="J5" s="356"/>
+      <c r="M5" s="356" t="s">
         <v>3033</v>
       </c>
-      <c r="N5" s="344"/>
+      <c r="N5" s="356"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="B6" s="344" t="s">
+      <c r="B6" s="356" t="s">
         <v>3034</v>
       </c>
-      <c r="C6" s="344"/>
-      <c r="F6" s="344" t="s">
+      <c r="C6" s="356"/>
+      <c r="F6" s="356" t="s">
         <v>3034</v>
       </c>
-      <c r="G6" s="344"/>
-      <c r="I6" s="344" t="s">
+      <c r="G6" s="356"/>
+      <c r="I6" s="356" t="s">
         <v>1529</v>
       </c>
-      <c r="J6" s="344"/>
-      <c r="M6" s="344" t="s">
+      <c r="J6" s="356"/>
+      <c r="M6" s="356" t="s">
         <v>3035</v>
       </c>
-      <c r="N6" s="344"/>
+      <c r="N6" s="356"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="M7" s="344" t="s">
+      <c r="M7" s="356" t="s">
         <v>3038</v>
       </c>
-      <c r="N7" s="344"/>
+      <c r="N7" s="356"/>
     </row>
     <row r="8" spans="1:15">
       <c r="E8" t="s">
@@ -42179,17 +42179,17 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="F9" s="345" t="s">
+      <c r="F9" s="357" t="s">
         <v>3039</v>
       </c>
-      <c r="G9" s="345"/>
-      <c r="H9" s="345"/>
-      <c r="I9" s="345"/>
-      <c r="J9" s="345"/>
-      <c r="K9" s="345"/>
-      <c r="L9" s="345"/>
-      <c r="M9" s="345"/>
-      <c r="N9" s="345"/>
+      <c r="G9" s="357"/>
+      <c r="H9" s="357"/>
+      <c r="I9" s="357"/>
+      <c r="J9" s="357"/>
+      <c r="K9" s="357"/>
+      <c r="L9" s="357"/>
+      <c r="M9" s="357"/>
+      <c r="N9" s="357"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
@@ -43144,10 +43144,10 @@
       </c>
     </row>
     <row r="66" spans="3:17">
-      <c r="C66" s="321" t="s">
+      <c r="C66" s="340" t="s">
         <v>3090</v>
       </c>
-      <c r="D66" s="321"/>
+      <c r="D66" s="340"/>
       <c r="J66" t="s">
         <v>1528</v>
       </c>
@@ -46836,11 +46836,11 @@
       <c r="L6" s="42" t="s">
         <v>1593</v>
       </c>
-      <c r="M6" s="346" t="s">
+      <c r="M6" s="358" t="s">
         <v>1594</v>
       </c>
-      <c r="N6" s="346"/>
-      <c r="O6" s="346"/>
+      <c r="N6" s="358"/>
+      <c r="O6" s="358"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -50586,7 +50586,7 @@
       <c r="F269" s="39">
         <v>9</v>
       </c>
-      <c r="G269" s="334" t="s">
+      <c r="G269" s="346" t="s">
         <v>2726</v>
       </c>
       <c r="I269" s="55" t="s">
@@ -50607,7 +50607,7 @@
       <c r="F270" s="39">
         <v>15</v>
       </c>
-      <c r="G270" s="335"/>
+      <c r="G270" s="347"/>
       <c r="I270" s="170" t="s">
         <v>2722</v>
       </c>
@@ -51258,7 +51258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
@@ -51958,7 +51958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R411"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B112" sqref="B112:G119"/>
     </sheetView>
   </sheetViews>
@@ -51977,23 +51977,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="337" t="s">
+      <c r="A1" s="349" t="s">
         <v>2735</v>
       </c>
-      <c r="B1" s="337"/>
-      <c r="C1" s="337"/>
-      <c r="D1" s="337"/>
-      <c r="E1" s="337"/>
-      <c r="F1" s="337"/>
-      <c r="I1" s="337" t="s">
+      <c r="B1" s="349"/>
+      <c r="C1" s="349"/>
+      <c r="D1" s="349"/>
+      <c r="E1" s="349"/>
+      <c r="F1" s="349"/>
+      <c r="I1" s="349" t="s">
         <v>2747</v>
       </c>
-      <c r="J1" s="337"/>
-      <c r="K1" s="337"/>
-      <c r="L1" s="337"/>
-      <c r="M1" s="337"/>
-      <c r="N1" s="337"/>
-      <c r="O1" s="337"/>
+      <c r="J1" s="349"/>
+      <c r="K1" s="349"/>
+      <c r="L1" s="349"/>
+      <c r="M1" s="349"/>
+      <c r="N1" s="349"/>
+      <c r="O1" s="349"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -52149,28 +52149,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="330" t="s">
+      <c r="A12" s="336" t="s">
         <v>2749</v>
       </c>
-      <c r="B12" s="336"/>
-      <c r="C12" s="336"/>
-      <c r="D12" s="336"/>
-      <c r="E12" s="336"/>
-      <c r="F12" s="336"/>
-      <c r="G12" s="336"/>
-      <c r="H12" s="331"/>
-      <c r="I12" s="330" t="s">
+      <c r="B12" s="348"/>
+      <c r="C12" s="348"/>
+      <c r="D12" s="348"/>
+      <c r="E12" s="348"/>
+      <c r="F12" s="348"/>
+      <c r="G12" s="348"/>
+      <c r="H12" s="337"/>
+      <c r="I12" s="336" t="s">
         <v>2749</v>
       </c>
-      <c r="J12" s="336"/>
-      <c r="K12" s="336"/>
-      <c r="L12" s="336"/>
-      <c r="M12" s="336"/>
-      <c r="N12" s="336"/>
-      <c r="O12" s="336"/>
-      <c r="P12" s="336"/>
-      <c r="Q12" s="336"/>
-      <c r="R12" s="331"/>
+      <c r="J12" s="348"/>
+      <c r="K12" s="348"/>
+      <c r="L12" s="348"/>
+      <c r="M12" s="348"/>
+      <c r="N12" s="348"/>
+      <c r="O12" s="348"/>
+      <c r="P12" s="348"/>
+      <c r="Q12" s="348"/>
+      <c r="R12" s="337"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="30" t="s">
@@ -52398,14 +52398,14 @@
       <c r="R21" s="37"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="337" t="s">
+      <c r="A24" s="349" t="s">
         <v>2735</v>
       </c>
-      <c r="B24" s="337"/>
-      <c r="C24" s="337"/>
-      <c r="D24" s="337"/>
-      <c r="E24" s="337"/>
-      <c r="F24" s="337"/>
+      <c r="B24" s="349"/>
+      <c r="C24" s="349"/>
+      <c r="D24" s="349"/>
+      <c r="E24" s="349"/>
+      <c r="F24" s="349"/>
       <c r="H24" s="260" t="s">
         <v>2747</v>
       </c>
@@ -52415,11 +52415,11 @@
       <c r="L24" s="260"/>
       <c r="M24" s="260"/>
       <c r="N24" s="260"/>
-      <c r="P24" s="337" t="s">
+      <c r="P24" s="349" t="s">
         <v>2788</v>
       </c>
-      <c r="Q24" s="337"/>
-      <c r="R24" s="337"/>
+      <c r="Q24" s="349"/>
+      <c r="R24" s="349"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="105" t="s">
@@ -52659,28 +52659,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="330" t="s">
+      <c r="A35" s="336" t="s">
         <v>2789</v>
       </c>
-      <c r="B35" s="336"/>
-      <c r="C35" s="336"/>
-      <c r="D35" s="336"/>
-      <c r="E35" s="336"/>
-      <c r="F35" s="336"/>
-      <c r="G35" s="336"/>
-      <c r="H35" s="331"/>
-      <c r="I35" s="330" t="s">
+      <c r="B35" s="348"/>
+      <c r="C35" s="348"/>
+      <c r="D35" s="348"/>
+      <c r="E35" s="348"/>
+      <c r="F35" s="348"/>
+      <c r="G35" s="348"/>
+      <c r="H35" s="337"/>
+      <c r="I35" s="336" t="s">
         <v>1128</v>
       </c>
-      <c r="J35" s="336"/>
-      <c r="K35" s="336"/>
-      <c r="L35" s="336"/>
-      <c r="M35" s="336"/>
-      <c r="N35" s="336"/>
-      <c r="O35" s="336"/>
-      <c r="P35" s="336"/>
-      <c r="Q35" s="336"/>
-      <c r="R35" s="331"/>
+      <c r="J35" s="348"/>
+      <c r="K35" s="348"/>
+      <c r="L35" s="348"/>
+      <c r="M35" s="348"/>
+      <c r="N35" s="348"/>
+      <c r="O35" s="348"/>
+      <c r="P35" s="348"/>
+      <c r="Q35" s="348"/>
+      <c r="R35" s="337"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="30" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5957" uniqueCount="3230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6002" uniqueCount="3251">
   <si>
     <t>USER</t>
   </si>
@@ -9975,6 +9975,69 @@
   </si>
   <si>
     <t>WELCOME</t>
+  </si>
+  <si>
+    <t>public class Car {</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>String color=white;</t>
+  </si>
+  <si>
+    <t>int vin=123;</t>
+  </si>
+  <si>
+    <t>int door=4;</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>Class = blue print</t>
+  </si>
+  <si>
+    <t>real instance</t>
+  </si>
+  <si>
+    <t>public Car(String c, int v) {</t>
+  </si>
+  <si>
+    <t>color=c;</t>
+  </si>
+  <si>
+    <t>Car customer1=new Car("white",123);</t>
+  </si>
+  <si>
+    <t>Car customer2=new Car("green", 124);</t>
+  </si>
+  <si>
+    <t>Car customer3=new Car("red",125);</t>
+  </si>
+  <si>
+    <t>=new Car("white",123);</t>
+  </si>
+  <si>
+    <t>Car("white",123);</t>
+  </si>
+  <si>
+    <t>constructor call</t>
+  </si>
+  <si>
+    <t>=new Car("green", 124);</t>
+  </si>
+  <si>
+    <t>new Car("red",125);</t>
+  </si>
+  <si>
+    <t>// color=red</t>
+  </si>
+  <si>
+    <t>// vin=125</t>
+  </si>
+  <si>
+    <t>red</t>
   </si>
 </sst>
 </file>
@@ -10574,7 +10637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="360">
+  <cellXfs count="369">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11244,6 +11307,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11263,24 +11345,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11322,7 +11386,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11656,13 +11728,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="333" t="s">
+      <c r="H3" s="340" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="334"/>
-      <c r="J3" s="334"/>
-      <c r="K3" s="334"/>
-      <c r="L3" s="335"/>
+      <c r="I3" s="341"/>
+      <c r="J3" s="341"/>
+      <c r="K3" s="341"/>
+      <c r="L3" s="342"/>
       <c r="P3" t="s">
         <v>3102</v>
       </c>
@@ -11673,7 +11745,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D5" s="341" t="s">
+      <c r="D5" s="335" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -11691,25 +11763,25 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D6" s="341"/>
+      <c r="D6" s="335"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="336" t="s">
+      <c r="G6" s="343" t="s">
         <v>1637</v>
       </c>
-      <c r="H6" s="337"/>
+      <c r="H6" s="344"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="336" t="s">
+      <c r="J6" s="343" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="337"/>
+      <c r="K6" s="344"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="336" t="s">
+      <c r="M6" s="343" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="337"/>
+      <c r="N6" s="344"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D7" s="341"/>
+      <c r="D7" s="335"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -11724,29 +11796,29 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="D8" s="341"/>
+      <c r="D8" s="335"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="338" t="s">
+      <c r="G8" s="345" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="339"/>
+      <c r="H8" s="346"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="338" t="s">
+      <c r="J8" s="345" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="339"/>
+      <c r="K8" s="346"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="338" t="s">
+      <c r="M8" s="345" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="339"/>
+      <c r="N8" s="346"/>
       <c r="P8" t="s">
         <v>3053</v>
       </c>
       <c r="Q8" s="143"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="D9" s="341"/>
+      <c r="D9" s="335"/>
       <c r="F9" s="4"/>
       <c r="G9" s="245"/>
       <c r="H9" s="245"/>
@@ -11759,7 +11831,7 @@
       <c r="Q9" s="143"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="D10" s="341"/>
+      <c r="D10" s="335"/>
       <c r="F10" s="4"/>
       <c r="G10" s="245"/>
       <c r="H10" s="245"/>
@@ -11772,7 +11844,7 @@
       <c r="Q10" s="143"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="D11" s="341"/>
+      <c r="D11" s="335"/>
       <c r="F11" s="4"/>
       <c r="G11" s="245"/>
       <c r="H11" s="245"/>
@@ -11785,31 +11857,31 @@
       <c r="Q11" s="143"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="D12" s="341"/>
-      <c r="F12" s="342" t="s">
+      <c r="D12" s="335"/>
+      <c r="F12" s="336" t="s">
         <v>2563</v>
       </c>
-      <c r="G12" s="343"/>
-      <c r="H12" s="343"/>
-      <c r="I12" s="343"/>
-      <c r="J12" s="343"/>
-      <c r="K12" s="343"/>
-      <c r="L12" s="343"/>
-      <c r="M12" s="343"/>
-      <c r="N12" s="343"/>
+      <c r="G12" s="337"/>
+      <c r="H12" s="337"/>
+      <c r="I12" s="337"/>
+      <c r="J12" s="337"/>
+      <c r="K12" s="337"/>
+      <c r="L12" s="337"/>
+      <c r="M12" s="337"/>
+      <c r="N12" s="337"/>
       <c r="Q12" s="143"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D13" s="341"/>
-      <c r="F13" s="344"/>
-      <c r="G13" s="345"/>
-      <c r="H13" s="345"/>
-      <c r="I13" s="345"/>
-      <c r="J13" s="345"/>
-      <c r="K13" s="345"/>
-      <c r="L13" s="345"/>
-      <c r="M13" s="345"/>
-      <c r="N13" s="345"/>
+      <c r="D13" s="335"/>
+      <c r="F13" s="338"/>
+      <c r="G13" s="339"/>
+      <c r="H13" s="339"/>
+      <c r="I13" s="339"/>
+      <c r="J13" s="339"/>
+      <c r="K13" s="339"/>
+      <c r="L13" s="339"/>
+      <c r="M13" s="339"/>
+      <c r="N13" s="339"/>
       <c r="P13" t="s">
         <v>3050</v>
       </c>
@@ -11818,7 +11890,7 @@
       <c r="A14" t="s">
         <v>2553</v>
       </c>
-      <c r="D14" s="341"/>
+      <c r="D14" s="335"/>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -11830,7 +11902,7 @@
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D15" s="341"/>
+      <c r="D15" s="335"/>
       <c r="F15" s="23" t="s">
         <v>7</v>
       </c>
@@ -11846,7 +11918,7 @@
       <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="D16" s="341" t="s">
+      <c r="D16" s="335" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="140"/>
@@ -11860,7 +11932,7 @@
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="D17" s="341"/>
+      <c r="D17" s="335"/>
       <c r="E17" t="s">
         <v>1639</v>
       </c>
@@ -11883,7 +11955,7 @@
       <c r="N17" s="18"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="341"/>
+      <c r="D18" s="335"/>
       <c r="F18" s="142"/>
       <c r="G18" s="137" t="s">
         <v>11</v>
@@ -11902,7 +11974,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="D19" s="341"/>
+      <c r="D19" s="335"/>
       <c r="F19" s="140"/>
       <c r="G19" s="137" t="s">
         <v>12</v>
@@ -11919,7 +11991,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="D20" s="341"/>
+      <c r="D20" s="335"/>
       <c r="F20" s="141"/>
       <c r="G20" s="19"/>
       <c r="H20" s="17"/>
@@ -11939,7 +12011,7 @@
       <c r="Q20" s="143"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="D21" s="341"/>
+      <c r="D21" s="335"/>
       <c r="E21" t="s">
         <v>1640</v>
       </c>
@@ -11958,7 +12030,7 @@
       <c r="N21" s="18"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D22" s="341"/>
+      <c r="D22" s="335"/>
       <c r="F22" s="142"/>
       <c r="G22" s="17" t="s">
         <v>16</v>
@@ -11972,7 +12044,7 @@
       <c r="N22" s="18"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="D23" s="341"/>
+      <c r="D23" s="335"/>
       <c r="F23" s="141"/>
       <c r="G23" s="17" t="s">
         <v>2547</v>
@@ -11996,7 +12068,7 @@
       <c r="B24" s="38" t="s">
         <v>3079</v>
       </c>
-      <c r="D24" s="341"/>
+      <c r="D24" s="335"/>
       <c r="F24" s="141" t="s">
         <v>21</v>
       </c>
@@ -12022,7 +12094,7 @@
       <c r="B25" s="38" t="s">
         <v>3077</v>
       </c>
-      <c r="D25" s="341"/>
+      <c r="D25" s="335"/>
       <c r="F25" s="142"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
@@ -12988,12 +13060,12 @@
       </c>
     </row>
     <row r="108" spans="4:17">
-      <c r="D108" s="340" t="s">
+      <c r="D108" s="334" t="s">
         <v>2650</v>
       </c>
-      <c r="E108" s="340"/>
-      <c r="G108" s="340"/>
-      <c r="H108" s="340"/>
+      <c r="E108" s="334"/>
+      <c r="G108" s="334"/>
+      <c r="H108" s="334"/>
     </row>
     <row r="109" spans="4:17">
       <c r="D109" t="s">
@@ -13034,11 +13106,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="D16:D25"/>
-    <mergeCell ref="D5:D15"/>
-    <mergeCell ref="F12:N13"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="J6:K6"/>
@@ -13046,6 +13113,11 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="M8:N8"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="D16:D25"/>
+    <mergeCell ref="D5:D15"/>
+    <mergeCell ref="F12:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -19670,21 +19742,246 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="359"/>
-    <col min="6" max="6" width="10.85546875" style="359" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="359"/>
-    <col min="9" max="9" width="10.5703125" style="359" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="359"/>
+    <col min="1" max="3" width="9.140625" style="333"/>
+    <col min="4" max="4" width="10.140625" style="333" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="333"/>
+    <col min="6" max="6" width="10.85546875" style="333" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="333"/>
+    <col min="9" max="9" width="10.5703125" style="333" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="333"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A2" s="333" t="s">
+        <v>3236</v>
+      </c>
+      <c r="D2" s="367" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="368" t="s">
+        <v>2243</v>
+      </c>
+      <c r="F2" s="360"/>
+      <c r="G2" s="360"/>
+      <c r="H2" s="360"/>
+      <c r="I2" s="360" t="s">
+        <v>2263</v>
+      </c>
+      <c r="J2" s="360" t="s">
+        <v>3237</v>
+      </c>
+      <c r="K2" s="360"/>
+      <c r="L2" s="361"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="333" t="s">
+        <v>3230</v>
+      </c>
+      <c r="D3" s="362" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E3" s="333" t="s">
+        <v>514</v>
+      </c>
+      <c r="I3" s="333" t="s">
+        <v>514</v>
+      </c>
+      <c r="J3" s="98" t="s">
+        <v>1692</v>
+      </c>
+      <c r="K3" s="99" t="s">
+        <v>3235</v>
+      </c>
+      <c r="L3" s="363"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="333" t="s">
+        <v>3232</v>
+      </c>
+      <c r="D4" s="362" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E4" s="333" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J4" s="319" t="s">
+        <v>1693</v>
+      </c>
+      <c r="K4" s="223">
+        <v>123</v>
+      </c>
+      <c r="L4" s="363"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B5" s="333" t="s">
+        <v>3233</v>
+      </c>
+      <c r="D5" s="362" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E5" s="333" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J5" s="324" t="s">
+        <v>3231</v>
+      </c>
+      <c r="K5" s="325">
+        <v>4</v>
+      </c>
+      <c r="L5" s="363"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B6" s="333" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D6" s="362"/>
+      <c r="J6" s="73"/>
+      <c r="L6" s="363"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="D7" s="362"/>
+      <c r="E7" s="333" t="s">
+        <v>3243</v>
+      </c>
+      <c r="I7" s="333" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J7" s="98" t="s">
+        <v>1692</v>
+      </c>
+      <c r="K7" s="99" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L7" s="363"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="333" t="s">
+        <v>3238</v>
+      </c>
+      <c r="D8" s="362"/>
+      <c r="J8" s="319" t="s">
+        <v>1693</v>
+      </c>
+      <c r="K8" s="223">
+        <v>124</v>
+      </c>
+      <c r="L8" s="363"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B9" s="333" t="s">
+        <v>3239</v>
+      </c>
+      <c r="C9" s="333" t="s">
+        <v>3248</v>
+      </c>
+      <c r="D9" s="362"/>
+      <c r="E9" s="333" t="s">
+        <v>3244</v>
+      </c>
+      <c r="J9" s="324" t="s">
+        <v>3231</v>
+      </c>
+      <c r="K9" s="325">
+        <v>4</v>
+      </c>
+      <c r="L9" s="363"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B10" s="333" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C10" s="333" t="s">
+        <v>3249</v>
+      </c>
+      <c r="D10" s="362"/>
+      <c r="E10" s="333" t="s">
+        <v>3245</v>
+      </c>
+      <c r="L10" s="363"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="333" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="362"/>
+      <c r="I11" s="333" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J11" s="98" t="s">
+        <v>1692</v>
+      </c>
+      <c r="K11" s="99" t="s">
+        <v>3250</v>
+      </c>
+      <c r="L11" s="363"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="333" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="362"/>
+      <c r="E12" s="333" t="s">
+        <v>3246</v>
+      </c>
+      <c r="J12" s="319" t="s">
+        <v>1693</v>
+      </c>
+      <c r="K12" s="223">
+        <v>125</v>
+      </c>
+      <c r="L12" s="363"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A13" s="333" t="s">
+        <v>3240</v>
+      </c>
+      <c r="D13" s="362"/>
+      <c r="J13" s="324" t="s">
+        <v>3231</v>
+      </c>
+      <c r="K13" s="325">
+        <v>4</v>
+      </c>
+      <c r="L13" s="363"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="333" t="s">
+        <v>3241</v>
+      </c>
+      <c r="D14" s="362"/>
+      <c r="E14" s="333" t="s">
+        <v>3247</v>
+      </c>
+      <c r="L14" s="363"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="333" t="s">
+        <v>3242</v>
+      </c>
+      <c r="D15" s="362"/>
+      <c r="L15" s="363"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1">
+      <c r="D16" s="364"/>
+      <c r="E16" s="365"/>
+      <c r="F16" s="365"/>
+      <c r="G16" s="365"/>
+      <c r="H16" s="365"/>
+      <c r="I16" s="365"/>
+      <c r="J16" s="365"/>
+      <c r="K16" s="365"/>
+      <c r="L16" s="366"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -24405,7 +24702,7 @@
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="48"/>
-      <c r="L3" s="350" t="s">
+      <c r="L3" s="351" t="s">
         <v>2834</v>
       </c>
     </row>
@@ -24434,7 +24731,7 @@
       <c r="K4" s="51" t="s">
         <v>556</v>
       </c>
-      <c r="L4" s="351"/>
+      <c r="L4" s="352"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="A5" s="95"/>
@@ -24452,7 +24749,7 @@
       <c r="K5" s="54">
         <v>123</v>
       </c>
-      <c r="L5" s="351"/>
+      <c r="L5" s="352"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="95"/>
@@ -24466,7 +24763,7 @@
       <c r="I6" s="50"/>
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
-      <c r="L6" s="351"/>
+      <c r="L6" s="352"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="95"/>
@@ -24482,7 +24779,7 @@
       </c>
       <c r="J7" s="46"/>
       <c r="K7" s="48"/>
-      <c r="L7" s="351"/>
+      <c r="L7" s="352"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="95"/>
@@ -24500,7 +24797,7 @@
       <c r="K8" s="51" t="s">
         <v>521</v>
       </c>
-      <c r="L8" s="351"/>
+      <c r="L8" s="352"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="95" t="s">
@@ -24518,7 +24815,7 @@
       <c r="K9" s="54">
         <v>124</v>
       </c>
-      <c r="L9" s="351"/>
+      <c r="L9" s="352"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="F10" s="49"/>
@@ -24527,7 +24824,7 @@
       <c r="I10" s="50"/>
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
-      <c r="L10" s="351"/>
+      <c r="L10" s="352"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="95" t="s">
@@ -24540,7 +24837,7 @@
       <c r="I11" s="50"/>
       <c r="J11" s="46"/>
       <c r="K11" s="48"/>
-      <c r="L11" s="351"/>
+      <c r="L11" s="352"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="95" t="s">
@@ -24556,7 +24853,7 @@
       <c r="K12" s="51" t="s">
         <v>2826</v>
       </c>
-      <c r="L12" s="351"/>
+      <c r="L12" s="352"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="95" t="s">
@@ -24572,7 +24869,7 @@
       <c r="K13" s="54">
         <v>222</v>
       </c>
-      <c r="L13" s="351"/>
+      <c r="L13" s="352"/>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="56" t="s">
@@ -37524,25 +37821,25 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="105"/>
-      <c r="B29" s="338" t="s">
+      <c r="B29" s="345" t="s">
         <v>2924</v>
       </c>
-      <c r="C29" s="352"/>
-      <c r="D29" s="339"/>
+      <c r="C29" s="353"/>
+      <c r="D29" s="346"/>
       <c r="E29" s="105"/>
       <c r="F29" s="105"/>
-      <c r="G29" s="338" t="s">
+      <c r="G29" s="345" t="s">
         <v>1334</v>
       </c>
-      <c r="H29" s="352"/>
-      <c r="I29" s="339"/>
+      <c r="H29" s="353"/>
+      <c r="I29" s="346"/>
       <c r="J29" s="105"/>
       <c r="K29" s="105"/>
-      <c r="L29" s="338" t="s">
+      <c r="L29" s="345" t="s">
         <v>2925</v>
       </c>
-      <c r="M29" s="352"/>
-      <c r="N29" s="339"/>
+      <c r="M29" s="353"/>
+      <c r="N29" s="346"/>
       <c r="O29" s="105"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1">
@@ -37578,7 +37875,7 @@
       <c r="I31" s="74"/>
       <c r="J31" s="105"/>
       <c r="K31" s="105"/>
-      <c r="L31" s="353" t="s">
+      <c r="L31" s="354" t="s">
         <v>2939</v>
       </c>
       <c r="M31" s="38" t="s">
@@ -37603,7 +37900,7 @@
       <c r="I32" s="74"/>
       <c r="J32" s="105"/>
       <c r="K32" s="105"/>
-      <c r="L32" s="354"/>
+      <c r="L32" s="355"/>
       <c r="M32" s="38" t="s">
         <v>2151</v>
       </c>
@@ -37612,7 +37909,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="105"/>
-      <c r="B33" s="353" t="s">
+      <c r="B33" s="354" t="s">
         <v>2939</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -37628,7 +37925,7 @@
       <c r="I33" s="74"/>
       <c r="J33" s="105"/>
       <c r="K33" s="105"/>
-      <c r="L33" s="354"/>
+      <c r="L33" s="355"/>
       <c r="M33" s="38" t="s">
         <v>2927</v>
       </c>
@@ -37637,7 +37934,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="105"/>
-      <c r="B34" s="354"/>
+      <c r="B34" s="355"/>
       <c r="C34" s="175" t="s">
         <v>2935</v>
       </c>
@@ -37651,7 +37948,7 @@
       <c r="I34" s="74"/>
       <c r="J34" s="105"/>
       <c r="K34" s="105"/>
-      <c r="L34" s="354"/>
+      <c r="L34" s="355"/>
       <c r="M34" s="175" t="s">
         <v>2934</v>
       </c>
@@ -37660,7 +37957,7 @@
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1">
       <c r="A35" s="105"/>
-      <c r="B35" s="355"/>
+      <c r="B35" s="356"/>
       <c r="C35" s="175" t="s">
         <v>2932</v>
       </c>
@@ -37674,7 +37971,7 @@
       <c r="I35" s="74"/>
       <c r="J35" s="105"/>
       <c r="K35" s="105"/>
-      <c r="L35" s="354"/>
+      <c r="L35" s="355"/>
       <c r="M35" s="175" t="s">
         <v>2935</v>
       </c>
@@ -37697,7 +37994,7 @@
       <c r="I36" s="74"/>
       <c r="J36" s="105"/>
       <c r="K36" s="105"/>
-      <c r="L36" s="355"/>
+      <c r="L36" s="356"/>
       <c r="M36" s="175" t="s">
         <v>2932</v>
       </c>
@@ -40365,49 +40662,49 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="B5" s="356" t="s">
+      <c r="B5" s="357" t="s">
         <v>2944</v>
       </c>
-      <c r="C5" s="356"/>
-      <c r="F5" s="356" t="s">
+      <c r="C5" s="357"/>
+      <c r="F5" s="357" t="s">
         <v>2945</v>
       </c>
-      <c r="G5" s="356"/>
+      <c r="G5" s="357"/>
       <c r="H5" s="38" t="s">
         <v>631</v>
       </c>
-      <c r="I5" s="356" t="s">
+      <c r="I5" s="357" t="s">
         <v>2945</v>
       </c>
-      <c r="J5" s="356"/>
-      <c r="M5" s="356" t="s">
+      <c r="J5" s="357"/>
+      <c r="M5" s="357" t="s">
         <v>2945</v>
       </c>
-      <c r="N5" s="356"/>
+      <c r="N5" s="357"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="B6" s="356" t="s">
+      <c r="B6" s="357" t="s">
         <v>2946</v>
       </c>
-      <c r="C6" s="356"/>
-      <c r="F6" s="356" t="s">
+      <c r="C6" s="357"/>
+      <c r="F6" s="357" t="s">
         <v>2946</v>
       </c>
-      <c r="G6" s="356"/>
-      <c r="I6" s="356" t="s">
+      <c r="G6" s="357"/>
+      <c r="I6" s="357" t="s">
         <v>1511</v>
       </c>
-      <c r="J6" s="356"/>
-      <c r="M6" s="356" t="s">
+      <c r="J6" s="357"/>
+      <c r="M6" s="357" t="s">
         <v>2947</v>
       </c>
-      <c r="N6" s="356"/>
+      <c r="N6" s="357"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="M7" s="356" t="s">
+      <c r="M7" s="357" t="s">
         <v>2950</v>
       </c>
-      <c r="N7" s="356"/>
+      <c r="N7" s="357"/>
     </row>
     <row r="8" spans="1:15">
       <c r="E8" t="s">
@@ -40418,17 +40715,17 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="F9" s="357" t="s">
+      <c r="F9" s="358" t="s">
         <v>2951</v>
       </c>
-      <c r="G9" s="357"/>
-      <c r="H9" s="357"/>
-      <c r="I9" s="357"/>
-      <c r="J9" s="357"/>
-      <c r="K9" s="357"/>
-      <c r="L9" s="357"/>
-      <c r="M9" s="357"/>
-      <c r="N9" s="357"/>
+      <c r="G9" s="358"/>
+      <c r="H9" s="358"/>
+      <c r="I9" s="358"/>
+      <c r="J9" s="358"/>
+      <c r="K9" s="358"/>
+      <c r="L9" s="358"/>
+      <c r="M9" s="358"/>
+      <c r="N9" s="358"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
@@ -41383,10 +41680,10 @@
       </c>
     </row>
     <row r="66" spans="3:17">
-      <c r="C66" s="340" t="s">
+      <c r="C66" s="334" t="s">
         <v>3002</v>
       </c>
-      <c r="D66" s="340"/>
+      <c r="D66" s="334"/>
       <c r="J66" t="s">
         <v>1510</v>
       </c>
@@ -45075,11 +45372,11 @@
       <c r="L6" s="42" t="s">
         <v>1575</v>
       </c>
-      <c r="M6" s="358" t="s">
+      <c r="M6" s="359" t="s">
         <v>1576</v>
       </c>
-      <c r="N6" s="358"/>
-      <c r="O6" s="358"/>
+      <c r="N6" s="359"/>
+      <c r="O6" s="359"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -48825,7 +49122,7 @@
       <c r="F269" s="39">
         <v>9</v>
       </c>
-      <c r="G269" s="346" t="s">
+      <c r="G269" s="347" t="s">
         <v>2647</v>
       </c>
       <c r="I269" s="55" t="s">
@@ -48846,7 +49143,7 @@
       <c r="F270" s="39">
         <v>15</v>
       </c>
-      <c r="G270" s="347"/>
+      <c r="G270" s="348"/>
       <c r="I270" s="169" t="s">
         <v>2643</v>
       </c>
@@ -50464,23 +50761,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="349" t="s">
+      <c r="A1" s="350" t="s">
         <v>2656</v>
       </c>
-      <c r="B1" s="349"/>
-      <c r="C1" s="349"/>
-      <c r="D1" s="349"/>
-      <c r="E1" s="349"/>
-      <c r="F1" s="349"/>
-      <c r="I1" s="349" t="s">
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
+      <c r="I1" s="350" t="s">
         <v>2668</v>
       </c>
-      <c r="J1" s="349"/>
-      <c r="K1" s="349"/>
-      <c r="L1" s="349"/>
-      <c r="M1" s="349"/>
-      <c r="N1" s="349"/>
-      <c r="O1" s="349"/>
+      <c r="J1" s="350"/>
+      <c r="K1" s="350"/>
+      <c r="L1" s="350"/>
+      <c r="M1" s="350"/>
+      <c r="N1" s="350"/>
+      <c r="O1" s="350"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -50636,28 +50933,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="336" t="s">
+      <c r="A12" s="343" t="s">
         <v>2670</v>
       </c>
-      <c r="B12" s="348"/>
-      <c r="C12" s="348"/>
-      <c r="D12" s="348"/>
-      <c r="E12" s="348"/>
-      <c r="F12" s="348"/>
-      <c r="G12" s="348"/>
-      <c r="H12" s="337"/>
-      <c r="I12" s="336" t="s">
+      <c r="B12" s="349"/>
+      <c r="C12" s="349"/>
+      <c r="D12" s="349"/>
+      <c r="E12" s="349"/>
+      <c r="F12" s="349"/>
+      <c r="G12" s="349"/>
+      <c r="H12" s="344"/>
+      <c r="I12" s="343" t="s">
         <v>2670</v>
       </c>
-      <c r="J12" s="348"/>
-      <c r="K12" s="348"/>
-      <c r="L12" s="348"/>
-      <c r="M12" s="348"/>
-      <c r="N12" s="348"/>
-      <c r="O12" s="348"/>
-      <c r="P12" s="348"/>
-      <c r="Q12" s="348"/>
-      <c r="R12" s="337"/>
+      <c r="J12" s="349"/>
+      <c r="K12" s="349"/>
+      <c r="L12" s="349"/>
+      <c r="M12" s="349"/>
+      <c r="N12" s="349"/>
+      <c r="O12" s="349"/>
+      <c r="P12" s="349"/>
+      <c r="Q12" s="349"/>
+      <c r="R12" s="344"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="30" t="s">
@@ -50885,14 +51182,14 @@
       <c r="R21" s="37"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="349" t="s">
+      <c r="A24" s="350" t="s">
         <v>2656</v>
       </c>
-      <c r="B24" s="349"/>
-      <c r="C24" s="349"/>
-      <c r="D24" s="349"/>
-      <c r="E24" s="349"/>
-      <c r="F24" s="349"/>
+      <c r="B24" s="350"/>
+      <c r="C24" s="350"/>
+      <c r="D24" s="350"/>
+      <c r="E24" s="350"/>
+      <c r="F24" s="350"/>
       <c r="H24" s="258" t="s">
         <v>2668</v>
       </c>
@@ -50902,11 +51199,11 @@
       <c r="L24" s="258"/>
       <c r="M24" s="258"/>
       <c r="N24" s="258"/>
-      <c r="P24" s="349" t="s">
+      <c r="P24" s="350" t="s">
         <v>2709</v>
       </c>
-      <c r="Q24" s="349"/>
-      <c r="R24" s="349"/>
+      <c r="Q24" s="350"/>
+      <c r="R24" s="350"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="105" t="s">
@@ -51146,28 +51443,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="336" t="s">
+      <c r="A35" s="343" t="s">
         <v>2710</v>
       </c>
-      <c r="B35" s="348"/>
-      <c r="C35" s="348"/>
-      <c r="D35" s="348"/>
-      <c r="E35" s="348"/>
-      <c r="F35" s="348"/>
-      <c r="G35" s="348"/>
-      <c r="H35" s="337"/>
-      <c r="I35" s="336" t="s">
+      <c r="B35" s="349"/>
+      <c r="C35" s="349"/>
+      <c r="D35" s="349"/>
+      <c r="E35" s="349"/>
+      <c r="F35" s="349"/>
+      <c r="G35" s="349"/>
+      <c r="H35" s="344"/>
+      <c r="I35" s="343" t="s">
         <v>1110</v>
       </c>
-      <c r="J35" s="348"/>
-      <c r="K35" s="348"/>
-      <c r="L35" s="348"/>
-      <c r="M35" s="348"/>
-      <c r="N35" s="348"/>
-      <c r="O35" s="348"/>
-      <c r="P35" s="348"/>
-      <c r="Q35" s="348"/>
-      <c r="R35" s="337"/>
+      <c r="J35" s="349"/>
+      <c r="K35" s="349"/>
+      <c r="L35" s="349"/>
+      <c r="M35" s="349"/>
+      <c r="N35" s="349"/>
+      <c r="O35" s="349"/>
+      <c r="P35" s="349"/>
+      <c r="Q35" s="349"/>
+      <c r="R35" s="344"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="30" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="pc-basics" sheetId="1" r:id="rId1"/>
@@ -22,28 +22,29 @@
     <sheet name="operator" sheetId="11" r:id="rId13"/>
     <sheet name="control-flow" sheetId="12" r:id="rId14"/>
     <sheet name="constructor" sheetId="13" r:id="rId15"/>
-    <sheet name="in-heritance" sheetId="14" r:id="rId16"/>
-    <sheet name="practice" sheetId="15" r:id="rId17"/>
-    <sheet name="interface-abstract" sheetId="16" r:id="rId18"/>
-    <sheet name="inheritance-access-priv-dto" sheetId="17" r:id="rId19"/>
-    <sheet name="poly-final" sheetId="18" r:id="rId20"/>
-    <sheet name="static" sheetId="19" r:id="rId21"/>
-    <sheet name="array" sheetId="20" r:id="rId22"/>
-    <sheet name="String" sheetId="21" r:id="rId23"/>
-    <sheet name="exception_handling" sheetId="22" r:id="rId24"/>
-    <sheet name="threads" sheetId="23" r:id="rId25"/>
-    <sheet name="collection" sheetId="24" r:id="rId26"/>
-    <sheet name="unqiueness" sheetId="29" r:id="rId27"/>
-    <sheet name="collection2" sheetId="25" r:id="rId28"/>
-    <sheet name="col-unique" sheetId="26" r:id="rId29"/>
-    <sheet name="file" sheetId="27" r:id="rId30"/>
+    <sheet name="inheritance" sheetId="31" r:id="rId16"/>
+    <sheet name="in-heritance" sheetId="14" r:id="rId17"/>
+    <sheet name="practice" sheetId="15" r:id="rId18"/>
+    <sheet name="interface-abstract" sheetId="16" r:id="rId19"/>
+    <sheet name="inheritance-access-priv-dto" sheetId="17" r:id="rId20"/>
+    <sheet name="poly-final" sheetId="18" r:id="rId21"/>
+    <sheet name="static" sheetId="19" r:id="rId22"/>
+    <sheet name="array" sheetId="20" r:id="rId23"/>
+    <sheet name="String" sheetId="21" r:id="rId24"/>
+    <sheet name="exception_handling" sheetId="22" r:id="rId25"/>
+    <sheet name="threads" sheetId="23" r:id="rId26"/>
+    <sheet name="collection" sheetId="24" r:id="rId27"/>
+    <sheet name="unqiueness" sheetId="29" r:id="rId28"/>
+    <sheet name="collection2" sheetId="25" r:id="rId29"/>
+    <sheet name="col-unique" sheetId="26" r:id="rId30"/>
+    <sheet name="file" sheetId="27" r:id="rId31"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6002" uniqueCount="3251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6033" uniqueCount="3273">
   <si>
     <t>USER</t>
   </si>
@@ -10038,6 +10039,72 @@
   </si>
   <si>
     <t>red</t>
+  </si>
+  <si>
+    <t>Icar</t>
+  </si>
+  <si>
+    <t>3 incomplete methods</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>AdvancedNissan</t>
+  </si>
+  <si>
+    <t>2 complete methods  + 1 incomplete method</t>
+  </si>
+  <si>
+    <t>write the code for 1 missing incomplete method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 % incomplete </t>
+  </si>
+  <si>
+    <t>partial complete</t>
+  </si>
+  <si>
+    <t>100% complete</t>
+  </si>
+  <si>
+    <t>Sub/child class</t>
+  </si>
+  <si>
+    <t>Icar ic=new Nissan()</t>
+  </si>
+  <si>
+    <t>Icar ic=new Icar();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icar is incomplete </t>
+  </si>
+  <si>
+    <t>Nissan.. Is child of Icar… HOWEVER it is not complete programs</t>
+  </si>
+  <si>
+    <t>Icar ic=new AdvancedNissan();</t>
+  </si>
+  <si>
+    <t>AdvancedNissan is still child of Icar</t>
+  </si>
+  <si>
+    <t>Ifood</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Icar i=new AdvancedNissan();</t>
   </si>
 </sst>
 </file>
@@ -11308,6 +11375,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11386,15 +11462,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11728,13 +11795,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="340" t="s">
+      <c r="H3" s="349" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="341"/>
-      <c r="J3" s="341"/>
-      <c r="K3" s="341"/>
-      <c r="L3" s="342"/>
+      <c r="I3" s="350"/>
+      <c r="J3" s="350"/>
+      <c r="K3" s="350"/>
+      <c r="L3" s="351"/>
       <c r="P3" t="s">
         <v>3102</v>
       </c>
@@ -11745,7 +11812,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D5" s="335" t="s">
+      <c r="D5" s="344" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -11763,25 +11830,25 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D6" s="335"/>
+      <c r="D6" s="344"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="343" t="s">
+      <c r="G6" s="352" t="s">
         <v>1637</v>
       </c>
-      <c r="H6" s="344"/>
+      <c r="H6" s="353"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="343" t="s">
+      <c r="J6" s="352" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="344"/>
+      <c r="K6" s="353"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="343" t="s">
+      <c r="M6" s="352" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="344"/>
+      <c r="N6" s="353"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D7" s="335"/>
+      <c r="D7" s="344"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -11796,29 +11863,29 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="D8" s="335"/>
+      <c r="D8" s="344"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="345" t="s">
+      <c r="G8" s="354" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="346"/>
+      <c r="H8" s="355"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="345" t="s">
+      <c r="J8" s="354" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="346"/>
+      <c r="K8" s="355"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="345" t="s">
+      <c r="M8" s="354" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="346"/>
+      <c r="N8" s="355"/>
       <c r="P8" t="s">
         <v>3053</v>
       </c>
       <c r="Q8" s="143"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="D9" s="335"/>
+      <c r="D9" s="344"/>
       <c r="F9" s="4"/>
       <c r="G9" s="245"/>
       <c r="H9" s="245"/>
@@ -11831,7 +11898,7 @@
       <c r="Q9" s="143"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="D10" s="335"/>
+      <c r="D10" s="344"/>
       <c r="F10" s="4"/>
       <c r="G10" s="245"/>
       <c r="H10" s="245"/>
@@ -11844,7 +11911,7 @@
       <c r="Q10" s="143"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="D11" s="335"/>
+      <c r="D11" s="344"/>
       <c r="F11" s="4"/>
       <c r="G11" s="245"/>
       <c r="H11" s="245"/>
@@ -11857,31 +11924,31 @@
       <c r="Q11" s="143"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="D12" s="335"/>
-      <c r="F12" s="336" t="s">
+      <c r="D12" s="344"/>
+      <c r="F12" s="345" t="s">
         <v>2563</v>
       </c>
-      <c r="G12" s="337"/>
-      <c r="H12" s="337"/>
-      <c r="I12" s="337"/>
-      <c r="J12" s="337"/>
-      <c r="K12" s="337"/>
-      <c r="L12" s="337"/>
-      <c r="M12" s="337"/>
-      <c r="N12" s="337"/>
+      <c r="G12" s="346"/>
+      <c r="H12" s="346"/>
+      <c r="I12" s="346"/>
+      <c r="J12" s="346"/>
+      <c r="K12" s="346"/>
+      <c r="L12" s="346"/>
+      <c r="M12" s="346"/>
+      <c r="N12" s="346"/>
       <c r="Q12" s="143"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D13" s="335"/>
-      <c r="F13" s="338"/>
-      <c r="G13" s="339"/>
-      <c r="H13" s="339"/>
-      <c r="I13" s="339"/>
-      <c r="J13" s="339"/>
-      <c r="K13" s="339"/>
-      <c r="L13" s="339"/>
-      <c r="M13" s="339"/>
-      <c r="N13" s="339"/>
+      <c r="D13" s="344"/>
+      <c r="F13" s="347"/>
+      <c r="G13" s="348"/>
+      <c r="H13" s="348"/>
+      <c r="I13" s="348"/>
+      <c r="J13" s="348"/>
+      <c r="K13" s="348"/>
+      <c r="L13" s="348"/>
+      <c r="M13" s="348"/>
+      <c r="N13" s="348"/>
       <c r="P13" t="s">
         <v>3050</v>
       </c>
@@ -11890,7 +11957,7 @@
       <c r="A14" t="s">
         <v>2553</v>
       </c>
-      <c r="D14" s="335"/>
+      <c r="D14" s="344"/>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -11902,7 +11969,7 @@
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D15" s="335"/>
+      <c r="D15" s="344"/>
       <c r="F15" s="23" t="s">
         <v>7</v>
       </c>
@@ -11918,7 +11985,7 @@
       <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="D16" s="335" t="s">
+      <c r="D16" s="344" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="140"/>
@@ -11932,7 +11999,7 @@
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="D17" s="335"/>
+      <c r="D17" s="344"/>
       <c r="E17" t="s">
         <v>1639</v>
       </c>
@@ -11955,7 +12022,7 @@
       <c r="N17" s="18"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="335"/>
+      <c r="D18" s="344"/>
       <c r="F18" s="142"/>
       <c r="G18" s="137" t="s">
         <v>11</v>
@@ -11974,7 +12041,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="D19" s="335"/>
+      <c r="D19" s="344"/>
       <c r="F19" s="140"/>
       <c r="G19" s="137" t="s">
         <v>12</v>
@@ -11991,7 +12058,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="D20" s="335"/>
+      <c r="D20" s="344"/>
       <c r="F20" s="141"/>
       <c r="G20" s="19"/>
       <c r="H20" s="17"/>
@@ -12011,7 +12078,7 @@
       <c r="Q20" s="143"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="D21" s="335"/>
+      <c r="D21" s="344"/>
       <c r="E21" t="s">
         <v>1640</v>
       </c>
@@ -12030,7 +12097,7 @@
       <c r="N21" s="18"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D22" s="335"/>
+      <c r="D22" s="344"/>
       <c r="F22" s="142"/>
       <c r="G22" s="17" t="s">
         <v>16</v>
@@ -12044,7 +12111,7 @@
       <c r="N22" s="18"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="D23" s="335"/>
+      <c r="D23" s="344"/>
       <c r="F23" s="141"/>
       <c r="G23" s="17" t="s">
         <v>2547</v>
@@ -12068,7 +12135,7 @@
       <c r="B24" s="38" t="s">
         <v>3079</v>
       </c>
-      <c r="D24" s="335"/>
+      <c r="D24" s="344"/>
       <c r="F24" s="141" t="s">
         <v>21</v>
       </c>
@@ -12094,7 +12161,7 @@
       <c r="B25" s="38" t="s">
         <v>3077</v>
       </c>
-      <c r="D25" s="335"/>
+      <c r="D25" s="344"/>
       <c r="F25" s="142"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
@@ -13060,12 +13127,12 @@
       </c>
     </row>
     <row r="108" spans="4:17">
-      <c r="D108" s="334" t="s">
+      <c r="D108" s="343" t="s">
         <v>2650</v>
       </c>
-      <c r="E108" s="334"/>
-      <c r="G108" s="334"/>
-      <c r="H108" s="334"/>
+      <c r="E108" s="343"/>
+      <c r="G108" s="343"/>
+      <c r="H108" s="343"/>
     </row>
     <row r="109" spans="4:17">
       <c r="D109" t="s">
@@ -18411,8 +18478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19744,8 +19811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19764,29 +19831,29 @@
       <c r="A2" s="333" t="s">
         <v>3236</v>
       </c>
-      <c r="D2" s="367" t="s">
+      <c r="D2" s="341" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="368" t="s">
+      <c r="E2" s="342" t="s">
         <v>2243</v>
       </c>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="360"/>
-      <c r="I2" s="360" t="s">
+      <c r="F2" s="334"/>
+      <c r="G2" s="334"/>
+      <c r="H2" s="334"/>
+      <c r="I2" s="334" t="s">
         <v>2263</v>
       </c>
-      <c r="J2" s="360" t="s">
+      <c r="J2" s="334" t="s">
         <v>3237</v>
       </c>
-      <c r="K2" s="360"/>
-      <c r="L2" s="361"/>
+      <c r="K2" s="334"/>
+      <c r="L2" s="335"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="333" t="s">
         <v>3230</v>
       </c>
-      <c r="D3" s="362" t="s">
+      <c r="D3" s="336" t="s">
         <v>1897</v>
       </c>
       <c r="E3" s="333" t="s">
@@ -19801,13 +19868,13 @@
       <c r="K3" s="99" t="s">
         <v>3235</v>
       </c>
-      <c r="L3" s="363"/>
+      <c r="L3" s="337"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="333" t="s">
         <v>3232</v>
       </c>
-      <c r="D4" s="362" t="s">
+      <c r="D4" s="336" t="s">
         <v>1898</v>
       </c>
       <c r="E4" s="333" t="s">
@@ -19819,13 +19886,13 @@
       <c r="K4" s="223">
         <v>123</v>
       </c>
-      <c r="L4" s="363"/>
+      <c r="L4" s="337"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="B5" s="333" t="s">
         <v>3233</v>
       </c>
-      <c r="D5" s="362" t="s">
+      <c r="D5" s="336" t="s">
         <v>1901</v>
       </c>
       <c r="E5" s="333" t="s">
@@ -19837,18 +19904,18 @@
       <c r="K5" s="325">
         <v>4</v>
       </c>
-      <c r="L5" s="363"/>
+      <c r="L5" s="337"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="B6" s="333" t="s">
         <v>3234</v>
       </c>
-      <c r="D6" s="362"/>
+      <c r="D6" s="336"/>
       <c r="J6" s="73"/>
-      <c r="L6" s="363"/>
+      <c r="L6" s="337"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="D7" s="362"/>
+      <c r="D7" s="336"/>
       <c r="E7" s="333" t="s">
         <v>3243</v>
       </c>
@@ -19861,20 +19928,20 @@
       <c r="K7" s="99" t="s">
         <v>2021</v>
       </c>
-      <c r="L7" s="363"/>
+      <c r="L7" s="337"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="333" t="s">
         <v>3238</v>
       </c>
-      <c r="D8" s="362"/>
+      <c r="D8" s="336"/>
       <c r="J8" s="319" t="s">
         <v>1693</v>
       </c>
       <c r="K8" s="223">
         <v>124</v>
       </c>
-      <c r="L8" s="363"/>
+      <c r="L8" s="337"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="B9" s="333" t="s">
@@ -19883,7 +19950,7 @@
       <c r="C9" s="333" t="s">
         <v>3248</v>
       </c>
-      <c r="D9" s="362"/>
+      <c r="D9" s="336"/>
       <c r="E9" s="333" t="s">
         <v>3244</v>
       </c>
@@ -19893,7 +19960,7 @@
       <c r="K9" s="325">
         <v>4</v>
       </c>
-      <c r="L9" s="363"/>
+      <c r="L9" s="337"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="B10" s="333" t="s">
@@ -19902,17 +19969,17 @@
       <c r="C10" s="333" t="s">
         <v>3249</v>
       </c>
-      <c r="D10" s="362"/>
+      <c r="D10" s="336"/>
       <c r="E10" s="333" t="s">
         <v>3245</v>
       </c>
-      <c r="L10" s="363"/>
+      <c r="L10" s="337"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="333" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="362"/>
+      <c r="D11" s="336"/>
       <c r="I11" s="333" t="s">
         <v>1133</v>
       </c>
@@ -19922,13 +19989,13 @@
       <c r="K11" s="99" t="s">
         <v>3250</v>
       </c>
-      <c r="L11" s="363"/>
+      <c r="L11" s="337"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="333" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="362"/>
+      <c r="D12" s="336"/>
       <c r="E12" s="333" t="s">
         <v>3246</v>
       </c>
@@ -19938,48 +20005,48 @@
       <c r="K12" s="223">
         <v>125</v>
       </c>
-      <c r="L12" s="363"/>
+      <c r="L12" s="337"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="333" t="s">
         <v>3240</v>
       </c>
-      <c r="D13" s="362"/>
+      <c r="D13" s="336"/>
       <c r="J13" s="324" t="s">
         <v>3231</v>
       </c>
       <c r="K13" s="325">
         <v>4</v>
       </c>
-      <c r="L13" s="363"/>
+      <c r="L13" s="337"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="333" t="s">
         <v>3241</v>
       </c>
-      <c r="D14" s="362"/>
+      <c r="D14" s="336"/>
       <c r="E14" s="333" t="s">
         <v>3247</v>
       </c>
-      <c r="L14" s="363"/>
+      <c r="L14" s="337"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="333" t="s">
         <v>3242</v>
       </c>
-      <c r="D15" s="362"/>
-      <c r="L15" s="363"/>
+      <c r="D15" s="336"/>
+      <c r="L15" s="337"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1">
-      <c r="D16" s="364"/>
-      <c r="E16" s="365"/>
-      <c r="F16" s="365"/>
-      <c r="G16" s="365"/>
-      <c r="H16" s="365"/>
-      <c r="I16" s="365"/>
-      <c r="J16" s="365"/>
-      <c r="K16" s="365"/>
-      <c r="L16" s="366"/>
+      <c r="D16" s="338"/>
+      <c r="E16" s="339"/>
+      <c r="F16" s="339"/>
+      <c r="G16" s="339"/>
+      <c r="H16" s="339"/>
+      <c r="I16" s="339"/>
+      <c r="J16" s="339"/>
+      <c r="K16" s="339"/>
+      <c r="L16" s="340"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19989,10 +20056,154 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:I22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B3" t="s">
+        <v>3259</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="E4" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B6" t="s">
+        <v>3260</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="E7" s="38" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B9" t="s">
+        <v>3261</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3262</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="E10" s="38" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="E12" s="55" t="s">
+        <v>3264</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="H12" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="E13" s="55" t="s">
+        <v>3263</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="H13" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="E14" t="s">
+        <v>3267</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="17" spans="4:9" ht="15.75" thickBot="1">
+      <c r="D17" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>3251</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3254</v>
+      </c>
+      <c r="I17" s="45" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="15.75" thickBot="1">
+      <c r="D18" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>3253</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3255</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" ht="15.75" thickBot="1">
+      <c r="D19" t="s">
+        <v>3262</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>3256</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3262</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9">
+      <c r="E22" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:V293"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:N7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21810,7 +22021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E3:E15"/>
   <sheetViews>
@@ -21880,7 +22091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N91"/>
   <sheetViews>
@@ -22324,491 +22535,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C105"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D109"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="C16" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="C24" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="B28" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="C29" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="B30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="B36" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="B37" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="B38" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="C39" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="B40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="B43" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="C44" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="B45" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="B46" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="C47" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="B48" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="B51" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="C52" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="B53" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="B56" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="C57" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="B58" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="B64" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="B65" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="B66" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="B68" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="B69" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="B70" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="B72" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="B73" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="B75" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="B76" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="B77" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="B85" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="C86" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="B87" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="C88" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="B89" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="C90" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="C91" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="B94" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="B95" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="C99" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>922</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -24323,6 +24049,491 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="C24" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="C29" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="C39" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="C44" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="C47" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="C52" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="B53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="C57" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="B64" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="B65" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="B66" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="B68" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="B69" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="B73" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="B75" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="B76" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="B77" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="B85" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="C86" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="B87" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="C88" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="B89" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="C90" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="C91" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="B94" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="B95" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="C99" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>922</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24636,7 +24847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R330"/>
   <sheetViews>
@@ -24702,7 +24913,7 @@
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="48"/>
-      <c r="L3" s="351" t="s">
+      <c r="L3" s="360" t="s">
         <v>2834</v>
       </c>
     </row>
@@ -24731,7 +24942,7 @@
       <c r="K4" s="51" t="s">
         <v>556</v>
       </c>
-      <c r="L4" s="352"/>
+      <c r="L4" s="361"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="A5" s="95"/>
@@ -24749,7 +24960,7 @@
       <c r="K5" s="54">
         <v>123</v>
       </c>
-      <c r="L5" s="352"/>
+      <c r="L5" s="361"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="95"/>
@@ -24763,7 +24974,7 @@
       <c r="I6" s="50"/>
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
-      <c r="L6" s="352"/>
+      <c r="L6" s="361"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="95"/>
@@ -24779,7 +24990,7 @@
       </c>
       <c r="J7" s="46"/>
       <c r="K7" s="48"/>
-      <c r="L7" s="352"/>
+      <c r="L7" s="361"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="95"/>
@@ -24797,7 +25008,7 @@
       <c r="K8" s="51" t="s">
         <v>521</v>
       </c>
-      <c r="L8" s="352"/>
+      <c r="L8" s="361"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="95" t="s">
@@ -24815,7 +25026,7 @@
       <c r="K9" s="54">
         <v>124</v>
       </c>
-      <c r="L9" s="352"/>
+      <c r="L9" s="361"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="F10" s="49"/>
@@ -24824,7 +25035,7 @@
       <c r="I10" s="50"/>
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
-      <c r="L10" s="352"/>
+      <c r="L10" s="361"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="95" t="s">
@@ -24837,7 +25048,7 @@
       <c r="I11" s="50"/>
       <c r="J11" s="46"/>
       <c r="K11" s="48"/>
-      <c r="L11" s="352"/>
+      <c r="L11" s="361"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="95" t="s">
@@ -24853,7 +25064,7 @@
       <c r="K12" s="51" t="s">
         <v>2826</v>
       </c>
-      <c r="L12" s="352"/>
+      <c r="L12" s="361"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="95" t="s">
@@ -24869,7 +25080,7 @@
       <c r="K13" s="54">
         <v>222</v>
       </c>
-      <c r="L13" s="352"/>
+      <c r="L13" s="361"/>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="56" t="s">
@@ -28089,7 +28300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P298"/>
   <sheetViews>
@@ -31271,7 +31482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O372"/>
   <sheetViews>
@@ -35071,7 +35282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W1294"/>
   <sheetViews>
@@ -37257,7 +37468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P323"/>
   <sheetViews>
@@ -37821,25 +38032,25 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="105"/>
-      <c r="B29" s="345" t="s">
+      <c r="B29" s="354" t="s">
         <v>2924</v>
       </c>
-      <c r="C29" s="353"/>
-      <c r="D29" s="346"/>
+      <c r="C29" s="362"/>
+      <c r="D29" s="355"/>
       <c r="E29" s="105"/>
       <c r="F29" s="105"/>
-      <c r="G29" s="345" t="s">
+      <c r="G29" s="354" t="s">
         <v>1334</v>
       </c>
-      <c r="H29" s="353"/>
-      <c r="I29" s="346"/>
+      <c r="H29" s="362"/>
+      <c r="I29" s="355"/>
       <c r="J29" s="105"/>
       <c r="K29" s="105"/>
-      <c r="L29" s="345" t="s">
+      <c r="L29" s="354" t="s">
         <v>2925</v>
       </c>
-      <c r="M29" s="353"/>
-      <c r="N29" s="346"/>
+      <c r="M29" s="362"/>
+      <c r="N29" s="355"/>
       <c r="O29" s="105"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1">
@@ -37875,7 +38086,7 @@
       <c r="I31" s="74"/>
       <c r="J31" s="105"/>
       <c r="K31" s="105"/>
-      <c r="L31" s="354" t="s">
+      <c r="L31" s="363" t="s">
         <v>2939</v>
       </c>
       <c r="M31" s="38" t="s">
@@ -37900,7 +38111,7 @@
       <c r="I32" s="74"/>
       <c r="J32" s="105"/>
       <c r="K32" s="105"/>
-      <c r="L32" s="355"/>
+      <c r="L32" s="364"/>
       <c r="M32" s="38" t="s">
         <v>2151</v>
       </c>
@@ -37909,7 +38120,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="105"/>
-      <c r="B33" s="354" t="s">
+      <c r="B33" s="363" t="s">
         <v>2939</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -37925,7 +38136,7 @@
       <c r="I33" s="74"/>
       <c r="J33" s="105"/>
       <c r="K33" s="105"/>
-      <c r="L33" s="355"/>
+      <c r="L33" s="364"/>
       <c r="M33" s="38" t="s">
         <v>2927</v>
       </c>
@@ -37934,7 +38145,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="105"/>
-      <c r="B34" s="355"/>
+      <c r="B34" s="364"/>
       <c r="C34" s="175" t="s">
         <v>2935</v>
       </c>
@@ -37948,7 +38159,7 @@
       <c r="I34" s="74"/>
       <c r="J34" s="105"/>
       <c r="K34" s="105"/>
-      <c r="L34" s="355"/>
+      <c r="L34" s="364"/>
       <c r="M34" s="175" t="s">
         <v>2934</v>
       </c>
@@ -37957,7 +38168,7 @@
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1">
       <c r="A35" s="105"/>
-      <c r="B35" s="356"/>
+      <c r="B35" s="365"/>
       <c r="C35" s="175" t="s">
         <v>2932</v>
       </c>
@@ -37971,7 +38182,7 @@
       <c r="I35" s="74"/>
       <c r="J35" s="105"/>
       <c r="K35" s="105"/>
-      <c r="L35" s="355"/>
+      <c r="L35" s="364"/>
       <c r="M35" s="175" t="s">
         <v>2935</v>
       </c>
@@ -37994,7 +38205,7 @@
       <c r="I36" s="74"/>
       <c r="J36" s="105"/>
       <c r="K36" s="105"/>
-      <c r="L36" s="356"/>
+      <c r="L36" s="365"/>
       <c r="M36" s="175" t="s">
         <v>2932</v>
       </c>
@@ -40536,7 +40747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG319"/>
   <sheetViews>
@@ -40662,49 +40873,49 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="B5" s="357" t="s">
+      <c r="B5" s="366" t="s">
         <v>2944</v>
       </c>
-      <c r="C5" s="357"/>
-      <c r="F5" s="357" t="s">
+      <c r="C5" s="366"/>
+      <c r="F5" s="366" t="s">
         <v>2945</v>
       </c>
-      <c r="G5" s="357"/>
+      <c r="G5" s="366"/>
       <c r="H5" s="38" t="s">
         <v>631</v>
       </c>
-      <c r="I5" s="357" t="s">
+      <c r="I5" s="366" t="s">
         <v>2945</v>
       </c>
-      <c r="J5" s="357"/>
-      <c r="M5" s="357" t="s">
+      <c r="J5" s="366"/>
+      <c r="M5" s="366" t="s">
         <v>2945</v>
       </c>
-      <c r="N5" s="357"/>
+      <c r="N5" s="366"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="B6" s="357" t="s">
+      <c r="B6" s="366" t="s">
         <v>2946</v>
       </c>
-      <c r="C6" s="357"/>
-      <c r="F6" s="357" t="s">
+      <c r="C6" s="366"/>
+      <c r="F6" s="366" t="s">
         <v>2946</v>
       </c>
-      <c r="G6" s="357"/>
-      <c r="I6" s="357" t="s">
+      <c r="G6" s="366"/>
+      <c r="I6" s="366" t="s">
         <v>1511</v>
       </c>
-      <c r="J6" s="357"/>
-      <c r="M6" s="357" t="s">
+      <c r="J6" s="366"/>
+      <c r="M6" s="366" t="s">
         <v>2947</v>
       </c>
-      <c r="N6" s="357"/>
+      <c r="N6" s="366"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="M7" s="357" t="s">
+      <c r="M7" s="366" t="s">
         <v>2950</v>
       </c>
-      <c r="N7" s="357"/>
+      <c r="N7" s="366"/>
     </row>
     <row r="8" spans="1:15">
       <c r="E8" t="s">
@@ -40715,17 +40926,17 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="F9" s="358" t="s">
+      <c r="F9" s="367" t="s">
         <v>2951</v>
       </c>
-      <c r="G9" s="358"/>
-      <c r="H9" s="358"/>
-      <c r="I9" s="358"/>
-      <c r="J9" s="358"/>
-      <c r="K9" s="358"/>
-      <c r="L9" s="358"/>
-      <c r="M9" s="358"/>
-      <c r="N9" s="358"/>
+      <c r="G9" s="367"/>
+      <c r="H9" s="367"/>
+      <c r="I9" s="367"/>
+      <c r="J9" s="367"/>
+      <c r="K9" s="367"/>
+      <c r="L9" s="367"/>
+      <c r="M9" s="367"/>
+      <c r="N9" s="367"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
@@ -41680,10 +41891,10 @@
       </c>
     </row>
     <row r="66" spans="3:17">
-      <c r="C66" s="334" t="s">
+      <c r="C66" s="343" t="s">
         <v>3002</v>
       </c>
-      <c r="D66" s="334"/>
+      <c r="D66" s="343"/>
       <c r="J66" t="s">
         <v>1510</v>
       </c>
@@ -44065,7 +44276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M22"/>
   <sheetViews>
@@ -44440,7 +44651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:U134"/>
   <sheetViews>
@@ -45235,7 +45446,1376 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:S262"/>
+  <sheetViews>
+    <sheetView topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="N212" sqref="N212:N214"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:18">
+      <c r="J3" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1644</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="D6" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="136"/>
+      <c r="R8" s="136"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="H9" t="s">
+        <v>1650</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="K10" s="124" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="I11" t="s">
+        <v>1651</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="G13" s="124" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H13" s="124"/>
+      <c r="J13" s="124" t="s">
+        <v>1820</v>
+      </c>
+      <c r="M13" s="124" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>1630</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>1632</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>1633</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="E15">
+        <v>1010</v>
+      </c>
+      <c r="G15" s="124" t="s">
+        <v>1635</v>
+      </c>
+      <c r="H15" s="124" t="s">
+        <v>1636</v>
+      </c>
+      <c r="J15" s="124" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M15" s="124" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="17" spans="8:13">
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="8:13">
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="8:13">
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="8:13">
+      <c r="H25" t="s">
+        <v>1813</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1815</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="26" spans="8:13">
+      <c r="H26" t="s">
+        <v>1814</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1816</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="E36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="K37" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="K40" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="I45" t="s">
+        <v>201</v>
+      </c>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="I46" t="s">
+        <v>200</v>
+      </c>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q49" s="10"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="C69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="B74" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="C75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="C76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="B81" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="B82" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="B83" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="C84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="B89" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="B90" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="B91" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="B92" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="B96" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="B97" t="s">
+        <v>84</v>
+      </c>
+      <c r="L97" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="B98" t="s">
+        <v>85</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1827</v>
+      </c>
+      <c r="L98" t="s">
+        <v>1828</v>
+      </c>
+      <c r="N98" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="B99" t="s">
+        <v>86</v>
+      </c>
+      <c r="J99" t="s">
+        <v>1813</v>
+      </c>
+      <c r="L99" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="B100" t="s">
+        <v>88</v>
+      </c>
+      <c r="L100" t="s">
+        <v>1830</v>
+      </c>
+      <c r="N100" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="B103" t="s">
+        <v>83</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1830</v>
+      </c>
+      <c r="L103" t="s">
+        <v>1830</v>
+      </c>
+      <c r="P103" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="B104" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="B105" t="s">
+        <v>85</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1835</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1836</v>
+      </c>
+      <c r="L105" t="s">
+        <v>1837</v>
+      </c>
+      <c r="P105" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="B106" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="B107" t="s">
+        <v>88</v>
+      </c>
+      <c r="H107" t="s">
+        <v>1832</v>
+      </c>
+      <c r="L107" t="s">
+        <v>1833</v>
+      </c>
+      <c r="P107" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="B108" t="s">
+        <v>90</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1826</v>
+      </c>
+      <c r="H108" s="29" t="s">
+        <v>1650</v>
+      </c>
+      <c r="L108" s="29" t="s">
+        <v>1823</v>
+      </c>
+      <c r="P108" s="29" t="s">
+        <v>1824</v>
+      </c>
+      <c r="R108" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="B109" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="B110" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="B111" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="B112" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="B113" t="s">
+        <v>93</v>
+      </c>
+      <c r="K113" t="s">
+        <v>34</v>
+      </c>
+      <c r="M113" t="s">
+        <v>2265</v>
+      </c>
+      <c r="O113" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="B114" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="B116" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="B117" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="B122" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="B123" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="B124" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="B128" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="129" spans="2:16">
+      <c r="B129" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="130" spans="2:16">
+      <c r="D130" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="131" spans="2:16">
+      <c r="D131" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="132" spans="2:16">
+      <c r="B132" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16">
+      <c r="B133" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="139" spans="2:16">
+      <c r="D139" t="s">
+        <v>2569</v>
+      </c>
+      <c r="J139" t="s">
+        <v>2570</v>
+      </c>
+      <c r="P139" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="141" spans="2:16">
+      <c r="D141" t="s">
+        <v>2554</v>
+      </c>
+      <c r="J141" t="s">
+        <v>2554</v>
+      </c>
+      <c r="P141" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="142" spans="2:16">
+      <c r="D142" t="s">
+        <v>2555</v>
+      </c>
+      <c r="J142" t="s">
+        <v>2178</v>
+      </c>
+      <c r="P142" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="143" spans="2:16">
+      <c r="D143" t="s">
+        <v>2561</v>
+      </c>
+      <c r="G143" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="144" spans="2:16">
+      <c r="D144" s="195" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="145" spans="2:19">
+      <c r="B145" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2565</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1651</v>
+      </c>
+      <c r="J145" t="s">
+        <v>2565</v>
+      </c>
+      <c r="P145" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="148" spans="2:19">
+      <c r="D148" s="195" t="s">
+        <v>2563</v>
+      </c>
+      <c r="E148" s="29"/>
+      <c r="J148" s="195" t="s">
+        <v>2564</v>
+      </c>
+      <c r="K148" s="195"/>
+      <c r="P148" s="195" t="s">
+        <v>1837</v>
+      </c>
+      <c r="Q148" s="195"/>
+    </row>
+    <row r="150" spans="2:19">
+      <c r="D150" t="s">
+        <v>2566</v>
+      </c>
+      <c r="J150" t="s">
+        <v>2567</v>
+      </c>
+      <c r="P150" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="151" spans="2:19">
+      <c r="D151" s="107" t="s">
+        <v>2568</v>
+      </c>
+      <c r="E151" s="107"/>
+      <c r="F151" s="107"/>
+      <c r="G151" s="107"/>
+      <c r="J151" s="107" t="s">
+        <v>2568</v>
+      </c>
+      <c r="K151" s="107"/>
+      <c r="L151" s="107"/>
+      <c r="M151" s="107"/>
+      <c r="P151" s="107" t="s">
+        <v>2568</v>
+      </c>
+      <c r="Q151" s="107"/>
+      <c r="R151" s="107"/>
+      <c r="S151" s="107"/>
+    </row>
+    <row r="153" spans="2:19">
+      <c r="B153" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="154" spans="2:19">
+      <c r="B154" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D154" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="155" spans="2:19">
+      <c r="B155" t="s">
+        <v>40</v>
+      </c>
+      <c r="D155" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="156" spans="2:19">
+      <c r="B156" t="s">
+        <v>41</v>
+      </c>
+      <c r="D156" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="207" spans="4:11">
+      <c r="D207" s="50">
+        <v>128</v>
+      </c>
+      <c r="E207" s="56">
+        <v>64</v>
+      </c>
+      <c r="F207" s="56">
+        <v>32</v>
+      </c>
+      <c r="G207" s="56">
+        <v>16</v>
+      </c>
+      <c r="H207" s="56">
+        <v>8</v>
+      </c>
+      <c r="I207" s="56">
+        <v>4</v>
+      </c>
+      <c r="J207" s="56">
+        <v>2</v>
+      </c>
+      <c r="K207" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="4:11">
+      <c r="D208" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E208" t="s">
+        <v>32</v>
+      </c>
+      <c r="F208" t="s">
+        <v>31</v>
+      </c>
+      <c r="G208" t="s">
+        <v>30</v>
+      </c>
+      <c r="H208" t="s">
+        <v>29</v>
+      </c>
+      <c r="I208" t="s">
+        <v>28</v>
+      </c>
+      <c r="J208" t="s">
+        <v>27</v>
+      </c>
+      <c r="K208" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209" spans="4:15">
+      <c r="D209" s="133" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E209" s="133" t="s">
+        <v>2548</v>
+      </c>
+      <c r="F209" s="133"/>
+      <c r="G209" s="133"/>
+      <c r="H209" s="133"/>
+      <c r="I209" s="133"/>
+      <c r="J209" s="133" t="s">
+        <v>2549</v>
+      </c>
+      <c r="K209" s="133" t="s">
+        <v>2548</v>
+      </c>
+      <c r="N209">
+        <v>1</v>
+      </c>
+      <c r="O209" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="4:15">
+      <c r="D210" s="267"/>
+      <c r="E210" s="267"/>
+      <c r="F210" s="267"/>
+      <c r="G210" s="267"/>
+      <c r="H210" s="271">
+        <v>1</v>
+      </c>
+      <c r="I210" s="271">
+        <v>1</v>
+      </c>
+      <c r="J210" s="271">
+        <v>0</v>
+      </c>
+      <c r="K210" s="271">
+        <v>0</v>
+      </c>
+      <c r="L210" s="272">
+        <v>12</v>
+      </c>
+      <c r="N210" s="73">
+        <v>0</v>
+      </c>
+      <c r="O210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="4:15">
+      <c r="D211" s="56"/>
+      <c r="E211" s="56"/>
+      <c r="F211" s="56"/>
+      <c r="G211" s="56"/>
+      <c r="H211" s="272">
+        <v>1</v>
+      </c>
+      <c r="I211" s="272">
+        <v>0</v>
+      </c>
+      <c r="J211" s="272">
+        <v>1</v>
+      </c>
+      <c r="K211" s="272">
+        <v>0</v>
+      </c>
+      <c r="L211" s="272">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="4:15">
+      <c r="H212" s="73">
+        <v>1</v>
+      </c>
+      <c r="I212" s="73">
+        <v>0</v>
+      </c>
+      <c r="J212" s="73">
+        <v>0</v>
+      </c>
+      <c r="K212" s="73">
+        <v>0</v>
+      </c>
+      <c r="M212" t="s">
+        <v>2765</v>
+      </c>
+      <c r="N212" s="73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="4:15">
+      <c r="H213" s="73">
+        <v>1</v>
+      </c>
+      <c r="I213" s="73">
+        <v>1</v>
+      </c>
+      <c r="J213" s="73">
+        <v>1</v>
+      </c>
+      <c r="K213" s="73">
+        <v>0</v>
+      </c>
+      <c r="M213" t="s">
+        <v>2766</v>
+      </c>
+      <c r="N213" s="73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="4:15">
+      <c r="H214" s="73">
+        <v>0</v>
+      </c>
+      <c r="I214" s="56">
+        <v>1</v>
+      </c>
+      <c r="J214" s="56">
+        <v>1</v>
+      </c>
+      <c r="K214" s="73">
+        <v>0</v>
+      </c>
+      <c r="M214" t="s">
+        <v>2767</v>
+      </c>
+      <c r="N214" s="73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="4:15">
+      <c r="N217" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="246" spans="3:14" ht="15.75" thickBot="1"/>
+    <row r="247" spans="3:14">
+      <c r="G247" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H247" s="31"/>
+      <c r="I247" s="31"/>
+      <c r="J247" s="31"/>
+      <c r="K247" s="31"/>
+      <c r="L247" s="31"/>
+      <c r="M247" s="31"/>
+      <c r="N247" s="32"/>
+    </row>
+    <row r="248" spans="3:14">
+      <c r="G248" s="33"/>
+      <c r="H248" s="27"/>
+      <c r="I248" s="27"/>
+      <c r="J248" s="27"/>
+      <c r="K248" s="27"/>
+      <c r="L248" s="27"/>
+      <c r="M248" s="27"/>
+      <c r="N248" s="34"/>
+    </row>
+    <row r="249" spans="3:14">
+      <c r="G249" s="33"/>
+      <c r="H249" s="144" t="s">
+        <v>1677</v>
+      </c>
+      <c r="I249" s="27"/>
+      <c r="J249" s="27"/>
+      <c r="K249" s="154" t="s">
+        <v>1681</v>
+      </c>
+      <c r="L249" s="27"/>
+      <c r="M249" s="27"/>
+      <c r="N249" s="34"/>
+    </row>
+    <row r="250" spans="3:14">
+      <c r="G250" s="33"/>
+      <c r="H250" s="27"/>
+      <c r="I250" s="27"/>
+      <c r="J250" s="27"/>
+      <c r="K250" s="27"/>
+      <c r="L250" s="27"/>
+      <c r="M250" s="27"/>
+      <c r="N250" s="34"/>
+    </row>
+    <row r="251" spans="3:14">
+      <c r="G251" s="33"/>
+      <c r="H251" s="27"/>
+      <c r="I251" s="27"/>
+      <c r="J251" s="27"/>
+      <c r="K251" s="27"/>
+      <c r="L251" s="27"/>
+      <c r="M251" s="27"/>
+      <c r="N251" s="34"/>
+    </row>
+    <row r="252" spans="3:14">
+      <c r="E252" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G252" s="33"/>
+      <c r="H252" s="144" t="s">
+        <v>1678</v>
+      </c>
+      <c r="I252" s="27"/>
+      <c r="J252" s="27"/>
+      <c r="K252" s="154" t="s">
+        <v>1682</v>
+      </c>
+      <c r="L252" s="27"/>
+      <c r="M252" s="27"/>
+      <c r="N252" s="34"/>
+    </row>
+    <row r="253" spans="3:14">
+      <c r="C253" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E253" t="s">
+        <v>1689</v>
+      </c>
+      <c r="G253" s="33"/>
+      <c r="H253" s="27"/>
+      <c r="I253" s="27"/>
+      <c r="J253" s="27"/>
+      <c r="K253" s="27"/>
+      <c r="L253" s="27"/>
+      <c r="M253" s="27"/>
+      <c r="N253" s="34"/>
+    </row>
+    <row r="254" spans="3:14">
+      <c r="G254" s="33"/>
+      <c r="H254" s="27"/>
+      <c r="I254" s="27"/>
+      <c r="J254" s="27"/>
+      <c r="K254" s="154" t="s">
+        <v>1683</v>
+      </c>
+      <c r="L254" s="27"/>
+      <c r="M254" s="27"/>
+      <c r="N254" s="34"/>
+    </row>
+    <row r="255" spans="3:14">
+      <c r="C255" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E255" t="s">
+        <v>1690</v>
+      </c>
+      <c r="G255" s="33"/>
+      <c r="H255" s="144" t="s">
+        <v>1679</v>
+      </c>
+      <c r="I255" s="27"/>
+      <c r="J255" s="27"/>
+      <c r="K255" s="27"/>
+      <c r="L255" s="27"/>
+      <c r="M255" s="27"/>
+      <c r="N255" s="34"/>
+    </row>
+    <row r="256" spans="3:14">
+      <c r="G256" s="33"/>
+      <c r="H256" s="27"/>
+      <c r="I256" s="27"/>
+      <c r="J256" s="27"/>
+      <c r="K256" s="27"/>
+      <c r="L256" s="27"/>
+      <c r="M256" s="27"/>
+      <c r="N256" s="34"/>
+    </row>
+    <row r="257" spans="7:14">
+      <c r="G257" s="33"/>
+      <c r="H257" s="27"/>
+      <c r="I257" s="27"/>
+      <c r="J257" s="27"/>
+      <c r="K257" s="27"/>
+      <c r="L257" s="27"/>
+      <c r="M257" s="27"/>
+      <c r="N257" s="34"/>
+    </row>
+    <row r="258" spans="7:14">
+      <c r="G258" s="33"/>
+      <c r="H258" s="144" t="s">
+        <v>1680</v>
+      </c>
+      <c r="I258" s="27"/>
+      <c r="J258" s="27"/>
+      <c r="K258" s="27"/>
+      <c r="L258" s="27"/>
+      <c r="M258" s="27"/>
+      <c r="N258" s="34"/>
+    </row>
+    <row r="259" spans="7:14">
+      <c r="G259" s="33"/>
+      <c r="H259" s="27"/>
+      <c r="I259" s="27"/>
+      <c r="J259" s="27"/>
+      <c r="K259" s="27"/>
+      <c r="L259" s="27"/>
+      <c r="M259" s="27"/>
+      <c r="N259" s="34"/>
+    </row>
+    <row r="260" spans="7:14">
+      <c r="G260" s="33"/>
+      <c r="H260" s="27"/>
+      <c r="I260" s="27"/>
+      <c r="J260" s="27"/>
+      <c r="K260" s="27"/>
+      <c r="L260" s="27"/>
+      <c r="M260" s="27"/>
+      <c r="N260" s="34"/>
+    </row>
+    <row r="261" spans="7:14">
+      <c r="G261" s="33"/>
+      <c r="H261" s="27"/>
+      <c r="I261" s="27"/>
+      <c r="J261" s="27"/>
+      <c r="K261" s="27"/>
+      <c r="L261" s="27"/>
+      <c r="M261" s="27"/>
+      <c r="N261" s="34"/>
+    </row>
+    <row r="262" spans="7:14" ht="15.75" thickBot="1">
+      <c r="G262" s="35" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H262" s="36"/>
+      <c r="I262" s="36" t="s">
+        <v>1687</v>
+      </c>
+      <c r="J262" s="36"/>
+      <c r="K262" s="36"/>
+      <c r="L262" s="36"/>
+      <c r="M262" s="36"/>
+      <c r="N262" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S54"/>
   <sheetViews>
@@ -45372,11 +46952,11 @@
       <c r="L6" s="42" t="s">
         <v>1575</v>
       </c>
-      <c r="M6" s="359" t="s">
+      <c r="M6" s="368" t="s">
         <v>1576</v>
       </c>
-      <c r="N6" s="359"/>
-      <c r="O6" s="359"/>
+      <c r="N6" s="368"/>
+      <c r="O6" s="368"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -45784,1376 +47364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:S262"/>
-  <sheetViews>
-    <sheetView topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="N212" sqref="N212:N214"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="3" spans="1:18">
-      <c r="J3" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1644</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="D6" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="136"/>
-      <c r="P8" s="136"/>
-      <c r="Q8" s="136"/>
-      <c r="R8" s="136"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="H9" t="s">
-        <v>1650</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="K10" s="124" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="I11" t="s">
-        <v>1651</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="G13" s="124" t="s">
-        <v>1819</v>
-      </c>
-      <c r="H13" s="124"/>
-      <c r="J13" s="124" t="s">
-        <v>1820</v>
-      </c>
-      <c r="M13" s="124" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>1630</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>1632</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>1633</v>
-      </c>
-      <c r="M14" s="29" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="E15">
-        <v>1010</v>
-      </c>
-      <c r="G15" s="124" t="s">
-        <v>1635</v>
-      </c>
-      <c r="H15" s="124" t="s">
-        <v>1636</v>
-      </c>
-      <c r="J15" s="124" t="s">
-        <v>1649</v>
-      </c>
-      <c r="M15" s="124" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="17" spans="8:13">
-      <c r="H17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="8:13">
-      <c r="H19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="8:13">
-      <c r="H21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="8:13">
-      <c r="H25" t="s">
-        <v>1813</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1815</v>
-      </c>
-      <c r="M25" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="26" spans="8:13">
-      <c r="H26" t="s">
-        <v>1814</v>
-      </c>
-      <c r="J26" t="s">
-        <v>1816</v>
-      </c>
-      <c r="M26" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="E36" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="K37" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="K40" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" t="s">
-        <v>50</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" t="s">
-        <v>51</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" t="s">
-        <v>52</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="I45" t="s">
-        <v>201</v>
-      </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" t="s">
-        <v>53</v>
-      </c>
-      <c r="I46" t="s">
-        <v>200</v>
-      </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" t="s">
-        <v>54</v>
-      </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" t="s">
-        <v>55</v>
-      </c>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q49" s="10"/>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="B50" t="s">
-        <v>56</v>
-      </c>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="B51" t="s">
-        <v>57</v>
-      </c>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" t="s">
-        <v>58</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="L53" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="B54" t="s">
-        <v>59</v>
-      </c>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="B55" t="s">
-        <v>60</v>
-      </c>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" t="s">
-        <v>61</v>
-      </c>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" t="s">
-        <v>62</v>
-      </c>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" t="s">
-        <v>63</v>
-      </c>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="B60" t="s">
-        <v>64</v>
-      </c>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="B61" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="B62" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="C63" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="B66" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="B67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="B68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="C69" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="B72" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="B73" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="B74" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="C75" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="C76" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="B81" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="B82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="B83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="C84" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="B89" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="B90" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="B91" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="B92" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="B96" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18">
-      <c r="B97" t="s">
-        <v>84</v>
-      </c>
-      <c r="L97" t="s">
-        <v>1822</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18">
-      <c r="B98" t="s">
-        <v>85</v>
-      </c>
-      <c r="J98" t="s">
-        <v>1827</v>
-      </c>
-      <c r="L98" t="s">
-        <v>1828</v>
-      </c>
-      <c r="N98" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18">
-      <c r="B99" t="s">
-        <v>86</v>
-      </c>
-      <c r="J99" t="s">
-        <v>1813</v>
-      </c>
-      <c r="L99" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18">
-      <c r="B100" t="s">
-        <v>88</v>
-      </c>
-      <c r="L100" t="s">
-        <v>1830</v>
-      </c>
-      <c r="N100" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18">
-      <c r="A102" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18">
-      <c r="B103" t="s">
-        <v>83</v>
-      </c>
-      <c r="H103" t="s">
-        <v>1830</v>
-      </c>
-      <c r="L103" t="s">
-        <v>1830</v>
-      </c>
-      <c r="P103" t="s">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18">
-      <c r="B104" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18">
-      <c r="B105" t="s">
-        <v>85</v>
-      </c>
-      <c r="F105" t="s">
-        <v>1835</v>
-      </c>
-      <c r="H105" t="s">
-        <v>1836</v>
-      </c>
-      <c r="L105" t="s">
-        <v>1837</v>
-      </c>
-      <c r="P105" t="s">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18">
-      <c r="B106" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18">
-      <c r="B107" t="s">
-        <v>88</v>
-      </c>
-      <c r="H107" t="s">
-        <v>1832</v>
-      </c>
-      <c r="L107" t="s">
-        <v>1833</v>
-      </c>
-      <c r="P107" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18">
-      <c r="B108" t="s">
-        <v>90</v>
-      </c>
-      <c r="E108" t="s">
-        <v>1826</v>
-      </c>
-      <c r="H108" s="29" t="s">
-        <v>1650</v>
-      </c>
-      <c r="L108" s="29" t="s">
-        <v>1823</v>
-      </c>
-      <c r="P108" s="29" t="s">
-        <v>1824</v>
-      </c>
-      <c r="R108" t="s">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18">
-      <c r="B109" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18">
-      <c r="B110" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18">
-      <c r="B111" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18">
-      <c r="B112" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
-      <c r="B113" t="s">
-        <v>93</v>
-      </c>
-      <c r="K113" t="s">
-        <v>34</v>
-      </c>
-      <c r="M113" t="s">
-        <v>2265</v>
-      </c>
-      <c r="O113" t="s">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
-      <c r="B114" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
-      <c r="B116" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
-      <c r="B117" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
-      <c r="A118" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
-      <c r="A121" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
-      <c r="B122" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="B123" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
-      <c r="B124" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
-      <c r="A127" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
-      <c r="B128" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="129" spans="2:16">
-      <c r="B129" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="130" spans="2:16">
-      <c r="D130" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="131" spans="2:16">
-      <c r="D131" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="132" spans="2:16">
-      <c r="B132" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="133" spans="2:16">
-      <c r="B133" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="139" spans="2:16">
-      <c r="D139" t="s">
-        <v>2569</v>
-      </c>
-      <c r="J139" t="s">
-        <v>2570</v>
-      </c>
-      <c r="P139" t="s">
-        <v>2571</v>
-      </c>
-    </row>
-    <row r="141" spans="2:16">
-      <c r="D141" t="s">
-        <v>2554</v>
-      </c>
-      <c r="J141" t="s">
-        <v>2554</v>
-      </c>
-      <c r="P141" t="s">
-        <v>2554</v>
-      </c>
-    </row>
-    <row r="142" spans="2:16">
-      <c r="D142" t="s">
-        <v>2555</v>
-      </c>
-      <c r="J142" t="s">
-        <v>2178</v>
-      </c>
-      <c r="P142" t="s">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="143" spans="2:16">
-      <c r="D143" t="s">
-        <v>2561</v>
-      </c>
-      <c r="G143" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="144" spans="2:16">
-      <c r="D144" s="195" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="145" spans="2:19">
-      <c r="B145" t="s">
-        <v>2562</v>
-      </c>
-      <c r="D145" t="s">
-        <v>2565</v>
-      </c>
-      <c r="G145" t="s">
-        <v>1651</v>
-      </c>
-      <c r="J145" t="s">
-        <v>2565</v>
-      </c>
-      <c r="P145" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="148" spans="2:19">
-      <c r="D148" s="195" t="s">
-        <v>2563</v>
-      </c>
-      <c r="E148" s="29"/>
-      <c r="J148" s="195" t="s">
-        <v>2564</v>
-      </c>
-      <c r="K148" s="195"/>
-      <c r="P148" s="195" t="s">
-        <v>1837</v>
-      </c>
-      <c r="Q148" s="195"/>
-    </row>
-    <row r="150" spans="2:19">
-      <c r="D150" t="s">
-        <v>2566</v>
-      </c>
-      <c r="J150" t="s">
-        <v>2567</v>
-      </c>
-      <c r="P150" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="151" spans="2:19">
-      <c r="D151" s="107" t="s">
-        <v>2568</v>
-      </c>
-      <c r="E151" s="107"/>
-      <c r="F151" s="107"/>
-      <c r="G151" s="107"/>
-      <c r="J151" s="107" t="s">
-        <v>2568</v>
-      </c>
-      <c r="K151" s="107"/>
-      <c r="L151" s="107"/>
-      <c r="M151" s="107"/>
-      <c r="P151" s="107" t="s">
-        <v>2568</v>
-      </c>
-      <c r="Q151" s="107"/>
-      <c r="R151" s="107"/>
-      <c r="S151" s="107"/>
-    </row>
-    <row r="153" spans="2:19">
-      <c r="B153" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C153" t="s">
-        <v>2556</v>
-      </c>
-    </row>
-    <row r="154" spans="2:19">
-      <c r="B154" t="s">
-        <v>2557</v>
-      </c>
-      <c r="D154" t="s">
-        <v>2558</v>
-      </c>
-    </row>
-    <row r="155" spans="2:19">
-      <c r="B155" t="s">
-        <v>40</v>
-      </c>
-      <c r="D155" t="s">
-        <v>2559</v>
-      </c>
-    </row>
-    <row r="156" spans="2:19">
-      <c r="B156" t="s">
-        <v>41</v>
-      </c>
-      <c r="D156" t="s">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="207" spans="4:11">
-      <c r="D207" s="50">
-        <v>128</v>
-      </c>
-      <c r="E207" s="56">
-        <v>64</v>
-      </c>
-      <c r="F207" s="56">
-        <v>32</v>
-      </c>
-      <c r="G207" s="56">
-        <v>16</v>
-      </c>
-      <c r="H207" s="56">
-        <v>8</v>
-      </c>
-      <c r="I207" s="56">
-        <v>4</v>
-      </c>
-      <c r="J207" s="56">
-        <v>2</v>
-      </c>
-      <c r="K207" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="4:11">
-      <c r="D208" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E208" t="s">
-        <v>32</v>
-      </c>
-      <c r="F208" t="s">
-        <v>31</v>
-      </c>
-      <c r="G208" t="s">
-        <v>30</v>
-      </c>
-      <c r="H208" t="s">
-        <v>29</v>
-      </c>
-      <c r="I208" t="s">
-        <v>28</v>
-      </c>
-      <c r="J208" t="s">
-        <v>27</v>
-      </c>
-      <c r="K208" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="209" spans="4:15">
-      <c r="D209" s="133" t="s">
-        <v>2549</v>
-      </c>
-      <c r="E209" s="133" t="s">
-        <v>2548</v>
-      </c>
-      <c r="F209" s="133"/>
-      <c r="G209" s="133"/>
-      <c r="H209" s="133"/>
-      <c r="I209" s="133"/>
-      <c r="J209" s="133" t="s">
-        <v>2549</v>
-      </c>
-      <c r="K209" s="133" t="s">
-        <v>2548</v>
-      </c>
-      <c r="N209">
-        <v>1</v>
-      </c>
-      <c r="O209" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="4:15">
-      <c r="D210" s="267"/>
-      <c r="E210" s="267"/>
-      <c r="F210" s="267"/>
-      <c r="G210" s="267"/>
-      <c r="H210" s="271">
-        <v>1</v>
-      </c>
-      <c r="I210" s="271">
-        <v>1</v>
-      </c>
-      <c r="J210" s="271">
-        <v>0</v>
-      </c>
-      <c r="K210" s="271">
-        <v>0</v>
-      </c>
-      <c r="L210" s="272">
-        <v>12</v>
-      </c>
-      <c r="N210" s="73">
-        <v>0</v>
-      </c>
-      <c r="O210" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="4:15">
-      <c r="D211" s="56"/>
-      <c r="E211" s="56"/>
-      <c r="F211" s="56"/>
-      <c r="G211" s="56"/>
-      <c r="H211" s="272">
-        <v>1</v>
-      </c>
-      <c r="I211" s="272">
-        <v>0</v>
-      </c>
-      <c r="J211" s="272">
-        <v>1</v>
-      </c>
-      <c r="K211" s="272">
-        <v>0</v>
-      </c>
-      <c r="L211" s="272">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="212" spans="4:15">
-      <c r="H212" s="73">
-        <v>1</v>
-      </c>
-      <c r="I212" s="73">
-        <v>0</v>
-      </c>
-      <c r="J212" s="73">
-        <v>0</v>
-      </c>
-      <c r="K212" s="73">
-        <v>0</v>
-      </c>
-      <c r="M212" t="s">
-        <v>2765</v>
-      </c>
-      <c r="N212" s="73">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="213" spans="4:15">
-      <c r="H213" s="73">
-        <v>1</v>
-      </c>
-      <c r="I213" s="73">
-        <v>1</v>
-      </c>
-      <c r="J213" s="73">
-        <v>1</v>
-      </c>
-      <c r="K213" s="73">
-        <v>0</v>
-      </c>
-      <c r="M213" t="s">
-        <v>2766</v>
-      </c>
-      <c r="N213" s="73">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="214" spans="4:15">
-      <c r="H214" s="73">
-        <v>0</v>
-      </c>
-      <c r="I214" s="56">
-        <v>1</v>
-      </c>
-      <c r="J214" s="56">
-        <v>1</v>
-      </c>
-      <c r="K214" s="73">
-        <v>0</v>
-      </c>
-      <c r="M214" t="s">
-        <v>2767</v>
-      </c>
-      <c r="N214" s="73">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="217" spans="4:15">
-      <c r="N217" t="s">
-        <v>2768</v>
-      </c>
-    </row>
-    <row r="246" spans="3:14" ht="15.75" thickBot="1"/>
-    <row r="247" spans="3:14">
-      <c r="G247" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H247" s="31"/>
-      <c r="I247" s="31"/>
-      <c r="J247" s="31"/>
-      <c r="K247" s="31"/>
-      <c r="L247" s="31"/>
-      <c r="M247" s="31"/>
-      <c r="N247" s="32"/>
-    </row>
-    <row r="248" spans="3:14">
-      <c r="G248" s="33"/>
-      <c r="H248" s="27"/>
-      <c r="I248" s="27"/>
-      <c r="J248" s="27"/>
-      <c r="K248" s="27"/>
-      <c r="L248" s="27"/>
-      <c r="M248" s="27"/>
-      <c r="N248" s="34"/>
-    </row>
-    <row r="249" spans="3:14">
-      <c r="G249" s="33"/>
-      <c r="H249" s="144" t="s">
-        <v>1677</v>
-      </c>
-      <c r="I249" s="27"/>
-      <c r="J249" s="27"/>
-      <c r="K249" s="154" t="s">
-        <v>1681</v>
-      </c>
-      <c r="L249" s="27"/>
-      <c r="M249" s="27"/>
-      <c r="N249" s="34"/>
-    </row>
-    <row r="250" spans="3:14">
-      <c r="G250" s="33"/>
-      <c r="H250" s="27"/>
-      <c r="I250" s="27"/>
-      <c r="J250" s="27"/>
-      <c r="K250" s="27"/>
-      <c r="L250" s="27"/>
-      <c r="M250" s="27"/>
-      <c r="N250" s="34"/>
-    </row>
-    <row r="251" spans="3:14">
-      <c r="G251" s="33"/>
-      <c r="H251" s="27"/>
-      <c r="I251" s="27"/>
-      <c r="J251" s="27"/>
-      <c r="K251" s="27"/>
-      <c r="L251" s="27"/>
-      <c r="M251" s="27"/>
-      <c r="N251" s="34"/>
-    </row>
-    <row r="252" spans="3:14">
-      <c r="E252" t="s">
-        <v>1688</v>
-      </c>
-      <c r="G252" s="33"/>
-      <c r="H252" s="144" t="s">
-        <v>1678</v>
-      </c>
-      <c r="I252" s="27"/>
-      <c r="J252" s="27"/>
-      <c r="K252" s="154" t="s">
-        <v>1682</v>
-      </c>
-      <c r="L252" s="27"/>
-      <c r="M252" s="27"/>
-      <c r="N252" s="34"/>
-    </row>
-    <row r="253" spans="3:14">
-      <c r="C253" t="s">
-        <v>1685</v>
-      </c>
-      <c r="E253" t="s">
-        <v>1689</v>
-      </c>
-      <c r="G253" s="33"/>
-      <c r="H253" s="27"/>
-      <c r="I253" s="27"/>
-      <c r="J253" s="27"/>
-      <c r="K253" s="27"/>
-      <c r="L253" s="27"/>
-      <c r="M253" s="27"/>
-      <c r="N253" s="34"/>
-    </row>
-    <row r="254" spans="3:14">
-      <c r="G254" s="33"/>
-      <c r="H254" s="27"/>
-      <c r="I254" s="27"/>
-      <c r="J254" s="27"/>
-      <c r="K254" s="154" t="s">
-        <v>1683</v>
-      </c>
-      <c r="L254" s="27"/>
-      <c r="M254" s="27"/>
-      <c r="N254" s="34"/>
-    </row>
-    <row r="255" spans="3:14">
-      <c r="C255" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E255" t="s">
-        <v>1690</v>
-      </c>
-      <c r="G255" s="33"/>
-      <c r="H255" s="144" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I255" s="27"/>
-      <c r="J255" s="27"/>
-      <c r="K255" s="27"/>
-      <c r="L255" s="27"/>
-      <c r="M255" s="27"/>
-      <c r="N255" s="34"/>
-    </row>
-    <row r="256" spans="3:14">
-      <c r="G256" s="33"/>
-      <c r="H256" s="27"/>
-      <c r="I256" s="27"/>
-      <c r="J256" s="27"/>
-      <c r="K256" s="27"/>
-      <c r="L256" s="27"/>
-      <c r="M256" s="27"/>
-      <c r="N256" s="34"/>
-    </row>
-    <row r="257" spans="7:14">
-      <c r="G257" s="33"/>
-      <c r="H257" s="27"/>
-      <c r="I257" s="27"/>
-      <c r="J257" s="27"/>
-      <c r="K257" s="27"/>
-      <c r="L257" s="27"/>
-      <c r="M257" s="27"/>
-      <c r="N257" s="34"/>
-    </row>
-    <row r="258" spans="7:14">
-      <c r="G258" s="33"/>
-      <c r="H258" s="144" t="s">
-        <v>1680</v>
-      </c>
-      <c r="I258" s="27"/>
-      <c r="J258" s="27"/>
-      <c r="K258" s="27"/>
-      <c r="L258" s="27"/>
-      <c r="M258" s="27"/>
-      <c r="N258" s="34"/>
-    </row>
-    <row r="259" spans="7:14">
-      <c r="G259" s="33"/>
-      <c r="H259" s="27"/>
-      <c r="I259" s="27"/>
-      <c r="J259" s="27"/>
-      <c r="K259" s="27"/>
-      <c r="L259" s="27"/>
-      <c r="M259" s="27"/>
-      <c r="N259" s="34"/>
-    </row>
-    <row r="260" spans="7:14">
-      <c r="G260" s="33"/>
-      <c r="H260" s="27"/>
-      <c r="I260" s="27"/>
-      <c r="J260" s="27"/>
-      <c r="K260" s="27"/>
-      <c r="L260" s="27"/>
-      <c r="M260" s="27"/>
-      <c r="N260" s="34"/>
-    </row>
-    <row r="261" spans="7:14">
-      <c r="G261" s="33"/>
-      <c r="H261" s="27"/>
-      <c r="I261" s="27"/>
-      <c r="J261" s="27"/>
-      <c r="K261" s="27"/>
-      <c r="L261" s="27"/>
-      <c r="M261" s="27"/>
-      <c r="N261" s="34"/>
-    </row>
-    <row r="262" spans="7:14" ht="15.75" thickBot="1">
-      <c r="G262" s="35" t="s">
-        <v>1684</v>
-      </c>
-      <c r="H262" s="36"/>
-      <c r="I262" s="36" t="s">
-        <v>1687</v>
-      </c>
-      <c r="J262" s="36"/>
-      <c r="K262" s="36"/>
-      <c r="L262" s="36"/>
-      <c r="M262" s="36"/>
-      <c r="N262" s="37"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:P115"/>
   <sheetViews>
@@ -49122,7 +49333,7 @@
       <c r="F269" s="39">
         <v>9</v>
       </c>
-      <c r="G269" s="347" t="s">
+      <c r="G269" s="356" t="s">
         <v>2647</v>
       </c>
       <c r="I269" s="55" t="s">
@@ -49143,7 +49354,7 @@
       <c r="F270" s="39">
         <v>15</v>
       </c>
-      <c r="G270" s="348"/>
+      <c r="G270" s="357"/>
       <c r="I270" s="169" t="s">
         <v>2643</v>
       </c>
@@ -50761,23 +50972,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="350" t="s">
+      <c r="A1" s="359" t="s">
         <v>2656</v>
       </c>
-      <c r="B1" s="350"/>
-      <c r="C1" s="350"/>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="350"/>
-      <c r="I1" s="350" t="s">
+      <c r="B1" s="359"/>
+      <c r="C1" s="359"/>
+      <c r="D1" s="359"/>
+      <c r="E1" s="359"/>
+      <c r="F1" s="359"/>
+      <c r="I1" s="359" t="s">
         <v>2668</v>
       </c>
-      <c r="J1" s="350"/>
-      <c r="K1" s="350"/>
-      <c r="L1" s="350"/>
-      <c r="M1" s="350"/>
-      <c r="N1" s="350"/>
-      <c r="O1" s="350"/>
+      <c r="J1" s="359"/>
+      <c r="K1" s="359"/>
+      <c r="L1" s="359"/>
+      <c r="M1" s="359"/>
+      <c r="N1" s="359"/>
+      <c r="O1" s="359"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -50933,28 +51144,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="343" t="s">
+      <c r="A12" s="352" t="s">
         <v>2670</v>
       </c>
-      <c r="B12" s="349"/>
-      <c r="C12" s="349"/>
-      <c r="D12" s="349"/>
-      <c r="E12" s="349"/>
-      <c r="F12" s="349"/>
-      <c r="G12" s="349"/>
-      <c r="H12" s="344"/>
-      <c r="I12" s="343" t="s">
+      <c r="B12" s="358"/>
+      <c r="C12" s="358"/>
+      <c r="D12" s="358"/>
+      <c r="E12" s="358"/>
+      <c r="F12" s="358"/>
+      <c r="G12" s="358"/>
+      <c r="H12" s="353"/>
+      <c r="I12" s="352" t="s">
         <v>2670</v>
       </c>
-      <c r="J12" s="349"/>
-      <c r="K12" s="349"/>
-      <c r="L12" s="349"/>
-      <c r="M12" s="349"/>
-      <c r="N12" s="349"/>
-      <c r="O12" s="349"/>
-      <c r="P12" s="349"/>
-      <c r="Q12" s="349"/>
-      <c r="R12" s="344"/>
+      <c r="J12" s="358"/>
+      <c r="K12" s="358"/>
+      <c r="L12" s="358"/>
+      <c r="M12" s="358"/>
+      <c r="N12" s="358"/>
+      <c r="O12" s="358"/>
+      <c r="P12" s="358"/>
+      <c r="Q12" s="358"/>
+      <c r="R12" s="353"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="30" t="s">
@@ -51182,14 +51393,14 @@
       <c r="R21" s="37"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="350" t="s">
+      <c r="A24" s="359" t="s">
         <v>2656</v>
       </c>
-      <c r="B24" s="350"/>
-      <c r="C24" s="350"/>
-      <c r="D24" s="350"/>
-      <c r="E24" s="350"/>
-      <c r="F24" s="350"/>
+      <c r="B24" s="359"/>
+      <c r="C24" s="359"/>
+      <c r="D24" s="359"/>
+      <c r="E24" s="359"/>
+      <c r="F24" s="359"/>
       <c r="H24" s="258" t="s">
         <v>2668</v>
       </c>
@@ -51199,11 +51410,11 @@
       <c r="L24" s="258"/>
       <c r="M24" s="258"/>
       <c r="N24" s="258"/>
-      <c r="P24" s="350" t="s">
+      <c r="P24" s="359" t="s">
         <v>2709</v>
       </c>
-      <c r="Q24" s="350"/>
-      <c r="R24" s="350"/>
+      <c r="Q24" s="359"/>
+      <c r="R24" s="359"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="105" t="s">
@@ -51443,28 +51654,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="343" t="s">
+      <c r="A35" s="352" t="s">
         <v>2710</v>
       </c>
-      <c r="B35" s="349"/>
-      <c r="C35" s="349"/>
-      <c r="D35" s="349"/>
-      <c r="E35" s="349"/>
-      <c r="F35" s="349"/>
-      <c r="G35" s="349"/>
-      <c r="H35" s="344"/>
-      <c r="I35" s="343" t="s">
+      <c r="B35" s="358"/>
+      <c r="C35" s="358"/>
+      <c r="D35" s="358"/>
+      <c r="E35" s="358"/>
+      <c r="F35" s="358"/>
+      <c r="G35" s="358"/>
+      <c r="H35" s="353"/>
+      <c r="I35" s="352" t="s">
         <v>1110</v>
       </c>
-      <c r="J35" s="349"/>
-      <c r="K35" s="349"/>
-      <c r="L35" s="349"/>
-      <c r="M35" s="349"/>
-      <c r="N35" s="349"/>
-      <c r="O35" s="349"/>
-      <c r="P35" s="349"/>
-      <c r="Q35" s="349"/>
-      <c r="R35" s="344"/>
+      <c r="J35" s="358"/>
+      <c r="K35" s="358"/>
+      <c r="L35" s="358"/>
+      <c r="M35" s="358"/>
+      <c r="N35" s="358"/>
+      <c r="O35" s="358"/>
+      <c r="P35" s="358"/>
+      <c r="Q35" s="358"/>
+      <c r="R35" s="353"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="30" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -10609,6 +10609,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10628,24 +10656,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10678,25 +10688,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11030,13 +11030,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="342" t="s">
+      <c r="H3" s="354" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="343"/>
-      <c r="J3" s="343"/>
-      <c r="K3" s="343"/>
-      <c r="L3" s="344"/>
+      <c r="I3" s="355"/>
+      <c r="J3" s="355"/>
+      <c r="K3" s="355"/>
+      <c r="L3" s="356"/>
       <c r="P3" t="s">
         <v>2765</v>
       </c>
@@ -11047,7 +11047,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D5" s="350" t="s">
+      <c r="D5" s="349" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -11065,25 +11065,25 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D6" s="350"/>
+      <c r="D6" s="349"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="345" t="s">
+      <c r="G6" s="357" t="s">
         <v>1485</v>
       </c>
-      <c r="H6" s="346"/>
+      <c r="H6" s="358"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="345" t="s">
+      <c r="J6" s="357" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="346"/>
+      <c r="K6" s="358"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="345" t="s">
+      <c r="M6" s="357" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="346"/>
+      <c r="N6" s="358"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D7" s="350"/>
+      <c r="D7" s="349"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -11098,29 +11098,29 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="D8" s="350"/>
+      <c r="D8" s="349"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="347" t="s">
+      <c r="G8" s="359" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="348"/>
+      <c r="H8" s="360"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="347" t="s">
+      <c r="J8" s="359" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="348"/>
+      <c r="K8" s="360"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="347" t="s">
+      <c r="M8" s="359" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="348"/>
+      <c r="N8" s="360"/>
       <c r="P8" t="s">
         <v>2716</v>
       </c>
       <c r="Q8" s="141"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="D9" s="350"/>
+      <c r="D9" s="349"/>
       <c r="F9" s="4"/>
       <c r="G9" s="242"/>
       <c r="H9" s="242"/>
@@ -11133,7 +11133,7 @@
       <c r="Q9" s="141"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="D10" s="350"/>
+      <c r="D10" s="349"/>
       <c r="F10" s="4"/>
       <c r="G10" s="242"/>
       <c r="H10" s="242"/>
@@ -11146,7 +11146,7 @@
       <c r="Q10" s="141"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="D11" s="350"/>
+      <c r="D11" s="349"/>
       <c r="F11" s="4"/>
       <c r="G11" s="242"/>
       <c r="H11" s="242"/>
@@ -11159,31 +11159,31 @@
       <c r="Q11" s="141"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="D12" s="350"/>
-      <c r="F12" s="351" t="s">
+      <c r="D12" s="349"/>
+      <c r="F12" s="350" t="s">
         <v>2271</v>
       </c>
-      <c r="G12" s="352"/>
-      <c r="H12" s="352"/>
-      <c r="I12" s="352"/>
-      <c r="J12" s="352"/>
-      <c r="K12" s="352"/>
-      <c r="L12" s="352"/>
-      <c r="M12" s="352"/>
-      <c r="N12" s="352"/>
+      <c r="G12" s="351"/>
+      <c r="H12" s="351"/>
+      <c r="I12" s="351"/>
+      <c r="J12" s="351"/>
+      <c r="K12" s="351"/>
+      <c r="L12" s="351"/>
+      <c r="M12" s="351"/>
+      <c r="N12" s="351"/>
       <c r="Q12" s="141"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D13" s="350"/>
-      <c r="F13" s="353"/>
-      <c r="G13" s="354"/>
-      <c r="H13" s="354"/>
-      <c r="I13" s="354"/>
-      <c r="J13" s="354"/>
-      <c r="K13" s="354"/>
-      <c r="L13" s="354"/>
-      <c r="M13" s="354"/>
-      <c r="N13" s="354"/>
+      <c r="D13" s="349"/>
+      <c r="F13" s="352"/>
+      <c r="G13" s="353"/>
+      <c r="H13" s="353"/>
+      <c r="I13" s="353"/>
+      <c r="J13" s="353"/>
+      <c r="K13" s="353"/>
+      <c r="L13" s="353"/>
+      <c r="M13" s="353"/>
+      <c r="N13" s="353"/>
       <c r="P13" t="s">
         <v>2713</v>
       </c>
@@ -11192,7 +11192,7 @@
       <c r="A14" t="s">
         <v>2261</v>
       </c>
-      <c r="D14" s="350"/>
+      <c r="D14" s="349"/>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -11204,7 +11204,7 @@
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D15" s="350"/>
+      <c r="D15" s="349"/>
       <c r="F15" s="23" t="s">
         <v>7</v>
       </c>
@@ -11220,7 +11220,7 @@
       <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="D16" s="350" t="s">
+      <c r="D16" s="349" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="138"/>
@@ -11234,7 +11234,7 @@
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="D17" s="350"/>
+      <c r="D17" s="349"/>
       <c r="E17" t="s">
         <v>1487</v>
       </c>
@@ -11257,7 +11257,7 @@
       <c r="N17" s="18"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="350"/>
+      <c r="D18" s="349"/>
       <c r="F18" s="140"/>
       <c r="G18" s="135" t="s">
         <v>11</v>
@@ -11276,7 +11276,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="D19" s="350"/>
+      <c r="D19" s="349"/>
       <c r="F19" s="138"/>
       <c r="G19" s="135" t="s">
         <v>12</v>
@@ -11293,7 +11293,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="D20" s="350"/>
+      <c r="D20" s="349"/>
       <c r="F20" s="139"/>
       <c r="G20" s="19"/>
       <c r="H20" s="17"/>
@@ -11313,7 +11313,7 @@
       <c r="Q20" s="141"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="D21" s="350"/>
+      <c r="D21" s="349"/>
       <c r="E21" t="s">
         <v>1488</v>
       </c>
@@ -11332,7 +11332,7 @@
       <c r="N21" s="18"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D22" s="350"/>
+      <c r="D22" s="349"/>
       <c r="F22" s="140"/>
       <c r="G22" s="17" t="s">
         <v>16</v>
@@ -11346,7 +11346,7 @@
       <c r="N22" s="18"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="D23" s="350"/>
+      <c r="D23" s="349"/>
       <c r="F23" s="139"/>
       <c r="G23" s="17" t="s">
         <v>2255</v>
@@ -11370,7 +11370,7 @@
       <c r="B24" s="38" t="s">
         <v>2742</v>
       </c>
-      <c r="D24" s="350"/>
+      <c r="D24" s="349"/>
       <c r="F24" s="139" t="s">
         <v>21</v>
       </c>
@@ -11396,7 +11396,7 @@
       <c r="B25" s="38" t="s">
         <v>2740</v>
       </c>
-      <c r="D25" s="350"/>
+      <c r="D25" s="349"/>
       <c r="F25" s="140"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
@@ -12362,12 +12362,12 @@
       </c>
     </row>
     <row r="108" spans="4:17">
-      <c r="D108" s="349" t="s">
+      <c r="D108" s="348" t="s">
         <v>2358</v>
       </c>
-      <c r="E108" s="349"/>
-      <c r="G108" s="349"/>
-      <c r="H108" s="349"/>
+      <c r="E108" s="348"/>
+      <c r="G108" s="348"/>
+      <c r="H108" s="348"/>
     </row>
     <row r="109" spans="4:17">
       <c r="D109" t="s">
@@ -12408,11 +12408,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="D16:D25"/>
-    <mergeCell ref="D5:D15"/>
-    <mergeCell ref="F12:N13"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="J6:K6"/>
@@ -12420,6 +12415,11 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="M8:N8"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="D16:D25"/>
+    <mergeCell ref="D5:D15"/>
+    <mergeCell ref="F12:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -24148,7 +24148,7 @@
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="48"/>
-      <c r="L3" s="359" t="s">
+      <c r="L3" s="365" t="s">
         <v>2540</v>
       </c>
     </row>
@@ -24177,7 +24177,7 @@
       <c r="K4" s="51" t="s">
         <v>556</v>
       </c>
-      <c r="L4" s="360"/>
+      <c r="L4" s="366"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="A5" s="95"/>
@@ -24195,7 +24195,7 @@
       <c r="K5" s="54">
         <v>123</v>
       </c>
-      <c r="L5" s="360"/>
+      <c r="L5" s="366"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="95"/>
@@ -24209,7 +24209,7 @@
       <c r="I6" s="50"/>
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
-      <c r="L6" s="360"/>
+      <c r="L6" s="366"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="95"/>
@@ -24225,7 +24225,7 @@
       </c>
       <c r="J7" s="46"/>
       <c r="K7" s="48"/>
-      <c r="L7" s="360"/>
+      <c r="L7" s="366"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="95"/>
@@ -24243,7 +24243,7 @@
       <c r="K8" s="51" t="s">
         <v>521</v>
       </c>
-      <c r="L8" s="360"/>
+      <c r="L8" s="366"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="95" t="s">
@@ -24261,7 +24261,7 @@
       <c r="K9" s="54">
         <v>124</v>
       </c>
-      <c r="L9" s="360"/>
+      <c r="L9" s="366"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="F10" s="49"/>
@@ -24270,7 +24270,7 @@
       <c r="I10" s="50"/>
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
-      <c r="L10" s="360"/>
+      <c r="L10" s="366"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="95" t="s">
@@ -24283,7 +24283,7 @@
       <c r="I11" s="50"/>
       <c r="J11" s="46"/>
       <c r="K11" s="48"/>
-      <c r="L11" s="360"/>
+      <c r="L11" s="366"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="95" t="s">
@@ -24299,7 +24299,7 @@
       <c r="K12" s="51" t="s">
         <v>2532</v>
       </c>
-      <c r="L12" s="360"/>
+      <c r="L12" s="366"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="95" t="s">
@@ -24315,7 +24315,7 @@
       <c r="K13" s="54">
         <v>222</v>
       </c>
-      <c r="L13" s="360"/>
+      <c r="L13" s="366"/>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="56" t="s">
@@ -37913,25 +37913,25 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="105"/>
-      <c r="B29" s="347" t="s">
+      <c r="B29" s="359" t="s">
         <v>2593</v>
       </c>
-      <c r="C29" s="361"/>
-      <c r="D29" s="348"/>
+      <c r="C29" s="367"/>
+      <c r="D29" s="360"/>
       <c r="E29" s="105"/>
       <c r="F29" s="105"/>
-      <c r="G29" s="347" t="s">
+      <c r="G29" s="359" t="s">
         <v>1182</v>
       </c>
-      <c r="H29" s="361"/>
-      <c r="I29" s="348"/>
+      <c r="H29" s="367"/>
+      <c r="I29" s="360"/>
       <c r="J29" s="105"/>
       <c r="K29" s="105"/>
-      <c r="L29" s="347" t="s">
+      <c r="L29" s="359" t="s">
         <v>2594</v>
       </c>
-      <c r="M29" s="361"/>
-      <c r="N29" s="348"/>
+      <c r="M29" s="367"/>
+      <c r="N29" s="360"/>
       <c r="O29" s="105"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1">
@@ -37967,7 +37967,7 @@
       <c r="I31" s="74"/>
       <c r="J31" s="105"/>
       <c r="K31" s="105"/>
-      <c r="L31" s="362" t="s">
+      <c r="L31" s="368" t="s">
         <v>2608</v>
       </c>
       <c r="M31" s="38" t="s">
@@ -37992,7 +37992,7 @@
       <c r="I32" s="74"/>
       <c r="J32" s="105"/>
       <c r="K32" s="105"/>
-      <c r="L32" s="363"/>
+      <c r="L32" s="369"/>
       <c r="M32" s="38" t="s">
         <v>1919</v>
       </c>
@@ -38001,7 +38001,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="105"/>
-      <c r="B33" s="362" t="s">
+      <c r="B33" s="368" t="s">
         <v>2608</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -38017,7 +38017,7 @@
       <c r="I33" s="74"/>
       <c r="J33" s="105"/>
       <c r="K33" s="105"/>
-      <c r="L33" s="363"/>
+      <c r="L33" s="369"/>
       <c r="M33" s="38" t="s">
         <v>2596</v>
       </c>
@@ -38026,7 +38026,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="105"/>
-      <c r="B34" s="363"/>
+      <c r="B34" s="369"/>
       <c r="C34" s="173" t="s">
         <v>2604</v>
       </c>
@@ -38040,7 +38040,7 @@
       <c r="I34" s="74"/>
       <c r="J34" s="105"/>
       <c r="K34" s="105"/>
-      <c r="L34" s="363"/>
+      <c r="L34" s="369"/>
       <c r="M34" s="173" t="s">
         <v>2603</v>
       </c>
@@ -38049,7 +38049,7 @@
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1">
       <c r="A35" s="105"/>
-      <c r="B35" s="364"/>
+      <c r="B35" s="370"/>
       <c r="C35" s="173" t="s">
         <v>2601</v>
       </c>
@@ -38063,7 +38063,7 @@
       <c r="I35" s="74"/>
       <c r="J35" s="105"/>
       <c r="K35" s="105"/>
-      <c r="L35" s="363"/>
+      <c r="L35" s="369"/>
       <c r="M35" s="173" t="s">
         <v>2604</v>
       </c>
@@ -38086,7 +38086,7 @@
       <c r="I36" s="74"/>
       <c r="J36" s="105"/>
       <c r="K36" s="105"/>
-      <c r="L36" s="364"/>
+      <c r="L36" s="370"/>
       <c r="M36" s="173" t="s">
         <v>2601</v>
       </c>
@@ -40755,21 +40755,21 @@
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="B5" s="365" t="s">
+      <c r="B5" s="372" t="s">
         <v>2613</v>
       </c>
-      <c r="C5" s="365"/>
-      <c r="F5" s="365" t="s">
+      <c r="C5" s="372"/>
+      <c r="F5" s="372" t="s">
         <v>2614</v>
       </c>
-      <c r="G5" s="365"/>
+      <c r="G5" s="372"/>
       <c r="H5" s="38" t="s">
         <v>631</v>
       </c>
-      <c r="I5" s="365" t="s">
+      <c r="I5" s="372" t="s">
         <v>2614</v>
       </c>
-      <c r="J5" s="365"/>
+      <c r="J5" s="372"/>
       <c r="M5" s="73"/>
       <c r="N5" s="73"/>
       <c r="O5" t="s">
@@ -40777,22 +40777,22 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="B6" s="365" t="s">
+      <c r="B6" s="372" t="s">
         <v>2615</v>
       </c>
-      <c r="C6" s="365"/>
-      <c r="F6" s="365" t="s">
+      <c r="C6" s="372"/>
+      <c r="F6" s="372" t="s">
         <v>2989</v>
       </c>
-      <c r="G6" s="365"/>
-      <c r="I6" s="365" t="s">
+      <c r="G6" s="372"/>
+      <c r="I6" s="372" t="s">
         <v>1359</v>
       </c>
-      <c r="J6" s="365"/>
-      <c r="M6" s="372" t="s">
+      <c r="J6" s="372"/>
+      <c r="M6" s="346" t="s">
         <v>2614</v>
       </c>
-      <c r="N6" s="372"/>
+      <c r="N6" s="346"/>
       <c r="O6" t="s">
         <v>3007</v>
       </c>
@@ -40801,10 +40801,10 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="M7" s="373" t="s">
+      <c r="M7" s="347" t="s">
         <v>2616</v>
       </c>
-      <c r="N7" s="373"/>
+      <c r="N7" s="347"/>
       <c r="O7" t="s">
         <v>3008</v>
       </c>
@@ -40813,23 +40813,23 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="M8" s="373" t="s">
+      <c r="M8" s="347" t="s">
         <v>2619</v>
       </c>
-      <c r="N8" s="373"/>
+      <c r="N8" s="347"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="F9" s="366" t="s">
+      <c r="F9" s="371" t="s">
         <v>2620</v>
       </c>
-      <c r="G9" s="366"/>
-      <c r="H9" s="366"/>
-      <c r="I9" s="366"/>
-      <c r="J9" s="366"/>
-      <c r="K9" s="366"/>
-      <c r="L9" s="366"/>
-      <c r="M9" s="366"/>
-      <c r="N9" s="366"/>
+      <c r="G9" s="371"/>
+      <c r="H9" s="371"/>
+      <c r="I9" s="371"/>
+      <c r="J9" s="371"/>
+      <c r="K9" s="371"/>
+      <c r="L9" s="371"/>
+      <c r="M9" s="371"/>
+      <c r="N9" s="371"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
@@ -41839,7 +41839,7 @@
       </c>
       <c r="O58" s="173"/>
       <c r="P58" s="38"/>
-      <c r="Q58" s="368" t="s">
+      <c r="Q58" s="342" t="s">
         <v>1265</v>
       </c>
     </row>
@@ -41868,7 +41868,7 @@
       </c>
       <c r="O59" s="173"/>
       <c r="P59" s="38"/>
-      <c r="Q59" s="369"/>
+      <c r="Q59" s="343"/>
     </row>
     <row r="60" spans="1:17" ht="15.75" thickBot="1">
       <c r="A60" s="38"/>
@@ -41938,7 +41938,7 @@
         <v>1248</v>
       </c>
       <c r="P61" s="38"/>
-      <c r="Q61" s="368" t="s">
+      <c r="Q61" s="342" t="s">
         <v>1265</v>
       </c>
     </row>
@@ -41947,7 +41947,7 @@
         <v>414</v>
       </c>
       <c r="B62" s="38"/>
-      <c r="C62" s="371" t="s">
+      <c r="C62" s="345" t="s">
         <v>2145</v>
       </c>
       <c r="D62" s="236"/>
@@ -41959,7 +41959,7 @@
         <v>2145</v>
       </c>
       <c r="H62" s="38"/>
-      <c r="I62" s="370" t="s">
+      <c r="I62" s="344" t="s">
         <v>1711</v>
       </c>
       <c r="J62" s="38"/>
@@ -42045,10 +42045,10 @@
       </c>
     </row>
     <row r="66" spans="1:17">
-      <c r="C66" s="349" t="s">
+      <c r="C66" s="348" t="s">
         <v>2666</v>
       </c>
-      <c r="D66" s="349"/>
+      <c r="D66" s="348"/>
       <c r="J66" t="s">
         <v>1358</v>
       </c>
@@ -47106,11 +47106,11 @@
       <c r="L6" s="42" t="s">
         <v>1423</v>
       </c>
-      <c r="M6" s="367" t="s">
+      <c r="M6" s="373" t="s">
         <v>1424</v>
       </c>
-      <c r="N6" s="367"/>
-      <c r="O6" s="367"/>
+      <c r="N6" s="373"/>
+      <c r="O6" s="373"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -49487,7 +49487,7 @@
       <c r="F269" s="39">
         <v>9</v>
       </c>
-      <c r="G269" s="355" t="s">
+      <c r="G269" s="361" t="s">
         <v>2355</v>
       </c>
       <c r="I269" s="55" t="s">
@@ -49508,7 +49508,7 @@
       <c r="F270" s="39">
         <v>15</v>
       </c>
-      <c r="G270" s="356"/>
+      <c r="G270" s="362"/>
       <c r="I270" s="167" t="s">
         <v>2351</v>
       </c>
@@ -51126,23 +51126,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="358" t="s">
+      <c r="A1" s="364" t="s">
         <v>2362</v>
       </c>
-      <c r="B1" s="358"/>
-      <c r="C1" s="358"/>
-      <c r="D1" s="358"/>
-      <c r="E1" s="358"/>
-      <c r="F1" s="358"/>
-      <c r="I1" s="358" t="s">
+      <c r="B1" s="364"/>
+      <c r="C1" s="364"/>
+      <c r="D1" s="364"/>
+      <c r="E1" s="364"/>
+      <c r="F1" s="364"/>
+      <c r="I1" s="364" t="s">
         <v>2374</v>
       </c>
-      <c r="J1" s="358"/>
-      <c r="K1" s="358"/>
-      <c r="L1" s="358"/>
-      <c r="M1" s="358"/>
-      <c r="N1" s="358"/>
-      <c r="O1" s="358"/>
+      <c r="J1" s="364"/>
+      <c r="K1" s="364"/>
+      <c r="L1" s="364"/>
+      <c r="M1" s="364"/>
+      <c r="N1" s="364"/>
+      <c r="O1" s="364"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -51298,28 +51298,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="345" t="s">
+      <c r="A12" s="357" t="s">
         <v>2376</v>
       </c>
-      <c r="B12" s="357"/>
-      <c r="C12" s="357"/>
-      <c r="D12" s="357"/>
-      <c r="E12" s="357"/>
-      <c r="F12" s="357"/>
-      <c r="G12" s="357"/>
-      <c r="H12" s="346"/>
-      <c r="I12" s="345" t="s">
+      <c r="B12" s="363"/>
+      <c r="C12" s="363"/>
+      <c r="D12" s="363"/>
+      <c r="E12" s="363"/>
+      <c r="F12" s="363"/>
+      <c r="G12" s="363"/>
+      <c r="H12" s="358"/>
+      <c r="I12" s="357" t="s">
         <v>2376</v>
       </c>
-      <c r="J12" s="357"/>
-      <c r="K12" s="357"/>
-      <c r="L12" s="357"/>
-      <c r="M12" s="357"/>
-      <c r="N12" s="357"/>
-      <c r="O12" s="357"/>
-      <c r="P12" s="357"/>
-      <c r="Q12" s="357"/>
-      <c r="R12" s="346"/>
+      <c r="J12" s="363"/>
+      <c r="K12" s="363"/>
+      <c r="L12" s="363"/>
+      <c r="M12" s="363"/>
+      <c r="N12" s="363"/>
+      <c r="O12" s="363"/>
+      <c r="P12" s="363"/>
+      <c r="Q12" s="363"/>
+      <c r="R12" s="358"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="30" t="s">
@@ -51547,14 +51547,14 @@
       <c r="R21" s="37"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="358" t="s">
+      <c r="A24" s="364" t="s">
         <v>2362</v>
       </c>
-      <c r="B24" s="358"/>
-      <c r="C24" s="358"/>
-      <c r="D24" s="358"/>
-      <c r="E24" s="358"/>
-      <c r="F24" s="358"/>
+      <c r="B24" s="364"/>
+      <c r="C24" s="364"/>
+      <c r="D24" s="364"/>
+      <c r="E24" s="364"/>
+      <c r="F24" s="364"/>
       <c r="H24" s="255" t="s">
         <v>2374</v>
       </c>
@@ -51564,11 +51564,11 @@
       <c r="L24" s="255"/>
       <c r="M24" s="255"/>
       <c r="N24" s="255"/>
-      <c r="P24" s="358" t="s">
+      <c r="P24" s="364" t="s">
         <v>2415</v>
       </c>
-      <c r="Q24" s="358"/>
-      <c r="R24" s="358"/>
+      <c r="Q24" s="364"/>
+      <c r="R24" s="364"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="105" t="s">
@@ -51808,28 +51808,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="345" t="s">
+      <c r="A35" s="357" t="s">
         <v>2416</v>
       </c>
-      <c r="B35" s="357"/>
-      <c r="C35" s="357"/>
-      <c r="D35" s="357"/>
-      <c r="E35" s="357"/>
-      <c r="F35" s="357"/>
-      <c r="G35" s="357"/>
-      <c r="H35" s="346"/>
-      <c r="I35" s="345" t="s">
+      <c r="B35" s="363"/>
+      <c r="C35" s="363"/>
+      <c r="D35" s="363"/>
+      <c r="E35" s="363"/>
+      <c r="F35" s="363"/>
+      <c r="G35" s="363"/>
+      <c r="H35" s="358"/>
+      <c r="I35" s="357" t="s">
         <v>1110</v>
       </c>
-      <c r="J35" s="357"/>
-      <c r="K35" s="357"/>
-      <c r="L35" s="357"/>
-      <c r="M35" s="357"/>
-      <c r="N35" s="357"/>
-      <c r="O35" s="357"/>
-      <c r="P35" s="357"/>
-      <c r="Q35" s="357"/>
-      <c r="R35" s="346"/>
+      <c r="J35" s="363"/>
+      <c r="K35" s="363"/>
+      <c r="L35" s="363"/>
+      <c r="M35" s="363"/>
+      <c r="N35" s="363"/>
+      <c r="O35" s="363"/>
+      <c r="P35" s="363"/>
+      <c r="Q35" s="363"/>
+      <c r="R35" s="358"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="30" t="s">
